--- a/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
+++ b/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\FDA_EUA tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD92F54-698E-4B51-8569-6BBA2D239DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA896E3-8088-48D1-AF0A-602A2B2C18C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CB072C4-4071-45ED-9E21-A7B6C58CD755}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="2570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="2566">
   <si>
     <t>Company/Organization</t>
   </si>
@@ -7709,15 +7709,6 @@
     <t xml:space="preserve">http://purl.obolibrary.org/obo/OGG_3043740570 </t>
   </si>
   <si>
-    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_30437405781a</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OGG_30437405781a</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OGG_30437405781</t>
-  </si>
-  <si>
     <t>orf1ab,RdRp,ORF1a,ORF1</t>
   </si>
   <si>
@@ -7800,9 +7791,6 @@
   </si>
   <si>
     <t>genome of severe acute respiratory syndrome coronavirus 2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_30437405781</t>
   </si>
 </sst>
 </file>
@@ -8204,8 +8192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6338C626-B5C7-4274-B4C3-F95CCA523B46}">
   <dimension ref="A1:V346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V344"/>
+    <sheetView tabSelected="1" topLeftCell="F312" workbookViewId="0">
+      <selection activeCell="N327" sqref="A1:V344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8282,7 +8270,7 @@
         <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -8999,7 +8987,7 @@
         <v>442</v>
       </c>
       <c r="B16" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="C16" t="s">
         <v>443</v>
@@ -10419,7 +10407,7 @@
         <v>989</v>
       </c>
       <c r="M42" t="s">
-        <v>2540</v>
+        <v>2528</v>
       </c>
       <c r="N42" t="s">
         <v>2536</v>
@@ -10475,7 +10463,7 @@
         <v>649</v>
       </c>
       <c r="M43" t="s">
-        <v>2539</v>
+        <v>2528</v>
       </c>
       <c r="S43" t="s">
         <v>378</v>
@@ -10781,7 +10769,7 @@
         <v>423</v>
       </c>
       <c r="U49" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V49" t="s">
         <v>30</v>
@@ -11237,7 +11225,7 @@
         <v>2527</v>
       </c>
       <c r="N58" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="S58" t="s">
         <v>490</v>
@@ -12341,7 +12329,7 @@
         <v>65</v>
       </c>
       <c r="J79" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="K79" t="s">
         <v>308</v>
@@ -12350,7 +12338,7 @@
         <v>309</v>
       </c>
       <c r="M79" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="S79" t="s">
         <v>628</v>
@@ -12506,7 +12494,7 @@
         <v>12</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="K82" t="s">
         <v>527</v>
@@ -12724,7 +12712,7 @@
         <v>679</v>
       </c>
       <c r="U86" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V86" t="s">
         <v>30</v>
@@ -12771,7 +12759,7 @@
         <v>688</v>
       </c>
       <c r="U87" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V87" t="s">
         <v>30</v>
@@ -12877,7 +12865,7 @@
         <v>2535</v>
       </c>
       <c r="P89" t="s">
-        <v>2538</v>
+        <v>2533</v>
       </c>
       <c r="S89" t="s">
         <v>702</v>
@@ -13433,7 +13421,7 @@
         <v>491</v>
       </c>
       <c r="B100" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="C100" t="s">
         <v>492</v>
@@ -13486,7 +13474,7 @@
         <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="C101" t="s">
         <v>2341</v>
@@ -14287,7 +14275,7 @@
         <v>469</v>
       </c>
       <c r="B116" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="C116" t="s">
         <v>470</v>
@@ -15097,7 +15085,7 @@
         <v>998</v>
       </c>
       <c r="U131" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V131" t="s">
         <v>30</v>
@@ -15356,7 +15344,7 @@
         <v>1031</v>
       </c>
       <c r="U136" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V136" t="s">
         <v>30</v>
@@ -15400,7 +15388,7 @@
         <v>1037</v>
       </c>
       <c r="U137" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V137" t="s">
         <v>30</v>
@@ -15411,7 +15399,7 @@
         <v>462</v>
       </c>
       <c r="B138" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="C138" t="s">
         <v>463</v>
@@ -16366,7 +16354,7 @@
         <v>1159</v>
       </c>
       <c r="U155" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V155" t="s">
         <v>30</v>
@@ -16457,7 +16445,7 @@
         <v>1172</v>
       </c>
       <c r="U157" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V157" t="s">
         <v>30</v>
@@ -16816,7 +16804,7 @@
         <v>65</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="K164" t="s">
         <v>1087</v>
@@ -17034,7 +17022,7 @@
         <v>65</v>
       </c>
       <c r="J168" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="K168" t="s">
         <v>359</v>
@@ -17367,7 +17355,7 @@
         <v>65</v>
       </c>
       <c r="J174" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="K174" t="s">
         <v>1634</v>
@@ -17376,7 +17364,7 @@
         <v>474</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="S174" t="s">
         <v>1285</v>
@@ -17552,7 +17540,7 @@
         <v>456</v>
       </c>
       <c r="B178" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="C178" t="s">
         <v>457</v>
@@ -17856,7 +17844,7 @@
         <v>1347</v>
       </c>
       <c r="U183" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V183" t="s">
         <v>30</v>
@@ -18424,7 +18412,7 @@
         <v>649</v>
       </c>
       <c r="M194" t="s">
-        <v>2539</v>
+        <v>2528</v>
       </c>
       <c r="S194" t="s">
         <v>1426</v>
@@ -18915,7 +18903,7 @@
         <v>2366</v>
       </c>
       <c r="B204" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="C204" t="s">
         <v>2368</v>
@@ -19230,7 +19218,7 @@
         <v>449</v>
       </c>
       <c r="B210" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="C210" t="s">
         <v>450</v>
@@ -19743,7 +19731,7 @@
         <v>2528</v>
       </c>
       <c r="N219" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="S219" t="s">
         <v>1606</v>
@@ -19905,7 +19893,7 @@
         <v>1629</v>
       </c>
       <c r="U222" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V222" t="s">
         <v>30</v>
@@ -20055,7 +20043,7 @@
         <v>1647</v>
       </c>
       <c r="U225" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V225" t="s">
         <v>30</v>
@@ -20753,7 +20741,7 @@
         <v>1740</v>
       </c>
       <c r="U238" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V238" t="s">
         <v>30</v>
@@ -21618,7 +21606,7 @@
         <v>1865</v>
       </c>
       <c r="U255" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V255" t="s">
         <v>30</v>
@@ -21968,7 +21956,7 @@
         <v>1916</v>
       </c>
       <c r="U262" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V262" t="s">
         <v>30</v>
@@ -22748,7 +22736,7 @@
         <v>65</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="K277" t="s">
         <v>518</v>
@@ -22757,7 +22745,7 @@
         <v>519</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="S277" t="s">
         <v>2021</v>
@@ -23039,7 +23027,7 @@
         <v>476</v>
       </c>
       <c r="B283" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="C283" t="s">
         <v>477</v>
@@ -23443,7 +23431,7 @@
         <v>440</v>
       </c>
       <c r="U290" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="V290" t="s">
         <v>441</v>
@@ -24676,7 +24664,7 @@
         <v>65</v>
       </c>
       <c r="J314" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="K314" t="s">
         <v>249</v>
@@ -25380,7 +25368,7 @@
         <v>2524</v>
       </c>
       <c r="N327" t="s">
-        <v>2569</v>
+        <v>2533</v>
       </c>
       <c r="S327" t="s">
         <v>2379</v>
@@ -26239,13 +26227,13 @@
         <v>510</v>
       </c>
       <c r="B344" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>511</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>149</v>
@@ -26266,10 +26254,10 @@
         <v>440</v>
       </c>
       <c r="K344" s="3" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="L344" s="3" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="M344" s="3" t="s">
         <v>2524</v>
@@ -26352,7 +26340,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2528</v>
@@ -26384,7 +26372,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2524</v>
@@ -26395,10 +26383,10 @@
         <v>519</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -26472,10 +26460,10 @@
         <v>248</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -26486,18 +26474,18 @@
         <v>1881</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1897</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -26513,7 +26501,7 @@
         <v>1861</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -26526,10 +26514,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="C19" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
+++ b/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\FDA_EUA tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA896E3-8088-48D1-AF0A-602A2B2C18C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A36935-0466-48AB-BDA6-E2B9FD53C8A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CB072C4-4071-45ED-9E21-A7B6C58CD755}"/>
   </bookViews>
@@ -7679,9 +7679,6 @@
     <t>http://purl.obolibrary.org/obo/OGG_3043740568</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OGG_3043740578</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/CIDO_0000351</t>
   </si>
   <si>
@@ -7694,12 +7691,6 @@
     <t xml:space="preserve">http://purl.obolibrary.org/obo/OGG_3043740575 </t>
   </si>
   <si>
-    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_3043740578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.obolibrary.org/obo/OGG_3043740578 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_3043740568</t>
   </si>
   <si>
@@ -7791,6 +7782,15 @@
   </si>
   <si>
     <t>genome of severe acute respiratory syndrome coronavirus 2'</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OGG_3043740579</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_3043740579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.obolibrary.org/obo/OGG_3043740579 </t>
   </si>
 </sst>
 </file>
@@ -8192,8 +8192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6338C626-B5C7-4274-B4C3-F95CCA523B46}">
   <dimension ref="A1:V346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F312" workbookViewId="0">
-      <selection activeCell="N327" sqref="A1:V344"/>
+    <sheetView tabSelected="1" topLeftCell="O317" workbookViewId="0">
+      <selection sqref="A1:V344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8270,7 +8270,7 @@
         <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -8317,7 +8317,7 @@
         <v>1895</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N2" t="s">
         <v>2526</v>
@@ -8373,7 +8373,7 @@
         <v>1887</v>
       </c>
       <c r="M3" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S3" t="s">
         <v>38</v>
@@ -8449,7 +8449,7 @@
         <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
@@ -8499,7 +8499,7 @@
         <v>92</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K6" t="s">
         <v>93</v>
@@ -8602,7 +8602,7 @@
         <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K8" t="s">
         <v>142</v>
@@ -8658,13 +8658,13 @@
         <v>1479</v>
       </c>
       <c r="M9" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N9" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O9" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S9" t="s">
         <v>95</v>
@@ -8755,7 +8755,7 @@
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K11" t="s">
         <v>45</v>
@@ -8902,7 +8902,7 @@
         <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K14" t="s">
         <v>93</v>
@@ -8964,10 +8964,10 @@
         <v>2524</v>
       </c>
       <c r="N15" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="O15" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S15" t="s">
         <v>143</v>
@@ -8987,7 +8987,7 @@
         <v>442</v>
       </c>
       <c r="B16" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="C16" t="s">
         <v>443</v>
@@ -9020,7 +9020,7 @@
         <v>447</v>
       </c>
       <c r="M16" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S16" t="s">
         <v>154</v>
@@ -9076,7 +9076,7 @@
         <v>2526</v>
       </c>
       <c r="N17" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S17" t="s">
         <v>164</v>
@@ -9132,7 +9132,7 @@
         <v>2524</v>
       </c>
       <c r="N18" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S18" t="s">
         <v>172</v>
@@ -9185,10 +9185,10 @@
         <v>563</v>
       </c>
       <c r="M19" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N19" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S19" t="s">
         <v>179</v>
@@ -9241,7 +9241,7 @@
         <v>1887</v>
       </c>
       <c r="M20" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S20" t="s">
         <v>188</v>
@@ -9294,7 +9294,7 @@
         <v>1793</v>
       </c>
       <c r="M21" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S21" t="s">
         <v>196</v>
@@ -9347,7 +9347,7 @@
         <v>447</v>
       </c>
       <c r="M22" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S22" t="s">
         <v>203</v>
@@ -9400,7 +9400,7 @@
         <v>2080</v>
       </c>
       <c r="M23" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N23" t="s">
         <v>2524</v>
@@ -9459,13 +9459,13 @@
         <v>586</v>
       </c>
       <c r="M24" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N24" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O24" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S24" t="s">
         <v>220</v>
@@ -9612,7 +9612,7 @@
         <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K27" t="s">
         <v>2121</v>
@@ -9671,7 +9671,7 @@
         <v>163</v>
       </c>
       <c r="M28" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S28" t="s">
         <v>250</v>
@@ -9715,7 +9715,7 @@
         <v>65</v>
       </c>
       <c r="J29" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K29" t="s">
         <v>132</v>
@@ -9724,7 +9724,7 @@
         <v>133</v>
       </c>
       <c r="M29" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S29" t="s">
         <v>260</v>
@@ -9777,7 +9777,7 @@
         <v>163</v>
       </c>
       <c r="M30" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S30" t="s">
         <v>269</v>
@@ -9830,10 +9830,10 @@
         <v>259</v>
       </c>
       <c r="M31" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N31" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S31" t="s">
         <v>276</v>
@@ -9886,7 +9886,7 @@
         <v>489</v>
       </c>
       <c r="M32" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N32" t="s">
         <v>2524</v>
@@ -10092,7 +10092,7 @@
         <v>233</v>
       </c>
       <c r="J36" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K36" t="s">
         <v>1344</v>
@@ -10407,10 +10407,10 @@
         <v>989</v>
       </c>
       <c r="M42" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N42" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S42" t="s">
         <v>370</v>
@@ -10463,7 +10463,7 @@
         <v>649</v>
       </c>
       <c r="M43" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S43" t="s">
         <v>378</v>
@@ -10657,7 +10657,7 @@
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K47" t="s">
         <v>67</v>
@@ -10707,7 +10707,7 @@
         <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K48" t="s">
         <v>67</v>
@@ -10769,7 +10769,7 @@
         <v>423</v>
       </c>
       <c r="U49" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V49" t="s">
         <v>30</v>
@@ -10804,7 +10804,7 @@
         <v>233</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K50" t="s">
         <v>392</v>
@@ -10851,7 +10851,7 @@
         <v>54</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K51" t="s">
         <v>844</v>
@@ -10901,7 +10901,7 @@
         <v>92</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K52" t="s">
         <v>844</v>
@@ -11066,7 +11066,7 @@
         <v>1778</v>
       </c>
       <c r="M55" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S55" t="s">
         <v>468</v>
@@ -11119,7 +11119,7 @@
         <v>2210</v>
       </c>
       <c r="M56" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>475</v>
@@ -11225,7 +11225,7 @@
         <v>2527</v>
       </c>
       <c r="N58" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="S58" t="s">
         <v>490</v>
@@ -11322,7 +11322,7 @@
         <v>233</v>
       </c>
       <c r="J60" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K60" t="s">
         <v>1575</v>
@@ -11381,10 +11381,10 @@
         <v>1129</v>
       </c>
       <c r="M61" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N61" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S61" t="s">
         <v>509</v>
@@ -11590,7 +11590,7 @@
         <v>163</v>
       </c>
       <c r="M65" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S65" t="s">
         <v>528</v>
@@ -11634,7 +11634,7 @@
         <v>233</v>
       </c>
       <c r="J66" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K66" t="s">
         <v>142</v>
@@ -11749,10 +11749,10 @@
         <v>2524</v>
       </c>
       <c r="N68" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="O68" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S68" t="s">
         <v>549</v>
@@ -11796,7 +11796,7 @@
         <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K69" t="s">
         <v>37</v>
@@ -11846,7 +11846,7 @@
         <v>233</v>
       </c>
       <c r="J70" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K70" t="s">
         <v>142</v>
@@ -11908,7 +11908,7 @@
         <v>2524</v>
       </c>
       <c r="N71" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S71" t="s">
         <v>572</v>
@@ -12070,7 +12070,7 @@
         <v>2526</v>
       </c>
       <c r="N74" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S74" t="s">
         <v>594</v>
@@ -12176,7 +12176,7 @@
         <v>2142</v>
       </c>
       <c r="M76" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>2527</v>
@@ -12232,7 +12232,7 @@
         <v>467</v>
       </c>
       <c r="M77" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S77" t="s">
         <v>614</v>
@@ -12285,7 +12285,7 @@
         <v>163</v>
       </c>
       <c r="M78" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S78" t="s">
         <v>621</v>
@@ -12329,7 +12329,7 @@
         <v>65</v>
       </c>
       <c r="J79" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="K79" t="s">
         <v>308</v>
@@ -12338,7 +12338,7 @@
         <v>309</v>
       </c>
       <c r="M79" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="S79" t="s">
         <v>628</v>
@@ -12394,7 +12394,7 @@
         <v>2526</v>
       </c>
       <c r="N80" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S80" t="s">
         <v>635</v>
@@ -12450,10 +12450,10 @@
         <v>2524</v>
       </c>
       <c r="N81" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="O81" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S81" t="s">
         <v>643</v>
@@ -12494,7 +12494,7 @@
         <v>12</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="K82" t="s">
         <v>527</v>
@@ -12553,7 +12553,7 @@
         <v>2461</v>
       </c>
       <c r="M83" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S83" t="s">
         <v>657</v>
@@ -12606,10 +12606,10 @@
         <v>1035</v>
       </c>
       <c r="M84" t="s">
+        <v>2564</v>
+      </c>
+      <c r="N84" t="s">
         <v>2533</v>
-      </c>
-      <c r="N84" t="s">
-        <v>2536</v>
       </c>
       <c r="S84" t="s">
         <v>664</v>
@@ -12662,10 +12662,10 @@
         <v>343</v>
       </c>
       <c r="M85" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N85" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S85" t="s">
         <v>672</v>
@@ -12712,7 +12712,7 @@
         <v>679</v>
       </c>
       <c r="U86" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V86" t="s">
         <v>30</v>
@@ -12759,7 +12759,7 @@
         <v>688</v>
       </c>
       <c r="U87" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V87" t="s">
         <v>30</v>
@@ -12803,7 +12803,7 @@
         <v>1793</v>
       </c>
       <c r="M88" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S88" t="s">
         <v>694</v>
@@ -12859,13 +12859,13 @@
         <v>2524</v>
       </c>
       <c r="N89" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="O89" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="P89" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S89" t="s">
         <v>702</v>
@@ -12918,7 +12918,7 @@
         <v>163</v>
       </c>
       <c r="M90" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S90" t="s">
         <v>709</v>
@@ -12971,13 +12971,13 @@
         <v>1479</v>
       </c>
       <c r="M91" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N91" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O91" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S91" t="s">
         <v>716</v>
@@ -13083,10 +13083,10 @@
         <v>1568</v>
       </c>
       <c r="M93" t="s">
-        <v>2534</v>
+        <v>2565</v>
       </c>
       <c r="N93" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S93" t="s">
         <v>727</v>
@@ -13230,7 +13230,7 @@
         <v>1858</v>
       </c>
       <c r="J96" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K96" t="s">
         <v>1878</v>
@@ -13289,7 +13289,7 @@
         <v>438</v>
       </c>
       <c r="M97" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S97" t="s">
         <v>756</v>
@@ -13342,10 +13342,10 @@
         <v>259</v>
       </c>
       <c r="M98" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N98" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S98" t="s">
         <v>764</v>
@@ -13398,10 +13398,10 @@
         <v>1451</v>
       </c>
       <c r="M99" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N99" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S99" t="s">
         <v>771</v>
@@ -13421,7 +13421,7 @@
         <v>491</v>
       </c>
       <c r="B100" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="C100" t="s">
         <v>492</v>
@@ -13474,7 +13474,7 @@
         <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="C101" t="s">
         <v>2341</v>
@@ -13610,13 +13610,13 @@
         <v>586</v>
       </c>
       <c r="M103" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N103" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O103" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S103" t="s">
         <v>801</v>
@@ -13719,7 +13719,7 @@
         <v>1232</v>
       </c>
       <c r="M105" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S105" t="s">
         <v>816</v>
@@ -14093,10 +14093,10 @@
         <v>2524</v>
       </c>
       <c r="N112" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="O112" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S112" t="s">
         <v>866</v>
@@ -14149,10 +14149,10 @@
         <v>1029</v>
       </c>
       <c r="M113" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N113" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S113" t="s">
         <v>874</v>
@@ -14205,7 +14205,7 @@
         <v>1871</v>
       </c>
       <c r="M114" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S114" t="s">
         <v>882</v>
@@ -14249,7 +14249,7 @@
         <v>92</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K115" t="s">
         <v>45</v>
@@ -14275,7 +14275,7 @@
         <v>469</v>
       </c>
       <c r="B116" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="C116" t="s">
         <v>470</v>
@@ -14399,7 +14399,7 @@
         <v>92</v>
       </c>
       <c r="J118" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K118" t="s">
         <v>399</v>
@@ -14446,7 +14446,7 @@
         <v>54</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K119" t="s">
         <v>45</v>
@@ -14546,7 +14546,7 @@
         <v>54</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K121" t="s">
         <v>45</v>
@@ -14658,7 +14658,7 @@
         <v>2524</v>
       </c>
       <c r="N123" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S123" t="s">
         <v>941</v>
@@ -14767,10 +14767,10 @@
         <v>2524</v>
       </c>
       <c r="N125" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="O125" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S125" t="s">
         <v>951</v>
@@ -14826,10 +14826,10 @@
         <v>2524</v>
       </c>
       <c r="N126" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="O126" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S126" t="s">
         <v>958</v>
@@ -14923,7 +14923,7 @@
         <v>195</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K128" t="s">
         <v>45</v>
@@ -15023,7 +15023,7 @@
         <v>12</v>
       </c>
       <c r="J130" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K130" t="s">
         <v>25</v>
@@ -15085,7 +15085,7 @@
         <v>998</v>
       </c>
       <c r="U131" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V131" t="s">
         <v>30</v>
@@ -15232,7 +15232,7 @@
         <v>2524</v>
       </c>
       <c r="N134" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S134" t="s">
         <v>1016</v>
@@ -15285,10 +15285,10 @@
         <v>259</v>
       </c>
       <c r="M135" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N135" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S135" t="s">
         <v>1022</v>
@@ -15344,7 +15344,7 @@
         <v>1031</v>
       </c>
       <c r="U136" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V136" t="s">
         <v>30</v>
@@ -15388,7 +15388,7 @@
         <v>1037</v>
       </c>
       <c r="U137" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V137" t="s">
         <v>30</v>
@@ -15399,7 +15399,7 @@
         <v>462</v>
       </c>
       <c r="B138" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="C138" t="s">
         <v>463</v>
@@ -15432,7 +15432,7 @@
         <v>467</v>
       </c>
       <c r="M138" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S138" t="s">
         <v>1041</v>
@@ -15538,7 +15538,7 @@
         <v>447</v>
       </c>
       <c r="M140" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S140" t="s">
         <v>1055</v>
@@ -15591,13 +15591,13 @@
         <v>1656</v>
       </c>
       <c r="M141" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N141" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O141" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S141" t="s">
         <v>1062</v>
@@ -15650,10 +15650,10 @@
         <v>686</v>
       </c>
       <c r="M142" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N142" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S142" t="s">
         <v>1068</v>
@@ -15706,10 +15706,10 @@
         <v>1500</v>
       </c>
       <c r="M143" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N143" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S143" t="s">
         <v>1077</v>
@@ -15762,7 +15762,7 @@
         <v>1793</v>
       </c>
       <c r="M144" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S144" t="s">
         <v>1081</v>
@@ -15806,7 +15806,7 @@
         <v>233</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K145" t="s">
         <v>268</v>
@@ -15918,7 +15918,7 @@
         <v>1871</v>
       </c>
       <c r="M147" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S147" t="s">
         <v>1102</v>
@@ -16077,7 +16077,7 @@
         <v>1793</v>
       </c>
       <c r="M150" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S150" t="s">
         <v>1122</v>
@@ -16130,10 +16130,10 @@
         <v>1525</v>
       </c>
       <c r="M151" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N151" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S151" t="s">
         <v>1130</v>
@@ -16289,10 +16289,10 @@
         <v>259</v>
       </c>
       <c r="M154" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N154" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S154" t="s">
         <v>1150</v>
@@ -16345,7 +16345,7 @@
         <v>163</v>
       </c>
       <c r="M155" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S155" t="s">
         <v>1158</v>
@@ -16354,7 +16354,7 @@
         <v>1159</v>
       </c>
       <c r="U155" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V155" t="s">
         <v>30</v>
@@ -16445,7 +16445,7 @@
         <v>1172</v>
       </c>
       <c r="U157" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V157" t="s">
         <v>30</v>
@@ -16701,13 +16701,13 @@
         <v>586</v>
       </c>
       <c r="M162" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N162" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O162" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S162" t="s">
         <v>1206</v>
@@ -16760,7 +16760,7 @@
         <v>1793</v>
       </c>
       <c r="M163" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S163" t="s">
         <v>1210</v>
@@ -16804,7 +16804,7 @@
         <v>65</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="K164" t="s">
         <v>1087</v>
@@ -16972,13 +16972,13 @@
         <v>1479</v>
       </c>
       <c r="M167" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N167" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O167" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S167" t="s">
         <v>1241</v>
@@ -17022,7 +17022,7 @@
         <v>65</v>
       </c>
       <c r="J168" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="K168" t="s">
         <v>359</v>
@@ -17087,10 +17087,10 @@
         <v>2524</v>
       </c>
       <c r="N169" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="O169" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S169" t="s">
         <v>1254</v>
@@ -17196,10 +17196,10 @@
         <v>489</v>
       </c>
       <c r="M171" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N171" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S171" t="s">
         <v>1266</v>
@@ -17252,13 +17252,13 @@
         <v>873</v>
       </c>
       <c r="M172" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N172" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O172" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S172" t="s">
         <v>1271</v>
@@ -17311,7 +17311,7 @@
         <v>2157</v>
       </c>
       <c r="M173" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S173" t="s">
         <v>1279</v>
@@ -17355,7 +17355,7 @@
         <v>65</v>
       </c>
       <c r="J174" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="K174" t="s">
         <v>1634</v>
@@ -17364,7 +17364,7 @@
         <v>474</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="S174" t="s">
         <v>1285</v>
@@ -17514,7 +17514,7 @@
         <v>141</v>
       </c>
       <c r="J177" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K177" t="s">
         <v>142</v>
@@ -17540,7 +17540,7 @@
         <v>456</v>
       </c>
       <c r="B178" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="C178" t="s">
         <v>457</v>
@@ -17626,13 +17626,13 @@
         <v>1493</v>
       </c>
       <c r="M179" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N179" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="O179" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S179" t="s">
         <v>1315</v>
@@ -17685,10 +17685,10 @@
         <v>1029</v>
       </c>
       <c r="M180" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N180" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S180" t="s">
         <v>1322</v>
@@ -17741,7 +17741,7 @@
         <v>163</v>
       </c>
       <c r="M181" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S181" t="s">
         <v>1329</v>
@@ -17844,7 +17844,7 @@
         <v>1347</v>
       </c>
       <c r="U183" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V183" t="s">
         <v>30</v>
@@ -17888,7 +17888,7 @@
         <v>1895</v>
       </c>
       <c r="M184" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N184" t="s">
         <v>2526</v>
@@ -17947,7 +17947,7 @@
         <v>2524</v>
       </c>
       <c r="N185" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S185" t="s">
         <v>1358</v>
@@ -18412,7 +18412,7 @@
         <v>649</v>
       </c>
       <c r="M194" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S194" t="s">
         <v>1426</v>
@@ -18465,7 +18465,7 @@
         <v>163</v>
       </c>
       <c r="M195" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S195" t="s">
         <v>1431</v>
@@ -18509,7 +18509,7 @@
         <v>233</v>
       </c>
       <c r="J196" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K196" t="s">
         <v>1386</v>
@@ -18568,7 +18568,7 @@
         <v>163</v>
       </c>
       <c r="M197" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S197" t="s">
         <v>1444</v>
@@ -18621,7 +18621,7 @@
         <v>163</v>
       </c>
       <c r="M198" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S198" t="s">
         <v>1452</v>
@@ -18665,7 +18665,7 @@
         <v>233</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K199" t="s">
         <v>844</v>
@@ -18727,7 +18727,7 @@
         <v>2524</v>
       </c>
       <c r="N200" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S200" t="s">
         <v>1465</v>
@@ -18780,7 +18780,7 @@
         <v>125</v>
       </c>
       <c r="M201" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S201" t="s">
         <v>1472</v>
@@ -18903,7 +18903,7 @@
         <v>2366</v>
       </c>
       <c r="B204" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="C204" t="s">
         <v>2368</v>
@@ -19033,7 +19033,7 @@
         <v>141</v>
       </c>
       <c r="J206" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K206" t="s">
         <v>734</v>
@@ -19148,7 +19148,7 @@
         <v>2524</v>
       </c>
       <c r="N208" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S208" t="s">
         <v>1526</v>
@@ -19218,7 +19218,7 @@
         <v>449</v>
       </c>
       <c r="B210" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="C210" t="s">
         <v>450</v>
@@ -19357,7 +19357,7 @@
         <v>1887</v>
       </c>
       <c r="M212" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S212" t="s">
         <v>1552</v>
@@ -19410,7 +19410,7 @@
         <v>2394</v>
       </c>
       <c r="M213" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S213" t="s">
         <v>1561</v>
@@ -19557,7 +19557,7 @@
         <v>233</v>
       </c>
       <c r="J216" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K216" t="s">
         <v>45</v>
@@ -19616,7 +19616,7 @@
         <v>489</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N217" t="s">
         <v>2524</v>
@@ -19675,7 +19675,7 @@
         <v>2524</v>
       </c>
       <c r="N218" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S218" t="s">
         <v>1599</v>
@@ -19728,10 +19728,10 @@
         <v>571</v>
       </c>
       <c r="M219" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N219" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="S219" t="s">
         <v>1606</v>
@@ -19784,7 +19784,7 @@
         <v>1793</v>
       </c>
       <c r="M220" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S220" t="s">
         <v>1613</v>
@@ -19893,7 +19893,7 @@
         <v>1629</v>
       </c>
       <c r="U222" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V222" t="s">
         <v>30</v>
@@ -20043,7 +20043,7 @@
         <v>1647</v>
       </c>
       <c r="U225" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V225" t="s">
         <v>30</v>
@@ -20087,7 +20087,7 @@
         <v>1232</v>
       </c>
       <c r="M226" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S226" t="s">
         <v>1650</v>
@@ -20131,7 +20131,7 @@
         <v>233</v>
       </c>
       <c r="J227" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K227" t="s">
         <v>45</v>
@@ -20296,7 +20296,7 @@
         <v>1837</v>
       </c>
       <c r="M230" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S230" t="s">
         <v>1678</v>
@@ -20402,7 +20402,7 @@
         <v>2309</v>
       </c>
       <c r="M232" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S232" t="s">
         <v>1693</v>
@@ -20458,10 +20458,10 @@
         <v>2524</v>
       </c>
       <c r="N233" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="O233" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="Q233" t="s">
         <v>474</v>
@@ -20517,10 +20517,10 @@
         <v>489</v>
       </c>
       <c r="M234" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N234" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S234" t="s">
         <v>1708</v>
@@ -20573,7 +20573,7 @@
         <v>1895</v>
       </c>
       <c r="M235" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N235" t="s">
         <v>2526</v>
@@ -20629,10 +20629,10 @@
         <v>259</v>
       </c>
       <c r="M236" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N236" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S236" t="s">
         <v>1723</v>
@@ -20741,7 +20741,7 @@
         <v>1740</v>
       </c>
       <c r="U238" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V238" t="s">
         <v>30</v>
@@ -20888,7 +20888,7 @@
         <v>163</v>
       </c>
       <c r="M241" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S241" t="s">
         <v>1762</v>
@@ -20941,10 +20941,10 @@
         <v>1029</v>
       </c>
       <c r="M242" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N242" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S242" t="s">
         <v>1770</v>
@@ -20997,7 +20997,7 @@
         <v>163</v>
       </c>
       <c r="M243" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S243" t="s">
         <v>1779</v>
@@ -21200,7 +21200,7 @@
         <v>2438</v>
       </c>
       <c r="M247" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S247" t="s">
         <v>1810</v>
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="J250" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K250" t="s">
         <v>2218</v>
@@ -21403,7 +21403,7 @@
         <v>163</v>
       </c>
       <c r="M251" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S251" t="s">
         <v>1838</v>
@@ -21456,7 +21456,7 @@
         <v>1793</v>
       </c>
       <c r="M252" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S252" t="s">
         <v>1846</v>
@@ -21606,7 +21606,7 @@
         <v>1865</v>
       </c>
       <c r="U255" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V255" t="s">
         <v>30</v>
@@ -21794,7 +21794,7 @@
         <v>12</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K259" t="s">
         <v>84</v>
@@ -21844,7 +21844,7 @@
         <v>54</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K260" t="s">
         <v>708</v>
@@ -21894,7 +21894,7 @@
         <v>233</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K261" t="s">
         <v>45</v>
@@ -21956,7 +21956,7 @@
         <v>1916</v>
       </c>
       <c r="U262" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V262" t="s">
         <v>30</v>
@@ -22000,10 +22000,10 @@
         <v>1029</v>
       </c>
       <c r="M263" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N263" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S263" t="s">
         <v>1922</v>
@@ -22056,7 +22056,7 @@
         <v>2142</v>
       </c>
       <c r="M264" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="N264" s="3" t="s">
         <v>2527</v>
@@ -22112,7 +22112,7 @@
         <v>163</v>
       </c>
       <c r="M265" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S265" t="s">
         <v>1937</v>
@@ -22209,7 +22209,7 @@
         <v>1645</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K267" t="s">
         <v>1715</v>
@@ -22268,7 +22268,7 @@
         <v>447</v>
       </c>
       <c r="M268" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S268" t="s">
         <v>1951</v>
@@ -22530,7 +22530,7 @@
         <v>1793</v>
       </c>
       <c r="M273" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S273" t="s">
         <v>1990</v>
@@ -22633,10 +22633,10 @@
         <v>283</v>
       </c>
       <c r="M275" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N275" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S275" t="s">
         <v>2006</v>
@@ -22689,7 +22689,7 @@
         <v>489</v>
       </c>
       <c r="M276" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N276" t="s">
         <v>2524</v>
@@ -22736,7 +22736,7 @@
         <v>65</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="K277" t="s">
         <v>518</v>
@@ -22745,7 +22745,7 @@
         <v>519</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="S277" t="s">
         <v>2021</v>
@@ -22901,7 +22901,7 @@
         <v>1829</v>
       </c>
       <c r="M280" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S280" t="s">
         <v>2044</v>
@@ -22954,7 +22954,7 @@
         <v>1887</v>
       </c>
       <c r="M281" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S281" t="s">
         <v>2051</v>
@@ -23027,7 +23027,7 @@
         <v>476</v>
       </c>
       <c r="B283" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="C283" t="s">
         <v>477</v>
@@ -23116,7 +23116,7 @@
         <v>2524</v>
       </c>
       <c r="N284" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S284" t="s">
         <v>2073</v>
@@ -23169,7 +23169,7 @@
         <v>1785</v>
       </c>
       <c r="M285" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S285" t="s">
         <v>2081</v>
@@ -23375,7 +23375,7 @@
         <v>163</v>
       </c>
       <c r="M289" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S289" t="s">
         <v>2107</v>
@@ -23431,7 +23431,7 @@
         <v>440</v>
       </c>
       <c r="U290" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="V290" t="s">
         <v>441</v>
@@ -23466,7 +23466,7 @@
         <v>54</v>
       </c>
       <c r="J291" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K291" t="s">
         <v>142</v>
@@ -23525,7 +23525,7 @@
         <v>1871</v>
       </c>
       <c r="M292" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S292" t="s">
         <v>2128</v>
@@ -23569,7 +23569,7 @@
         <v>233</v>
       </c>
       <c r="J293" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K293" t="s">
         <v>1344</v>
@@ -23728,7 +23728,7 @@
         <v>1829</v>
       </c>
       <c r="M296" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S296" t="s">
         <v>2158</v>
@@ -23781,7 +23781,7 @@
         <v>2318</v>
       </c>
       <c r="M297" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S297" t="s">
         <v>2166</v>
@@ -23878,7 +23878,7 @@
         <v>12</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K299" t="s">
         <v>837</v>
@@ -23928,7 +23928,7 @@
         <v>12</v>
       </c>
       <c r="J300" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K300" t="s">
         <v>2020</v>
@@ -24037,7 +24037,7 @@
         <v>1895</v>
       </c>
       <c r="M302" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N302" t="s">
         <v>2526</v>
@@ -24196,7 +24196,7 @@
         <v>447</v>
       </c>
       <c r="M305" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S305" t="s">
         <v>2227</v>
@@ -24252,7 +24252,7 @@
         <v>2524</v>
       </c>
       <c r="N306" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S306" t="s">
         <v>2234</v>
@@ -24296,7 +24296,7 @@
         <v>233</v>
       </c>
       <c r="J307" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K307" t="s">
         <v>45</v>
@@ -24346,7 +24346,7 @@
         <v>233</v>
       </c>
       <c r="J308" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K308" t="s">
         <v>142</v>
@@ -24408,7 +24408,7 @@
         <v>2524</v>
       </c>
       <c r="N309" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S309" t="s">
         <v>2256</v>
@@ -24461,7 +24461,7 @@
         <v>447</v>
       </c>
       <c r="M310" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S310" t="s">
         <v>2269</v>
@@ -24567,10 +24567,10 @@
         <v>1451</v>
       </c>
       <c r="M312" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N312" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S312" t="s">
         <v>2283</v>
@@ -24664,7 +24664,7 @@
         <v>65</v>
       </c>
       <c r="J314" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="K314" t="s">
         <v>249</v>
@@ -24726,10 +24726,10 @@
         <v>1224</v>
       </c>
       <c r="M315" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N315" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S315" t="s">
         <v>2304</v>
@@ -24782,7 +24782,7 @@
         <v>163</v>
       </c>
       <c r="M316" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S316" t="s">
         <v>2310</v>
@@ -24994,7 +24994,7 @@
         <v>489</v>
       </c>
       <c r="M320" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N320" t="s">
         <v>2524</v>
@@ -25050,13 +25050,13 @@
         <v>586</v>
       </c>
       <c r="M321" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N321" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="O321" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="S321" t="s">
         <v>2345</v>
@@ -25312,7 +25312,7 @@
         <v>1157</v>
       </c>
       <c r="M326" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="S326" t="s">
         <v>2371</v>
@@ -25368,7 +25368,7 @@
         <v>2524</v>
       </c>
       <c r="N327" t="s">
-        <v>2533</v>
+        <v>2564</v>
       </c>
       <c r="S327" t="s">
         <v>2379</v>
@@ -25618,7 +25618,7 @@
         <v>12</v>
       </c>
       <c r="J332" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K332" t="s">
         <v>37</v>
@@ -25718,7 +25718,7 @@
         <v>195</v>
       </c>
       <c r="J334" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="K334" t="s">
         <v>1351</v>
@@ -25777,10 +25777,10 @@
         <v>259</v>
       </c>
       <c r="M335" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
       <c r="N335" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S335" t="s">
         <v>2439</v>
@@ -25992,7 +25992,7 @@
         <v>2526</v>
       </c>
       <c r="N339" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S339" t="s">
         <v>2469</v>
@@ -26048,7 +26048,7 @@
         <v>2526</v>
       </c>
       <c r="N340" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S340" t="s">
         <v>2477</v>
@@ -26157,7 +26157,7 @@
         <v>2524</v>
       </c>
       <c r="N342" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="S342" t="s">
         <v>2491</v>
@@ -26227,13 +26227,13 @@
         <v>510</v>
       </c>
       <c r="B344" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>511</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>149</v>
@@ -26254,10 +26254,10 @@
         <v>440</v>
       </c>
       <c r="K344" s="3" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="L344" s="3" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="M344" s="3" t="s">
         <v>2524</v>
@@ -26328,7 +26328,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26340,10 +26340,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2528</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -26372,7 +26372,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2524</v>
@@ -26383,10 +26383,10 @@
         <v>519</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -26427,7 +26427,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C10" t="s">
         <v>2517</v>
@@ -26438,7 +26438,7 @@
         <v>398</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2518</v>
@@ -26460,10 +26460,10 @@
         <v>248</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -26474,18 +26474,18 @@
         <v>1881</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1897</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -26501,7 +26501,7 @@
         <v>1861</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -26514,10 +26514,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="C19" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
+++ b/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\FDA_EUA tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A36935-0466-48AB-BDA6-E2B9FD53C8A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFBABBA-1F4E-496C-B65E-4A020517C44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CB072C4-4071-45ED-9E21-A7B6C58CD755}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5837" uniqueCount="2566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="2565">
   <si>
     <t>Company/Organization</t>
   </si>
@@ -6763,9 +6763,6 @@
   </si>
   <si>
     <t>Upper and lower respiratory specimens (such as nasopharyngeal or oropharyngeal swabs, sputum, lower respiratory tract aspirates, bronchoalveolar lavage, and nasopharyngeal wash/aspirate or nasal aspirate)</t>
-  </si>
-  <si>
-    <t>https://www.fda.gov/media/134922/download</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CIDO_0000306</t>
@@ -8252,16 +8249,16 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="N1" t="s">
         <v>2513</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2514</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>2515</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2516</v>
       </c>
       <c r="Q1" t="s">
         <v>12</v>
@@ -8270,7 +8267,7 @@
         <v>13</v>
       </c>
       <c r="T1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -8317,10 +8314,10 @@
         <v>1895</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N2" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
@@ -8373,7 +8370,7 @@
         <v>1887</v>
       </c>
       <c r="M3" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S3" t="s">
         <v>38</v>
@@ -8449,7 +8446,7 @@
         <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
@@ -8499,7 +8496,7 @@
         <v>92</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K6" t="s">
         <v>93</v>
@@ -8522,16 +8519,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B7" t="s">
         <v>2374</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>2375</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>2376</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2377</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -8552,13 +8549,13 @@
         <v>440</v>
       </c>
       <c r="K7" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>78</v>
@@ -8602,7 +8599,7 @@
         <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K8" t="s">
         <v>142</v>
@@ -8658,13 +8655,13 @@
         <v>1479</v>
       </c>
       <c r="M9" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N9" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O9" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S9" t="s">
         <v>95</v>
@@ -8717,7 +8714,7 @@
         <v>1061</v>
       </c>
       <c r="M10" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S10" t="s">
         <v>103</v>
@@ -8755,7 +8752,7 @@
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K11" t="s">
         <v>45</v>
@@ -8902,7 +8899,7 @@
         <v>92</v>
       </c>
       <c r="J14" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K14" t="s">
         <v>93</v>
@@ -8961,13 +8958,13 @@
         <v>889</v>
       </c>
       <c r="M15" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N15" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="O15" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S15" t="s">
         <v>143</v>
@@ -8987,7 +8984,7 @@
         <v>442</v>
       </c>
       <c r="B16" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C16" t="s">
         <v>443</v>
@@ -9020,7 +9017,7 @@
         <v>447</v>
       </c>
       <c r="M16" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S16" t="s">
         <v>154</v>
@@ -9073,10 +9070,10 @@
         <v>909</v>
       </c>
       <c r="M17" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="N17" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S17" t="s">
         <v>164</v>
@@ -9129,10 +9126,10 @@
         <v>881</v>
       </c>
       <c r="M18" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N18" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S18" t="s">
         <v>172</v>
@@ -9185,10 +9182,10 @@
         <v>563</v>
       </c>
       <c r="M19" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N19" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S19" t="s">
         <v>179</v>
@@ -9241,7 +9238,7 @@
         <v>1887</v>
       </c>
       <c r="M20" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S20" t="s">
         <v>188</v>
@@ -9258,16 +9255,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B21" t="s">
         <v>2471</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>2472</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>2473</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2474</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -9276,7 +9273,7 @@
         <v>266</v>
       </c>
       <c r="G21" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="H21" t="s">
         <v>75</v>
@@ -9288,13 +9285,13 @@
         <v>440</v>
       </c>
       <c r="K21" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="L21" t="s">
         <v>1793</v>
       </c>
       <c r="M21" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S21" t="s">
         <v>196</v>
@@ -9347,7 +9344,7 @@
         <v>447</v>
       </c>
       <c r="M22" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S22" t="s">
         <v>203</v>
@@ -9400,13 +9397,13 @@
         <v>2080</v>
       </c>
       <c r="M23" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N23" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="O23" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="S23" t="s">
         <v>213</v>
@@ -9459,13 +9456,13 @@
         <v>586</v>
       </c>
       <c r="M24" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N24" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O24" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S24" t="s">
         <v>220</v>
@@ -9518,7 +9515,7 @@
         <v>153</v>
       </c>
       <c r="M25" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S25" t="s">
         <v>227</v>
@@ -9612,7 +9609,7 @@
         <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K27" t="s">
         <v>2121</v>
@@ -9671,7 +9668,7 @@
         <v>163</v>
       </c>
       <c r="M28" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S28" t="s">
         <v>250</v>
@@ -9715,7 +9712,7 @@
         <v>65</v>
       </c>
       <c r="J29" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K29" t="s">
         <v>132</v>
@@ -9724,7 +9721,7 @@
         <v>133</v>
       </c>
       <c r="M29" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S29" t="s">
         <v>260</v>
@@ -9777,7 +9774,7 @@
         <v>163</v>
       </c>
       <c r="M30" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S30" t="s">
         <v>269</v>
@@ -9830,10 +9827,10 @@
         <v>259</v>
       </c>
       <c r="M31" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N31" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S31" t="s">
         <v>276</v>
@@ -9853,13 +9850,13 @@
         <v>1295</v>
       </c>
       <c r="B32" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C32" t="s">
         <v>2347</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>2348</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2349</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -9868,7 +9865,7 @@
         <v>209</v>
       </c>
       <c r="G32" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="H32" t="s">
         <v>75</v>
@@ -9886,10 +9883,10 @@
         <v>489</v>
       </c>
       <c r="M32" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N32" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S32" t="s">
         <v>284</v>
@@ -9942,7 +9939,7 @@
         <v>26</v>
       </c>
       <c r="M33" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S33" t="s">
         <v>294</v>
@@ -9995,7 +9992,7 @@
         <v>1753</v>
       </c>
       <c r="M34" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S34" t="s">
         <v>301</v>
@@ -10048,7 +10045,7 @@
         <v>153</v>
       </c>
       <c r="M35" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S35" t="s">
         <v>310</v>
@@ -10092,7 +10089,7 @@
         <v>233</v>
       </c>
       <c r="J36" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K36" t="s">
         <v>1344</v>
@@ -10251,7 +10248,7 @@
         <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S39" t="s">
         <v>344</v>
@@ -10304,7 +10301,7 @@
         <v>454</v>
       </c>
       <c r="M40" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S40" t="s">
         <v>352</v>
@@ -10407,10 +10404,10 @@
         <v>989</v>
       </c>
       <c r="M42" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N42" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S42" t="s">
         <v>370</v>
@@ -10463,7 +10460,7 @@
         <v>649</v>
       </c>
       <c r="M43" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S43" t="s">
         <v>378</v>
@@ -10516,7 +10513,7 @@
         <v>153</v>
       </c>
       <c r="M44" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S44" t="s">
         <v>386</v>
@@ -10569,7 +10566,7 @@
         <v>454</v>
       </c>
       <c r="M45" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="T45" t="s">
         <v>393</v>
@@ -10657,7 +10654,7 @@
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K47" t="s">
         <v>67</v>
@@ -10707,7 +10704,7 @@
         <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K48" t="s">
         <v>67</v>
@@ -10769,7 +10766,7 @@
         <v>423</v>
       </c>
       <c r="U49" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V49" t="s">
         <v>30</v>
@@ -10804,7 +10801,7 @@
         <v>233</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K50" t="s">
         <v>392</v>
@@ -10851,7 +10848,7 @@
         <v>54</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K51" t="s">
         <v>844</v>
@@ -10901,7 +10898,7 @@
         <v>92</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K52" t="s">
         <v>844</v>
@@ -10960,7 +10957,7 @@
         <v>26</v>
       </c>
       <c r="M53" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S53" t="s">
         <v>455</v>
@@ -11013,7 +11010,7 @@
         <v>26</v>
       </c>
       <c r="M54" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S54" t="s">
         <v>461</v>
@@ -11066,7 +11063,7 @@
         <v>1778</v>
       </c>
       <c r="M55" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S55" t="s">
         <v>468</v>
@@ -11119,7 +11116,7 @@
         <v>2210</v>
       </c>
       <c r="M56" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>475</v>
@@ -11222,10 +11219,10 @@
         <v>852</v>
       </c>
       <c r="M58" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="N58" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="S58" t="s">
         <v>490</v>
@@ -11278,7 +11275,7 @@
         <v>454</v>
       </c>
       <c r="M59" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S59" t="s">
         <v>495</v>
@@ -11322,7 +11319,7 @@
         <v>233</v>
       </c>
       <c r="J60" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K60" t="s">
         <v>1575</v>
@@ -11381,10 +11378,10 @@
         <v>1129</v>
       </c>
       <c r="M61" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N61" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S61" t="s">
         <v>509</v>
@@ -11437,7 +11434,7 @@
         <v>153</v>
       </c>
       <c r="M62" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="T62" t="s">
         <v>440</v>
@@ -11487,7 +11484,7 @@
         <v>26</v>
       </c>
       <c r="M63" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="T63" t="s">
         <v>512</v>
@@ -11537,7 +11534,7 @@
         <v>454</v>
       </c>
       <c r="M64" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S64" t="s">
         <v>520</v>
@@ -11590,7 +11587,7 @@
         <v>163</v>
       </c>
       <c r="M65" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S65" t="s">
         <v>528</v>
@@ -11634,7 +11631,7 @@
         <v>233</v>
       </c>
       <c r="J66" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K66" t="s">
         <v>142</v>
@@ -11693,7 +11690,7 @@
         <v>153</v>
       </c>
       <c r="M67" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S67" t="s">
         <v>542</v>
@@ -11746,13 +11743,13 @@
         <v>1047</v>
       </c>
       <c r="M68" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N68" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="O68" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S68" t="s">
         <v>549</v>
@@ -11796,7 +11793,7 @@
         <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K69" t="s">
         <v>37</v>
@@ -11846,7 +11843,7 @@
         <v>233</v>
       </c>
       <c r="J70" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K70" t="s">
         <v>142</v>
@@ -11905,10 +11902,10 @@
         <v>1402</v>
       </c>
       <c r="M71" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N71" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S71" t="s">
         <v>572</v>
@@ -11961,7 +11958,7 @@
         <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S72" t="s">
         <v>580</v>
@@ -11978,16 +11975,16 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B73" t="s">
         <v>2299</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>2300</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>2301</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2302</v>
       </c>
       <c r="E73" t="s">
         <v>149</v>
@@ -11996,7 +11993,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="H73" t="s">
         <v>75</v>
@@ -12008,13 +12005,13 @@
         <v>440</v>
       </c>
       <c r="K73" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="L73" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="M73" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S73" t="s">
         <v>587</v>
@@ -12067,10 +12064,10 @@
         <v>1184</v>
       </c>
       <c r="M74" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="N74" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S74" t="s">
         <v>594</v>
@@ -12123,7 +12120,7 @@
         <v>153</v>
       </c>
       <c r="M75" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S75" t="s">
         <v>600</v>
@@ -12140,16 +12137,16 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B76" t="s">
         <v>2321</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>2322</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>2323</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2324</v>
       </c>
       <c r="E76" t="s">
         <v>149</v>
@@ -12170,16 +12167,16 @@
         <v>440</v>
       </c>
       <c r="K76" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="L76" t="s">
         <v>2142</v>
       </c>
       <c r="M76" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="S76" t="s">
         <v>607</v>
@@ -12196,16 +12193,16 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B77" t="s">
         <v>2236</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>2237</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>2238</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2239</v>
       </c>
       <c r="E77" t="s">
         <v>149</v>
@@ -12214,7 +12211,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="H77" t="s">
         <v>75</v>
@@ -12226,13 +12223,13 @@
         <v>440</v>
       </c>
       <c r="K77" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="L77" t="s">
         <v>467</v>
       </c>
       <c r="M77" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S77" t="s">
         <v>614</v>
@@ -12285,7 +12282,7 @@
         <v>163</v>
       </c>
       <c r="M78" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S78" t="s">
         <v>621</v>
@@ -12329,7 +12326,7 @@
         <v>65</v>
       </c>
       <c r="J79" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="K79" t="s">
         <v>308</v>
@@ -12338,7 +12335,7 @@
         <v>309</v>
       </c>
       <c r="M79" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="S79" t="s">
         <v>628</v>
@@ -12391,10 +12388,10 @@
         <v>1184</v>
       </c>
       <c r="M80" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="N80" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S80" t="s">
         <v>635</v>
@@ -12447,13 +12444,13 @@
         <v>642</v>
       </c>
       <c r="M81" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N81" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="O81" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S81" t="s">
         <v>643</v>
@@ -12494,7 +12491,7 @@
         <v>12</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="K82" t="s">
         <v>527</v>
@@ -12517,16 +12514,16 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B83" t="s">
         <v>2455</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>2456</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>2457</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2458</v>
       </c>
       <c r="E83" t="s">
         <v>20</v>
@@ -12535,7 +12532,7 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="H83" t="s">
         <v>75</v>
@@ -12547,13 +12544,13 @@
         <v>440</v>
       </c>
       <c r="K83" t="s">
+        <v>2459</v>
+      </c>
+      <c r="L83" t="s">
         <v>2460</v>
       </c>
-      <c r="L83" t="s">
-        <v>2461</v>
-      </c>
       <c r="M83" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S83" t="s">
         <v>657</v>
@@ -12606,10 +12603,10 @@
         <v>1035</v>
       </c>
       <c r="M84" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="N84" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S84" t="s">
         <v>664</v>
@@ -12662,10 +12659,10 @@
         <v>343</v>
       </c>
       <c r="M85" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N85" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S85" t="s">
         <v>672</v>
@@ -12712,7 +12709,7 @@
         <v>679</v>
       </c>
       <c r="U86" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V86" t="s">
         <v>30</v>
@@ -12759,7 +12756,7 @@
         <v>688</v>
       </c>
       <c r="U87" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V87" t="s">
         <v>30</v>
@@ -12803,7 +12800,7 @@
         <v>1793</v>
       </c>
       <c r="M88" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S88" t="s">
         <v>694</v>
@@ -12856,16 +12853,16 @@
         <v>534</v>
       </c>
       <c r="M89" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N89" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="O89" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="P89" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S89" t="s">
         <v>702</v>
@@ -12918,7 +12915,7 @@
         <v>163</v>
       </c>
       <c r="M90" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S90" t="s">
         <v>709</v>
@@ -12971,13 +12968,13 @@
         <v>1479</v>
       </c>
       <c r="M91" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N91" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O91" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S91" t="s">
         <v>716</v>
@@ -12994,16 +12991,16 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B92" t="s">
         <v>2327</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>2328</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>2329</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2330</v>
       </c>
       <c r="E92" t="s">
         <v>149</v>
@@ -13024,13 +13021,13 @@
         <v>440</v>
       </c>
       <c r="K92" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="L92" t="s">
         <v>26</v>
       </c>
       <c r="M92" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S92" t="s">
         <v>721</v>
@@ -13083,10 +13080,10 @@
         <v>1568</v>
       </c>
       <c r="M93" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="N93" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S93" t="s">
         <v>727</v>
@@ -13103,16 +13100,16 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B94" t="s">
         <v>2381</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>2382</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>2383</v>
-      </c>
-      <c r="D94" t="s">
-        <v>2384</v>
       </c>
       <c r="E94" t="s">
         <v>149</v>
@@ -13121,7 +13118,7 @@
         <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="H94" t="s">
         <v>53</v>
@@ -13136,7 +13133,7 @@
         <v>2042</v>
       </c>
       <c r="Q94" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="S94" t="s">
         <v>735</v>
@@ -13230,7 +13227,7 @@
         <v>1858</v>
       </c>
       <c r="J96" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K96" t="s">
         <v>1878</v>
@@ -13289,7 +13286,7 @@
         <v>438</v>
       </c>
       <c r="M97" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="S97" t="s">
         <v>756</v>
@@ -13342,10 +13339,10 @@
         <v>259</v>
       </c>
       <c r="M98" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N98" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S98" t="s">
         <v>764</v>
@@ -13398,10 +13395,10 @@
         <v>1451</v>
       </c>
       <c r="M99" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N99" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S99" t="s">
         <v>771</v>
@@ -13421,7 +13418,7 @@
         <v>491</v>
       </c>
       <c r="B100" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C100" t="s">
         <v>492</v>
@@ -13454,7 +13451,7 @@
         <v>454</v>
       </c>
       <c r="M100" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S100" t="s">
         <v>777</v>
@@ -13474,13 +13471,13 @@
         <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C101" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D101" t="s">
         <v>2341</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2342</v>
       </c>
       <c r="E101" t="s">
         <v>149</v>
@@ -13489,7 +13486,7 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="H101" t="s">
         <v>75</v>
@@ -13501,13 +13498,13 @@
         <v>440</v>
       </c>
       <c r="K101" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="L101" t="s">
         <v>454</v>
       </c>
       <c r="M101" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S101" t="s">
         <v>784</v>
@@ -13610,13 +13607,13 @@
         <v>586</v>
       </c>
       <c r="M103" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N103" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O103" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S103" t="s">
         <v>801</v>
@@ -13719,7 +13716,7 @@
         <v>1232</v>
       </c>
       <c r="M105" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S105" t="s">
         <v>816</v>
@@ -13772,7 +13769,7 @@
         <v>1380</v>
       </c>
       <c r="M106" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S106" t="s">
         <v>822</v>
@@ -13825,7 +13822,7 @@
         <v>153</v>
       </c>
       <c r="M107" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S107" t="s">
         <v>831</v>
@@ -13878,7 +13875,7 @@
         <v>454</v>
       </c>
       <c r="M108" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S108" t="s">
         <v>839</v>
@@ -13931,7 +13928,7 @@
         <v>26</v>
       </c>
       <c r="M109" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S109" t="s">
         <v>845</v>
@@ -13984,7 +13981,7 @@
         <v>26</v>
       </c>
       <c r="M110" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S110" t="s">
         <v>853</v>
@@ -14001,16 +13998,16 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B111" t="s">
         <v>2334</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>2335</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>2336</v>
-      </c>
-      <c r="D111" t="s">
-        <v>2337</v>
       </c>
       <c r="E111" t="s">
         <v>149</v>
@@ -14019,7 +14016,7 @@
         <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="H111" t="s">
         <v>75</v>
@@ -14031,13 +14028,13 @@
         <v>440</v>
       </c>
       <c r="K111" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="L111" t="s">
         <v>454</v>
       </c>
       <c r="M111" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S111" t="s">
         <v>861</v>
@@ -14090,13 +14087,13 @@
         <v>1047</v>
       </c>
       <c r="M112" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N112" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="O112" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S112" t="s">
         <v>866</v>
@@ -14149,10 +14146,10 @@
         <v>1029</v>
       </c>
       <c r="M113" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N113" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S113" t="s">
         <v>874</v>
@@ -14205,7 +14202,7 @@
         <v>1871</v>
       </c>
       <c r="M114" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S114" t="s">
         <v>882</v>
@@ -14249,7 +14246,7 @@
         <v>92</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K115" t="s">
         <v>45</v>
@@ -14275,7 +14272,7 @@
         <v>469</v>
       </c>
       <c r="B116" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C116" t="s">
         <v>470</v>
@@ -14399,7 +14396,7 @@
         <v>92</v>
       </c>
       <c r="J118" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K118" t="s">
         <v>399</v>
@@ -14446,7 +14443,7 @@
         <v>54</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K119" t="s">
         <v>45</v>
@@ -14546,7 +14543,7 @@
         <v>54</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K121" t="s">
         <v>45</v>
@@ -14655,10 +14652,10 @@
         <v>1508</v>
       </c>
       <c r="M123" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N123" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S123" t="s">
         <v>941</v>
@@ -14711,7 +14708,7 @@
         <v>26</v>
       </c>
       <c r="M124" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S124" t="s">
         <v>947</v>
@@ -14764,13 +14761,13 @@
         <v>755</v>
       </c>
       <c r="M125" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N125" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="O125" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S125" t="s">
         <v>951</v>
@@ -14823,13 +14820,13 @@
         <v>1047</v>
       </c>
       <c r="M126" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N126" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="O126" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S126" t="s">
         <v>958</v>
@@ -14923,7 +14920,7 @@
         <v>195</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K128" t="s">
         <v>45</v>
@@ -15023,7 +15020,7 @@
         <v>12</v>
       </c>
       <c r="J130" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K130" t="s">
         <v>25</v>
@@ -15085,7 +15082,7 @@
         <v>998</v>
       </c>
       <c r="U131" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V131" t="s">
         <v>30</v>
@@ -15146,13 +15143,13 @@
         <v>824</v>
       </c>
       <c r="B133" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C133" t="s">
         <v>2279</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>2280</v>
-      </c>
-      <c r="D133" t="s">
-        <v>2281</v>
       </c>
       <c r="E133" t="s">
         <v>20</v>
@@ -15161,7 +15158,7 @@
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="H133" t="s">
         <v>75</v>
@@ -15229,10 +15226,10 @@
         <v>792</v>
       </c>
       <c r="M134" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N134" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S134" t="s">
         <v>1016</v>
@@ -15285,10 +15282,10 @@
         <v>259</v>
       </c>
       <c r="M135" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N135" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S135" t="s">
         <v>1022</v>
@@ -15344,7 +15341,7 @@
         <v>1031</v>
       </c>
       <c r="U136" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V136" t="s">
         <v>30</v>
@@ -15388,7 +15385,7 @@
         <v>1037</v>
       </c>
       <c r="U137" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V137" t="s">
         <v>30</v>
@@ -15399,7 +15396,7 @@
         <v>462</v>
       </c>
       <c r="B138" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C138" t="s">
         <v>463</v>
@@ -15432,7 +15429,7 @@
         <v>467</v>
       </c>
       <c r="M138" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S138" t="s">
         <v>1041</v>
@@ -15485,7 +15482,7 @@
         <v>454</v>
       </c>
       <c r="M139" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S139" t="s">
         <v>1048</v>
@@ -15538,7 +15535,7 @@
         <v>447</v>
       </c>
       <c r="M140" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S140" t="s">
         <v>1055</v>
@@ -15591,13 +15588,13 @@
         <v>1656</v>
       </c>
       <c r="M141" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N141" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O141" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S141" t="s">
         <v>1062</v>
@@ -15650,10 +15647,10 @@
         <v>686</v>
       </c>
       <c r="M142" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N142" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S142" t="s">
         <v>1068</v>
@@ -15706,10 +15703,10 @@
         <v>1500</v>
       </c>
       <c r="M143" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N143" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S143" t="s">
         <v>1077</v>
@@ -15726,16 +15723,16 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B144" t="s">
         <v>2271</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>2272</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>2273</v>
-      </c>
-      <c r="D144" t="s">
-        <v>2274</v>
       </c>
       <c r="E144" t="s">
         <v>20</v>
@@ -15744,7 +15741,7 @@
         <v>185</v>
       </c>
       <c r="G144" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="H144" t="s">
         <v>75</v>
@@ -15756,13 +15753,13 @@
         <v>440</v>
       </c>
       <c r="K144" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="L144" t="s">
         <v>1793</v>
       </c>
       <c r="M144" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S144" t="s">
         <v>1081</v>
@@ -15806,7 +15803,7 @@
         <v>233</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K145" t="s">
         <v>268</v>
@@ -15865,7 +15862,7 @@
         <v>1088</v>
       </c>
       <c r="M146" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S146" t="s">
         <v>1096</v>
@@ -15918,7 +15915,7 @@
         <v>1871</v>
       </c>
       <c r="M147" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S147" t="s">
         <v>1102</v>
@@ -15971,7 +15968,7 @@
         <v>26</v>
       </c>
       <c r="M148" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S148" t="s">
         <v>1109</v>
@@ -16024,7 +16021,7 @@
         <v>153</v>
       </c>
       <c r="M149" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S149" t="s">
         <v>1117</v>
@@ -16041,16 +16038,16 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B150" t="s">
         <v>2409</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>2410</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>2411</v>
-      </c>
-      <c r="D150" t="s">
-        <v>2412</v>
       </c>
       <c r="E150" t="s">
         <v>20</v>
@@ -16059,7 +16056,7 @@
         <v>266</v>
       </c>
       <c r="G150" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="H150" t="s">
         <v>75</v>
@@ -16071,13 +16068,13 @@
         <v>440</v>
       </c>
       <c r="K150" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="L150" t="s">
         <v>1793</v>
       </c>
       <c r="M150" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S150" t="s">
         <v>1122</v>
@@ -16130,10 +16127,10 @@
         <v>1525</v>
       </c>
       <c r="M151" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N151" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S151" t="s">
         <v>1130</v>
@@ -16150,16 +16147,16 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B152" t="s">
         <v>2425</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>2426</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>2427</v>
-      </c>
-      <c r="D152" t="s">
-        <v>2428</v>
       </c>
       <c r="E152" t="s">
         <v>20</v>
@@ -16168,7 +16165,7 @@
         <v>814</v>
       </c>
       <c r="G152" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="H152" t="s">
         <v>75</v>
@@ -16180,7 +16177,7 @@
         <v>440</v>
       </c>
       <c r="K152" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="L152" t="s">
         <v>474</v>
@@ -16236,7 +16233,7 @@
         <v>153</v>
       </c>
       <c r="M153" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S153" t="s">
         <v>1146</v>
@@ -16289,10 +16286,10 @@
         <v>259</v>
       </c>
       <c r="M154" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N154" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S154" t="s">
         <v>1150</v>
@@ -16345,7 +16342,7 @@
         <v>163</v>
       </c>
       <c r="M155" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S155" t="s">
         <v>1158</v>
@@ -16354,7 +16351,7 @@
         <v>1159</v>
       </c>
       <c r="U155" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V155" t="s">
         <v>30</v>
@@ -16398,7 +16395,7 @@
         <v>153</v>
       </c>
       <c r="M156" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S156" t="s">
         <v>1162</v>
@@ -16445,7 +16442,7 @@
         <v>1172</v>
       </c>
       <c r="U157" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V157" t="s">
         <v>30</v>
@@ -16489,7 +16486,7 @@
         <v>153</v>
       </c>
       <c r="M158" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S158" t="s">
         <v>1177</v>
@@ -16509,13 +16506,13 @@
         <v>2015</v>
       </c>
       <c r="B159" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C159" t="s">
         <v>2293</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>2294</v>
-      </c>
-      <c r="D159" t="s">
-        <v>2295</v>
       </c>
       <c r="E159" t="s">
         <v>20</v>
@@ -16524,7 +16521,7 @@
         <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="H159" t="s">
         <v>75</v>
@@ -16542,7 +16539,7 @@
         <v>26</v>
       </c>
       <c r="M159" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S159" t="s">
         <v>1185</v>
@@ -16595,7 +16592,7 @@
         <v>454</v>
       </c>
       <c r="M160" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S160" t="s">
         <v>1193</v>
@@ -16648,7 +16645,7 @@
         <v>454</v>
       </c>
       <c r="M161" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S161" t="s">
         <v>1199</v>
@@ -16701,13 +16698,13 @@
         <v>586</v>
       </c>
       <c r="M162" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N162" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O162" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S162" t="s">
         <v>1206</v>
@@ -16724,16 +16721,16 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B163" t="s">
         <v>2285</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>2286</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>2287</v>
-      </c>
-      <c r="D163" t="s">
-        <v>2288</v>
       </c>
       <c r="E163" t="s">
         <v>20</v>
@@ -16742,7 +16739,7 @@
         <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="H163" t="s">
         <v>75</v>
@@ -16754,13 +16751,13 @@
         <v>440</v>
       </c>
       <c r="K163" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="L163" t="s">
         <v>1793</v>
       </c>
       <c r="M163" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S163" t="s">
         <v>1210</v>
@@ -16804,7 +16801,7 @@
         <v>65</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="K164" t="s">
         <v>1087</v>
@@ -16813,7 +16810,7 @@
         <v>1088</v>
       </c>
       <c r="M164" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S164" t="s">
         <v>1217</v>
@@ -16866,7 +16863,7 @@
         <v>153</v>
       </c>
       <c r="M165" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S165" t="s">
         <v>1225</v>
@@ -16919,7 +16916,7 @@
         <v>454</v>
       </c>
       <c r="M166" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S166" t="s">
         <v>1233</v>
@@ -16972,13 +16969,13 @@
         <v>1479</v>
       </c>
       <c r="M167" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N167" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O167" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S167" t="s">
         <v>1241</v>
@@ -17022,7 +17019,7 @@
         <v>65</v>
       </c>
       <c r="J168" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="K168" t="s">
         <v>359</v>
@@ -17031,7 +17028,7 @@
         <v>94</v>
       </c>
       <c r="M168" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="S168" t="s">
         <v>1247</v>
@@ -17084,13 +17081,13 @@
         <v>981</v>
       </c>
       <c r="M169" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N169" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="O169" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S169" t="s">
         <v>1254</v>
@@ -17143,7 +17140,7 @@
         <v>1809</v>
       </c>
       <c r="M170" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S170" t="s">
         <v>1260</v>
@@ -17196,10 +17193,10 @@
         <v>489</v>
       </c>
       <c r="M171" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N171" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S171" t="s">
         <v>1266</v>
@@ -17252,13 +17249,13 @@
         <v>873</v>
       </c>
       <c r="M172" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N172" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O172" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S172" t="s">
         <v>1271</v>
@@ -17311,7 +17308,7 @@
         <v>2157</v>
       </c>
       <c r="M173" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S173" t="s">
         <v>1279</v>
@@ -17355,7 +17352,7 @@
         <v>65</v>
       </c>
       <c r="J174" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="K174" t="s">
         <v>1634</v>
@@ -17364,7 +17361,7 @@
         <v>474</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="S174" t="s">
         <v>1285</v>
@@ -17417,7 +17414,7 @@
         <v>1425</v>
       </c>
       <c r="M175" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S175" t="s">
         <v>1293</v>
@@ -17470,7 +17467,7 @@
         <v>153</v>
       </c>
       <c r="M176" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S176" t="s">
         <v>1300</v>
@@ -17514,7 +17511,7 @@
         <v>141</v>
       </c>
       <c r="J177" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K177" t="s">
         <v>142</v>
@@ -17540,7 +17537,7 @@
         <v>456</v>
       </c>
       <c r="B178" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C178" t="s">
         <v>457</v>
@@ -17573,7 +17570,7 @@
         <v>454</v>
       </c>
       <c r="M178" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S178" t="s">
         <v>1311</v>
@@ -17626,13 +17623,13 @@
         <v>1493</v>
       </c>
       <c r="M179" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N179" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="O179" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S179" t="s">
         <v>1315</v>
@@ -17685,10 +17682,10 @@
         <v>1029</v>
       </c>
       <c r="M180" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N180" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S180" t="s">
         <v>1322</v>
@@ -17741,7 +17738,7 @@
         <v>163</v>
       </c>
       <c r="M181" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S181" t="s">
         <v>1329</v>
@@ -17844,7 +17841,7 @@
         <v>1347</v>
       </c>
       <c r="U183" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V183" t="s">
         <v>30</v>
@@ -17888,10 +17885,10 @@
         <v>1895</v>
       </c>
       <c r="M184" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N184" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S184" t="s">
         <v>1352</v>
@@ -17944,10 +17941,10 @@
         <v>360</v>
       </c>
       <c r="M185" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N185" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S185" t="s">
         <v>1358</v>
@@ -18100,7 +18097,7 @@
         <v>153</v>
       </c>
       <c r="M188" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S188" t="s">
         <v>1381</v>
@@ -18153,7 +18150,7 @@
         <v>153</v>
       </c>
       <c r="M189" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S189" t="s">
         <v>1388</v>
@@ -18206,7 +18203,7 @@
         <v>94</v>
       </c>
       <c r="M190" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="S190" t="s">
         <v>1396</v>
@@ -18223,16 +18220,16 @@
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B191" t="s">
         <v>2243</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>2244</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>2245</v>
-      </c>
-      <c r="D191" t="s">
-        <v>2246</v>
       </c>
       <c r="E191" t="s">
         <v>20</v>
@@ -18241,7 +18238,7 @@
         <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="H191" t="s">
         <v>75</v>
@@ -18253,7 +18250,7 @@
         <v>440</v>
       </c>
       <c r="K191" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="L191" t="s">
         <v>474</v>
@@ -18309,7 +18306,7 @@
         <v>26</v>
       </c>
       <c r="M192" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S192" t="s">
         <v>1410</v>
@@ -18412,7 +18409,7 @@
         <v>649</v>
       </c>
       <c r="M194" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S194" t="s">
         <v>1426</v>
@@ -18465,7 +18462,7 @@
         <v>163</v>
       </c>
       <c r="M195" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S195" t="s">
         <v>1431</v>
@@ -18509,7 +18506,7 @@
         <v>233</v>
       </c>
       <c r="J196" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K196" t="s">
         <v>1386</v>
@@ -18568,7 +18565,7 @@
         <v>163</v>
       </c>
       <c r="M197" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S197" t="s">
         <v>1444</v>
@@ -18588,13 +18585,13 @@
         <v>70</v>
       </c>
       <c r="B198" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C198" t="s">
         <v>2449</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>2450</v>
-      </c>
-      <c r="D198" t="s">
-        <v>2451</v>
       </c>
       <c r="E198" t="s">
         <v>20</v>
@@ -18603,7 +18600,7 @@
         <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="H198" t="s">
         <v>75</v>
@@ -18621,7 +18618,7 @@
         <v>163</v>
       </c>
       <c r="M198" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S198" t="s">
         <v>1452</v>
@@ -18665,7 +18662,7 @@
         <v>233</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K199" t="s">
         <v>844</v>
@@ -18724,10 +18721,10 @@
         <v>792</v>
       </c>
       <c r="M200" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N200" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S200" t="s">
         <v>1465</v>
@@ -18780,7 +18777,7 @@
         <v>125</v>
       </c>
       <c r="M201" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S201" t="s">
         <v>1472</v>
@@ -18883,7 +18880,7 @@
         <v>153</v>
       </c>
       <c r="M203" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S203" t="s">
         <v>1486</v>
@@ -18900,16 +18897,16 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B204" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C204" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D204" t="s">
         <v>2368</v>
-      </c>
-      <c r="D204" t="s">
-        <v>2369</v>
       </c>
       <c r="E204" t="s">
         <v>149</v>
@@ -18918,7 +18915,7 @@
         <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="H204" t="s">
         <v>75</v>
@@ -18930,13 +18927,13 @@
         <v>440</v>
       </c>
       <c r="K204" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="L204" t="s">
         <v>454</v>
       </c>
       <c r="M204" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S204" t="s">
         <v>1494</v>
@@ -18953,16 +18950,16 @@
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B205" t="s">
         <v>2366</v>
       </c>
-      <c r="B205" t="s">
-        <v>2367</v>
-      </c>
       <c r="C205" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D205" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E205" t="s">
         <v>149</v>
@@ -18971,7 +18968,7 @@
         <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="H205" t="s">
         <v>75</v>
@@ -18983,13 +18980,13 @@
         <v>440</v>
       </c>
       <c r="K205" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="L205" t="s">
         <v>454</v>
       </c>
       <c r="M205" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S205" t="s">
         <v>1501</v>
@@ -19033,7 +19030,7 @@
         <v>141</v>
       </c>
       <c r="J206" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K206" t="s">
         <v>734</v>
@@ -19092,7 +19089,7 @@
         <v>153</v>
       </c>
       <c r="M207" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S207" t="s">
         <v>1517</v>
@@ -19145,10 +19142,10 @@
         <v>360</v>
       </c>
       <c r="M208" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N208" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S208" t="s">
         <v>1526</v>
@@ -19218,7 +19215,7 @@
         <v>449</v>
       </c>
       <c r="B210" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C210" t="s">
         <v>450</v>
@@ -19251,7 +19248,7 @@
         <v>454</v>
       </c>
       <c r="M210" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S210" t="s">
         <v>1539</v>
@@ -19304,7 +19301,7 @@
         <v>1753</v>
       </c>
       <c r="M211" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S211" t="s">
         <v>1545</v>
@@ -19357,7 +19354,7 @@
         <v>1887</v>
       </c>
       <c r="M212" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S212" t="s">
         <v>1552</v>
@@ -19374,16 +19371,16 @@
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B213" t="s">
         <v>2388</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>2389</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>2390</v>
-      </c>
-      <c r="D213" t="s">
-        <v>2391</v>
       </c>
       <c r="E213" t="s">
         <v>20</v>
@@ -19392,7 +19389,7 @@
         <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="H213" t="s">
         <v>75</v>
@@ -19404,13 +19401,13 @@
         <v>440</v>
       </c>
       <c r="K213" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L213" t="s">
         <v>2393</v>
       </c>
-      <c r="L213" t="s">
-        <v>2394</v>
-      </c>
       <c r="M213" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S213" t="s">
         <v>1561</v>
@@ -19477,16 +19474,16 @@
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B215" t="s">
         <v>2505</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>2506</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>2507</v>
-      </c>
-      <c r="D215" t="s">
-        <v>2508</v>
       </c>
       <c r="E215" t="s">
         <v>149</v>
@@ -19495,7 +19492,7 @@
         <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="H215" t="s">
         <v>75</v>
@@ -19507,13 +19504,13 @@
         <v>440</v>
       </c>
       <c r="K215" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="L215" t="s">
         <v>26</v>
       </c>
       <c r="M215" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S215" t="s">
         <v>1576</v>
@@ -19557,7 +19554,7 @@
         <v>233</v>
       </c>
       <c r="J216" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K216" t="s">
         <v>45</v>
@@ -19616,10 +19613,10 @@
         <v>489</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N217" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S217" t="s">
         <v>1591</v>
@@ -19672,10 +19669,10 @@
         <v>1076</v>
       </c>
       <c r="M218" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N218" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S218" t="s">
         <v>1599</v>
@@ -19728,10 +19725,10 @@
         <v>571</v>
       </c>
       <c r="M219" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N219" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="S219" t="s">
         <v>1606</v>
@@ -19751,13 +19748,13 @@
         <v>566</v>
       </c>
       <c r="B220" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C220" t="s">
         <v>2353</v>
       </c>
-      <c r="C220" t="s">
-        <v>2354</v>
-      </c>
       <c r="D220" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E220" t="s">
         <v>20</v>
@@ -19766,7 +19763,7 @@
         <v>209</v>
       </c>
       <c r="G220" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="H220" t="s">
         <v>75</v>
@@ -19784,7 +19781,7 @@
         <v>1793</v>
       </c>
       <c r="M220" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S220" t="s">
         <v>1613</v>
@@ -19837,7 +19834,7 @@
         <v>26</v>
       </c>
       <c r="M221" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S221" t="s">
         <v>1620</v>
@@ -19893,7 +19890,7 @@
         <v>1629</v>
       </c>
       <c r="U222" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V222" t="s">
         <v>30</v>
@@ -19987,7 +19984,7 @@
         <v>454</v>
       </c>
       <c r="M224" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S224" t="s">
         <v>1640</v>
@@ -20043,7 +20040,7 @@
         <v>1647</v>
       </c>
       <c r="U225" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V225" t="s">
         <v>30</v>
@@ -20087,7 +20084,7 @@
         <v>1232</v>
       </c>
       <c r="M226" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S226" t="s">
         <v>1650</v>
@@ -20131,7 +20128,7 @@
         <v>233</v>
       </c>
       <c r="J227" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K227" t="s">
         <v>45</v>
@@ -20154,16 +20151,16 @@
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B228" t="s">
         <v>2397</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>2398</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>2399</v>
-      </c>
-      <c r="D228" t="s">
-        <v>2400</v>
       </c>
       <c r="E228" t="s">
         <v>149</v>
@@ -20184,13 +20181,13 @@
         <v>440</v>
       </c>
       <c r="K228" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="L228" t="s">
         <v>438</v>
       </c>
       <c r="M228" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S228" t="s">
         <v>1664</v>
@@ -20243,7 +20240,7 @@
         <v>26</v>
       </c>
       <c r="M229" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S229" t="s">
         <v>1671</v>
@@ -20296,7 +20293,7 @@
         <v>1837</v>
       </c>
       <c r="M230" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S230" t="s">
         <v>1678</v>
@@ -20349,7 +20346,7 @@
         <v>153</v>
       </c>
       <c r="M231" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S231" t="s">
         <v>1686</v>
@@ -20369,13 +20366,13 @@
         <v>128</v>
       </c>
       <c r="B232" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C232" t="s">
         <v>2305</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>2306</v>
-      </c>
-      <c r="D232" t="s">
-        <v>2307</v>
       </c>
       <c r="E232" t="s">
         <v>20</v>
@@ -20384,7 +20381,7 @@
         <v>35</v>
       </c>
       <c r="G232" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="H232" t="s">
         <v>75</v>
@@ -20399,10 +20396,10 @@
         <v>2187</v>
       </c>
       <c r="L232" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="M232" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S232" t="s">
         <v>1693</v>
@@ -20455,13 +20452,13 @@
         <v>981</v>
       </c>
       <c r="M233" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N233" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="O233" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="Q233" t="s">
         <v>474</v>
@@ -20481,16 +20478,16 @@
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B234" t="s">
         <v>2417</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>2418</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>2419</v>
-      </c>
-      <c r="D234" t="s">
-        <v>2420</v>
       </c>
       <c r="E234" t="s">
         <v>20</v>
@@ -20499,7 +20496,7 @@
         <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="H234" t="s">
         <v>75</v>
@@ -20511,16 +20508,16 @@
         <v>440</v>
       </c>
       <c r="K234" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="L234" t="s">
         <v>489</v>
       </c>
       <c r="M234" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N234" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S234" t="s">
         <v>1708</v>
@@ -20537,13 +20534,13 @@
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B235" t="s">
         <v>2493</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>2494</v>
-      </c>
-      <c r="C235" t="s">
-        <v>2495</v>
       </c>
       <c r="D235" t="s">
         <v>1327</v>
@@ -20555,7 +20552,7 @@
         <v>1328</v>
       </c>
       <c r="G235" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="H235" t="s">
         <v>75</v>
@@ -20567,16 +20564,16 @@
         <v>440</v>
       </c>
       <c r="K235" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="L235" t="s">
         <v>1895</v>
       </c>
       <c r="M235" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N235" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S235" t="s">
         <v>1716</v>
@@ -20629,10 +20626,10 @@
         <v>259</v>
       </c>
       <c r="M236" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N236" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S236" t="s">
         <v>1723</v>
@@ -20685,7 +20682,7 @@
         <v>454</v>
       </c>
       <c r="M237" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S237" t="s">
         <v>1731</v>
@@ -20741,7 +20738,7 @@
         <v>1740</v>
       </c>
       <c r="U238" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V238" t="s">
         <v>30</v>
@@ -20835,7 +20832,7 @@
         <v>153</v>
       </c>
       <c r="M240" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S240" t="s">
         <v>1754</v>
@@ -20888,7 +20885,7 @@
         <v>163</v>
       </c>
       <c r="M241" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S241" t="s">
         <v>1762</v>
@@ -20941,10 +20938,10 @@
         <v>1029</v>
       </c>
       <c r="M242" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N242" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S242" t="s">
         <v>1770</v>
@@ -20997,7 +20994,7 @@
         <v>163</v>
       </c>
       <c r="M243" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S243" t="s">
         <v>1779</v>
@@ -21100,7 +21097,7 @@
         <v>153</v>
       </c>
       <c r="M245" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S245" t="s">
         <v>1794</v>
@@ -21164,16 +21161,16 @@
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B247" t="s">
         <v>2433</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>2434</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>2435</v>
-      </c>
-      <c r="D247" t="s">
-        <v>2436</v>
       </c>
       <c r="E247" t="s">
         <v>20</v>
@@ -21182,7 +21179,7 @@
         <v>83</v>
       </c>
       <c r="G247" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="H247" t="s">
         <v>75</v>
@@ -21197,10 +21194,10 @@
         <v>2209</v>
       </c>
       <c r="L247" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="M247" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S247" t="s">
         <v>1810</v>
@@ -21344,7 +21341,7 @@
         <v>233</v>
       </c>
       <c r="J250" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K250" t="s">
         <v>2218</v>
@@ -21403,7 +21400,7 @@
         <v>163</v>
       </c>
       <c r="M251" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S251" t="s">
         <v>1838</v>
@@ -21420,16 +21417,16 @@
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B252" t="s">
         <v>2251</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>2252</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>2253</v>
-      </c>
-      <c r="D252" t="s">
-        <v>2254</v>
       </c>
       <c r="E252" t="s">
         <v>20</v>
@@ -21450,13 +21447,13 @@
         <v>440</v>
       </c>
       <c r="K252" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="L252" t="s">
         <v>1793</v>
       </c>
       <c r="M252" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S252" t="s">
         <v>1846</v>
@@ -21606,7 +21603,7 @@
         <v>1865</v>
       </c>
       <c r="U255" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V255" t="s">
         <v>30</v>
@@ -21664,13 +21661,13 @@
         <v>174</v>
       </c>
       <c r="B257" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C257" t="s">
         <v>2441</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>2442</v>
-      </c>
-      <c r="D257" t="s">
-        <v>2443</v>
       </c>
       <c r="E257" t="s">
         <v>149</v>
@@ -21679,7 +21676,7 @@
         <v>35</v>
       </c>
       <c r="G257" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="H257" t="s">
         <v>75</v>
@@ -21691,13 +21688,13 @@
         <v>440</v>
       </c>
       <c r="K257" t="s">
+        <v>2444</v>
+      </c>
+      <c r="L257" t="s">
         <v>2445</v>
       </c>
-      <c r="L257" t="s">
-        <v>2446</v>
-      </c>
       <c r="M257" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S257" t="s">
         <v>1880</v>
@@ -21750,7 +21747,7 @@
         <v>26</v>
       </c>
       <c r="M258" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S258" t="s">
         <v>1888</v>
@@ -21794,7 +21791,7 @@
         <v>12</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K259" t="s">
         <v>84</v>
@@ -21844,7 +21841,7 @@
         <v>54</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K260" t="s">
         <v>708</v>
@@ -21894,7 +21891,7 @@
         <v>233</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K261" t="s">
         <v>45</v>
@@ -21956,7 +21953,7 @@
         <v>1916</v>
       </c>
       <c r="U262" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V262" t="s">
         <v>30</v>
@@ -22000,10 +21997,10 @@
         <v>1029</v>
       </c>
       <c r="M263" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N263" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S263" t="s">
         <v>1922</v>
@@ -22056,10 +22053,10 @@
         <v>2142</v>
       </c>
       <c r="M264" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="N264" s="3" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="S264" t="s">
         <v>1929</v>
@@ -22112,7 +22109,7 @@
         <v>163</v>
       </c>
       <c r="M265" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S265" t="s">
         <v>1937</v>
@@ -22165,7 +22162,7 @@
         <v>2058</v>
       </c>
       <c r="M266" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S266" t="s">
         <v>1943</v>
@@ -22209,7 +22206,7 @@
         <v>1645</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K267" t="s">
         <v>1715</v>
@@ -22268,7 +22265,7 @@
         <v>447</v>
       </c>
       <c r="M268" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S268" t="s">
         <v>1951</v>
@@ -22321,7 +22318,7 @@
         <v>1088</v>
       </c>
       <c r="M269" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S269" t="s">
         <v>1959</v>
@@ -22388,16 +22385,16 @@
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B271" t="s">
         <v>2258</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>2259</v>
       </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>2260</v>
-      </c>
-      <c r="D271" t="s">
-        <v>2261</v>
       </c>
       <c r="E271" t="s">
         <v>149</v>
@@ -22418,13 +22415,13 @@
         <v>440</v>
       </c>
       <c r="K271" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="L271" t="s">
         <v>2058</v>
       </c>
       <c r="M271" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S271" t="s">
         <v>1975</v>
@@ -22477,7 +22474,7 @@
         <v>26</v>
       </c>
       <c r="M272" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S272" t="s">
         <v>1983</v>
@@ -22494,16 +22491,16 @@
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B273" t="s">
         <v>2358</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>2359</v>
       </c>
-      <c r="C273" t="s">
+      <c r="D273" t="s">
         <v>2360</v>
-      </c>
-      <c r="D273" t="s">
-        <v>2361</v>
       </c>
       <c r="E273" t="s">
         <v>20</v>
@@ -22512,7 +22509,7 @@
         <v>35</v>
       </c>
       <c r="G273" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="H273" t="s">
         <v>75</v>
@@ -22524,13 +22521,13 @@
         <v>440</v>
       </c>
       <c r="K273" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="L273" t="s">
         <v>1793</v>
       </c>
       <c r="M273" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S273" t="s">
         <v>1990</v>
@@ -22633,10 +22630,10 @@
         <v>283</v>
       </c>
       <c r="M275" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N275" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S275" t="s">
         <v>2006</v>
@@ -22689,10 +22686,10 @@
         <v>489</v>
       </c>
       <c r="M276" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N276" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S276" t="s">
         <v>2013</v>
@@ -22736,7 +22733,7 @@
         <v>65</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="K277" t="s">
         <v>518</v>
@@ -22745,7 +22742,7 @@
         <v>519</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="S277" t="s">
         <v>2021</v>
@@ -22798,7 +22795,7 @@
         <v>454</v>
       </c>
       <c r="M278" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S278" t="s">
         <v>2027</v>
@@ -22901,7 +22898,7 @@
         <v>1829</v>
       </c>
       <c r="M280" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S280" t="s">
         <v>2044</v>
@@ -22954,7 +22951,7 @@
         <v>1887</v>
       </c>
       <c r="M281" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S281" t="s">
         <v>2051</v>
@@ -23007,7 +23004,7 @@
         <v>26</v>
       </c>
       <c r="M282" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S282" t="s">
         <v>2059</v>
@@ -23027,7 +23024,7 @@
         <v>476</v>
       </c>
       <c r="B283" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C283" t="s">
         <v>477</v>
@@ -23060,7 +23057,7 @@
         <v>481</v>
       </c>
       <c r="M283" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S283" t="s">
         <v>2066</v>
@@ -23113,10 +23110,10 @@
         <v>1076</v>
       </c>
       <c r="M284" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N284" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S284" t="s">
         <v>2073</v>
@@ -23169,7 +23166,7 @@
         <v>1785</v>
       </c>
       <c r="M285" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S285" t="s">
         <v>2081</v>
@@ -23186,16 +23183,16 @@
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B286" t="s">
         <v>2464</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>2465</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>2466</v>
-      </c>
-      <c r="D286" t="s">
-        <v>2467</v>
       </c>
       <c r="E286" t="s">
         <v>20</v>
@@ -23204,7 +23201,7 @@
         <v>35</v>
       </c>
       <c r="G286" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="H286" t="s">
         <v>75</v>
@@ -23216,13 +23213,13 @@
         <v>440</v>
       </c>
       <c r="K286" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="L286" t="s">
         <v>26</v>
       </c>
       <c r="M286" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S286" t="s">
         <v>2087</v>
@@ -23375,7 +23372,7 @@
         <v>163</v>
       </c>
       <c r="M289" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S289" t="s">
         <v>2107</v>
@@ -23431,7 +23428,7 @@
         <v>440</v>
       </c>
       <c r="U290" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="V290" t="s">
         <v>441</v>
@@ -23466,7 +23463,7 @@
         <v>54</v>
       </c>
       <c r="J291" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K291" t="s">
         <v>142</v>
@@ -23525,7 +23522,7 @@
         <v>1871</v>
       </c>
       <c r="M292" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S292" t="s">
         <v>2128</v>
@@ -23569,7 +23566,7 @@
         <v>233</v>
       </c>
       <c r="J293" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K293" t="s">
         <v>1344</v>
@@ -23692,16 +23689,16 @@
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B296" t="s">
         <v>2263</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>2264</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>2265</v>
-      </c>
-      <c r="D296" t="s">
-        <v>2266</v>
       </c>
       <c r="E296" t="s">
         <v>20</v>
@@ -23710,7 +23707,7 @@
         <v>35</v>
       </c>
       <c r="G296" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="H296" t="s">
         <v>75</v>
@@ -23722,13 +23719,13 @@
         <v>440</v>
       </c>
       <c r="K296" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="L296" t="s">
         <v>1829</v>
       </c>
       <c r="M296" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S296" t="s">
         <v>2158</v>
@@ -23745,16 +23742,16 @@
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B297" t="s">
         <v>2312</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>2313</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>2314</v>
-      </c>
-      <c r="D297" t="s">
-        <v>2315</v>
       </c>
       <c r="E297" t="s">
         <v>20</v>
@@ -23763,7 +23760,7 @@
         <v>35</v>
       </c>
       <c r="G297" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="H297" t="s">
         <v>75</v>
@@ -23775,13 +23772,13 @@
         <v>440</v>
       </c>
       <c r="K297" t="s">
+        <v>2316</v>
+      </c>
+      <c r="L297" t="s">
         <v>2317</v>
       </c>
-      <c r="L297" t="s">
-        <v>2318</v>
-      </c>
       <c r="M297" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S297" t="s">
         <v>2166</v>
@@ -23834,7 +23831,7 @@
         <v>153</v>
       </c>
       <c r="M298" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S298" t="s">
         <v>2173</v>
@@ -23878,7 +23875,7 @@
         <v>12</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K299" t="s">
         <v>837</v>
@@ -23928,7 +23925,7 @@
         <v>12</v>
       </c>
       <c r="J300" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K300" t="s">
         <v>2020</v>
@@ -24037,10 +24034,10 @@
         <v>1895</v>
       </c>
       <c r="M302" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N302" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S302" t="s">
         <v>2202</v>
@@ -24057,16 +24054,16 @@
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B303" t="s">
         <v>2479</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>2480</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>2481</v>
-      </c>
-      <c r="D303" t="s">
-        <v>2482</v>
       </c>
       <c r="E303" t="s">
         <v>149</v>
@@ -24087,13 +24084,13 @@
         <v>440</v>
       </c>
       <c r="K303" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="L303" t="s">
         <v>1753</v>
       </c>
       <c r="M303" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S303" t="s">
         <v>2211</v>
@@ -24160,16 +24157,16 @@
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B305" t="s">
         <v>2485</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>2486</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>2487</v>
-      </c>
-      <c r="D305" t="s">
-        <v>2488</v>
       </c>
       <c r="E305" t="s">
         <v>20</v>
@@ -24178,7 +24175,7 @@
         <v>35</v>
       </c>
       <c r="G305" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="H305" t="s">
         <v>75</v>
@@ -24190,19 +24187,25 @@
         <v>440</v>
       </c>
       <c r="K305" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="L305" t="s">
         <v>447</v>
       </c>
       <c r="M305" t="s">
-        <v>2563</v>
-      </c>
-      <c r="S305" t="s">
+        <v>2562</v>
+      </c>
+      <c r="N305" s="3" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O305" s="3" t="s">
+        <v>2523</v>
+      </c>
+      <c r="S305" s="3" t="s">
+        <v>2490</v>
+      </c>
+      <c r="T305" t="s">
         <v>2227</v>
-      </c>
-      <c r="T305" t="s">
-        <v>2228</v>
       </c>
       <c r="U305" t="s">
         <v>29</v>
@@ -24249,16 +24252,16 @@
         <v>627</v>
       </c>
       <c r="M306" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N306" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S306" t="s">
+        <v>2233</v>
+      </c>
+      <c r="T306" t="s">
         <v>2234</v>
-      </c>
-      <c r="T306" t="s">
-        <v>2235</v>
       </c>
       <c r="U306" t="s">
         <v>29</v>
@@ -24296,7 +24299,7 @@
         <v>233</v>
       </c>
       <c r="J307" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K307" t="s">
         <v>45</v>
@@ -24305,7 +24308,7 @@
         <v>56</v>
       </c>
       <c r="S307" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="T307" t="s">
         <v>440</v>
@@ -24346,7 +24349,7 @@
         <v>233</v>
       </c>
       <c r="J308" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K308" t="s">
         <v>142</v>
@@ -24355,10 +24358,10 @@
         <v>474</v>
       </c>
       <c r="S308" t="s">
+        <v>2248</v>
+      </c>
+      <c r="T308" t="s">
         <v>2249</v>
-      </c>
-      <c r="T308" t="s">
-        <v>2250</v>
       </c>
       <c r="U308" t="s">
         <v>29</v>
@@ -24405,16 +24408,16 @@
         <v>1076</v>
       </c>
       <c r="M309" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N309" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S309" t="s">
+        <v>2255</v>
+      </c>
+      <c r="T309" t="s">
         <v>2256</v>
-      </c>
-      <c r="T309" t="s">
-        <v>2257</v>
       </c>
       <c r="U309" t="s">
         <v>29</v>
@@ -24461,13 +24464,13 @@
         <v>447</v>
       </c>
       <c r="M310" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S310" t="s">
+        <v>2268</v>
+      </c>
+      <c r="T310" t="s">
         <v>2269</v>
-      </c>
-      <c r="T310" t="s">
-        <v>2270</v>
       </c>
       <c r="U310" t="s">
         <v>29</v>
@@ -24514,13 +24517,13 @@
         <v>454</v>
       </c>
       <c r="M311" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S311" t="s">
+        <v>2276</v>
+      </c>
+      <c r="T311" t="s">
         <v>2277</v>
-      </c>
-      <c r="T311" t="s">
-        <v>2278</v>
       </c>
       <c r="U311" t="s">
         <v>29</v>
@@ -24567,16 +24570,16 @@
         <v>1451</v>
       </c>
       <c r="M312" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N312" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S312" t="s">
+        <v>2282</v>
+      </c>
+      <c r="T312" t="s">
         <v>2283</v>
-      </c>
-      <c r="T312" t="s">
-        <v>2284</v>
       </c>
       <c r="U312" t="s">
         <v>29</v>
@@ -24623,10 +24626,10 @@
         <v>671</v>
       </c>
       <c r="S313" t="s">
+        <v>2290</v>
+      </c>
+      <c r="T313" t="s">
         <v>2291</v>
-      </c>
-      <c r="T313" t="s">
-        <v>2292</v>
       </c>
       <c r="U313" t="s">
         <v>29</v>
@@ -24664,7 +24667,7 @@
         <v>65</v>
       </c>
       <c r="J314" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="K314" t="s">
         <v>249</v>
@@ -24673,13 +24676,13 @@
         <v>94</v>
       </c>
       <c r="M314" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="S314" t="s">
+        <v>2296</v>
+      </c>
+      <c r="T314" t="s">
         <v>2297</v>
-      </c>
-      <c r="T314" t="s">
-        <v>2298</v>
       </c>
       <c r="U314" t="s">
         <v>29</v>
@@ -24726,13 +24729,13 @@
         <v>1224</v>
       </c>
       <c r="M315" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N315" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S315" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="T315" t="s">
         <v>440</v>
@@ -24782,13 +24785,13 @@
         <v>163</v>
       </c>
       <c r="M316" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S316" t="s">
+        <v>2309</v>
+      </c>
+      <c r="T316" t="s">
         <v>2310</v>
-      </c>
-      <c r="T316" t="s">
-        <v>2311</v>
       </c>
       <c r="U316" t="s">
         <v>29</v>
@@ -24835,13 +24838,13 @@
         <v>153</v>
       </c>
       <c r="M317" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S317" t="s">
+        <v>2318</v>
+      </c>
+      <c r="T317" t="s">
         <v>2319</v>
-      </c>
-      <c r="T317" t="s">
-        <v>2320</v>
       </c>
       <c r="U317" t="s">
         <v>29</v>
@@ -24852,16 +24855,16 @@
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B318" t="s">
         <v>2499</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
         <v>2500</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>2501</v>
-      </c>
-      <c r="D318" t="s">
-        <v>2502</v>
       </c>
       <c r="E318" t="s">
         <v>149</v>
@@ -24870,7 +24873,7 @@
         <v>35</v>
       </c>
       <c r="G318" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="H318" t="s">
         <v>75</v>
@@ -24882,16 +24885,16 @@
         <v>440</v>
       </c>
       <c r="K318" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="L318" t="s">
         <v>1753</v>
       </c>
       <c r="M318" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S318" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="T318" t="s">
         <v>440</v>
@@ -24941,13 +24944,13 @@
         <v>454</v>
       </c>
       <c r="M319" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S319" t="s">
+        <v>2331</v>
+      </c>
+      <c r="T319" t="s">
         <v>2332</v>
-      </c>
-      <c r="T319" t="s">
-        <v>2333</v>
       </c>
       <c r="U319" t="s">
         <v>29</v>
@@ -24994,16 +24997,16 @@
         <v>489</v>
       </c>
       <c r="M320" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N320" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S320" t="s">
+        <v>2338</v>
+      </c>
+      <c r="T320" t="s">
         <v>2339</v>
-      </c>
-      <c r="T320" t="s">
-        <v>2340</v>
       </c>
       <c r="U320" t="s">
         <v>29</v>
@@ -25050,19 +25053,19 @@
         <v>586</v>
       </c>
       <c r="M321" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N321" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="O321" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="S321" t="s">
+        <v>2344</v>
+      </c>
+      <c r="T321" t="s">
         <v>2345</v>
-      </c>
-      <c r="T321" t="s">
-        <v>2346</v>
       </c>
       <c r="U321" t="s">
         <v>29</v>
@@ -25109,10 +25112,10 @@
         <v>1730</v>
       </c>
       <c r="S322" t="s">
+        <v>2350</v>
+      </c>
+      <c r="T322" t="s">
         <v>2351</v>
-      </c>
-      <c r="T322" t="s">
-        <v>2352</v>
       </c>
       <c r="U322" t="s">
         <v>29</v>
@@ -25159,10 +25162,10 @@
         <v>413</v>
       </c>
       <c r="S323" t="s">
+        <v>2355</v>
+      </c>
+      <c r="T323" t="s">
         <v>2356</v>
-      </c>
-      <c r="T323" t="s">
-        <v>2357</v>
       </c>
       <c r="U323" t="s">
         <v>29</v>
@@ -25209,10 +25212,10 @@
         <v>413</v>
       </c>
       <c r="S324" t="s">
+        <v>2363</v>
+      </c>
+      <c r="T324" t="s">
         <v>2364</v>
-      </c>
-      <c r="T324" t="s">
-        <v>2365</v>
       </c>
       <c r="U324" t="s">
         <v>29</v>
@@ -25259,10 +25262,10 @@
         <v>153</v>
       </c>
       <c r="M325" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S325" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="T325" t="s">
         <v>440</v>
@@ -25312,13 +25315,13 @@
         <v>1157</v>
       </c>
       <c r="M326" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="S326" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="T326" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="U326" t="s">
         <v>29</v>
@@ -25365,16 +25368,16 @@
         <v>319</v>
       </c>
       <c r="M327" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N327" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="S327" t="s">
+        <v>2378</v>
+      </c>
+      <c r="T327" t="s">
         <v>2379</v>
-      </c>
-      <c r="T327" t="s">
-        <v>2380</v>
       </c>
       <c r="U327" t="s">
         <v>29</v>
@@ -25421,13 +25424,13 @@
         <v>26</v>
       </c>
       <c r="M328" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S328" t="s">
+        <v>2385</v>
+      </c>
+      <c r="T328" t="s">
         <v>2386</v>
-      </c>
-      <c r="T328" t="s">
-        <v>2387</v>
       </c>
       <c r="U328" t="s">
         <v>29</v>
@@ -25474,13 +25477,13 @@
         <v>634</v>
       </c>
       <c r="M329" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S329" t="s">
+        <v>2394</v>
+      </c>
+      <c r="T329" t="s">
         <v>2395</v>
-      </c>
-      <c r="T329" t="s">
-        <v>2396</v>
       </c>
       <c r="U329" t="s">
         <v>29</v>
@@ -25527,7 +25530,7 @@
         <v>54</v>
       </c>
       <c r="S330" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="T330" t="s">
         <v>440</v>
@@ -25544,13 +25547,13 @@
         <v>689</v>
       </c>
       <c r="B331" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C331" t="s">
         <v>2403</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>2404</v>
-      </c>
-      <c r="D331" t="s">
-        <v>2405</v>
       </c>
       <c r="E331" t="s">
         <v>20</v>
@@ -25559,7 +25562,7 @@
         <v>35</v>
       </c>
       <c r="G331" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="H331" t="s">
         <v>53</v>
@@ -25577,10 +25580,10 @@
         <v>474</v>
       </c>
       <c r="S331" t="s">
+        <v>2406</v>
+      </c>
+      <c r="T331" t="s">
         <v>2407</v>
-      </c>
-      <c r="T331" t="s">
-        <v>2408</v>
       </c>
       <c r="U331" t="s">
         <v>29</v>
@@ -25618,7 +25621,7 @@
         <v>12</v>
       </c>
       <c r="J332" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="K332" t="s">
         <v>37</v>
@@ -25627,10 +25630,10 @@
         <v>26</v>
       </c>
       <c r="S332" t="s">
+        <v>2414</v>
+      </c>
+      <c r="T332" t="s">
         <v>2415</v>
-      </c>
-      <c r="T332" t="s">
-        <v>2416</v>
       </c>
       <c r="U332" t="s">
         <v>29</v>
@@ -25677,10 +25680,10 @@
         <v>413</v>
       </c>
       <c r="S333" t="s">
+        <v>2422</v>
+      </c>
+      <c r="T333" t="s">
         <v>2423</v>
-      </c>
-      <c r="T333" t="s">
-        <v>2424</v>
       </c>
       <c r="U333" t="s">
         <v>29</v>
@@ -25718,7 +25721,7 @@
         <v>195</v>
       </c>
       <c r="J334" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K334" t="s">
         <v>1351</v>
@@ -25727,10 +25730,10 @@
         <v>1345</v>
       </c>
       <c r="S334" t="s">
+        <v>2430</v>
+      </c>
+      <c r="T334" t="s">
         <v>2431</v>
-      </c>
-      <c r="T334" t="s">
-        <v>2432</v>
       </c>
       <c r="U334" t="s">
         <v>29</v>
@@ -25777,16 +25780,16 @@
         <v>259</v>
       </c>
       <c r="M335" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="N335" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S335" t="s">
+        <v>2438</v>
+      </c>
+      <c r="T335" t="s">
         <v>2439</v>
-      </c>
-      <c r="T335" t="s">
-        <v>2440</v>
       </c>
       <c r="U335" t="s">
         <v>29</v>
@@ -25833,13 +25836,13 @@
         <v>454</v>
       </c>
       <c r="M336" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S336" t="s">
+        <v>2446</v>
+      </c>
+      <c r="T336" t="s">
         <v>2447</v>
-      </c>
-      <c r="T336" t="s">
-        <v>2448</v>
       </c>
       <c r="U336" t="s">
         <v>29</v>
@@ -25886,13 +25889,13 @@
         <v>1170</v>
       </c>
       <c r="M337" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="S337" t="s">
+        <v>2452</v>
+      </c>
+      <c r="T337" t="s">
         <v>2453</v>
-      </c>
-      <c r="T337" t="s">
-        <v>2454</v>
       </c>
       <c r="U337" t="s">
         <v>29</v>
@@ -25939,10 +25942,10 @@
         <v>1299</v>
       </c>
       <c r="S338" t="s">
+        <v>2461</v>
+      </c>
+      <c r="T338" t="s">
         <v>2462</v>
-      </c>
-      <c r="T338" t="s">
-        <v>2463</v>
       </c>
       <c r="U338" t="s">
         <v>29</v>
@@ -25989,16 +25992,16 @@
         <v>110</v>
       </c>
       <c r="M339" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="N339" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S339" t="s">
+        <v>2468</v>
+      </c>
+      <c r="T339" t="s">
         <v>2469</v>
-      </c>
-      <c r="T339" t="s">
-        <v>2470</v>
       </c>
       <c r="U339" t="s">
         <v>29</v>
@@ -26045,16 +26048,16 @@
         <v>102</v>
       </c>
       <c r="M340" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="N340" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="S340" t="s">
+        <v>2476</v>
+      </c>
+      <c r="T340" t="s">
         <v>2477</v>
-      </c>
-      <c r="T340" t="s">
-        <v>2478</v>
       </c>
       <c r="U340" t="s">
         <v>29</v>
@@ -26068,10 +26071,10 @@
         <v>97</v>
       </c>
       <c r="B341" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C341" t="s">
         <v>2229</v>
-      </c>
-      <c r="C341" t="s">
-        <v>2230</v>
       </c>
       <c r="D341" t="s">
         <v>100</v>
@@ -26083,7 +26086,7 @@
         <v>35</v>
       </c>
       <c r="G341" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="H341" t="s">
         <v>75</v>
@@ -26095,16 +26098,16 @@
         <v>440</v>
       </c>
       <c r="K341" t="s">
+        <v>2231</v>
+      </c>
+      <c r="L341" t="s">
         <v>2232</v>
       </c>
-      <c r="L341" t="s">
-        <v>2233</v>
-      </c>
       <c r="M341" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="S341" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="T341" t="s">
         <v>440</v>
@@ -26154,16 +26157,16 @@
         <v>916</v>
       </c>
       <c r="M342" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N342" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="S342" t="s">
+        <v>2490</v>
+      </c>
+      <c r="T342" t="s">
         <v>2491</v>
-      </c>
-      <c r="T342" t="s">
-        <v>2492</v>
       </c>
       <c r="U342" t="s">
         <v>29</v>
@@ -26210,10 +26213,10 @@
         <v>56</v>
       </c>
       <c r="S343" t="s">
+        <v>2496</v>
+      </c>
+      <c r="T343" t="s">
         <v>2497</v>
-      </c>
-      <c r="T343" t="s">
-        <v>2498</v>
       </c>
       <c r="U343" t="s">
         <v>29</v>
@@ -26227,13 +26230,13 @@
         <v>510</v>
       </c>
       <c r="B344" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>511</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>149</v>
@@ -26254,23 +26257,23 @@
         <v>440</v>
       </c>
       <c r="K344" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="L344" s="3" t="s">
         <v>2558</v>
       </c>
-      <c r="L344" s="3" t="s">
-        <v>2559</v>
-      </c>
       <c r="M344" s="3" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="N344" s="3"/>
       <c r="O344" s="3"/>
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
       <c r="S344" t="s">
+        <v>2510</v>
+      </c>
+      <c r="T344" t="s">
         <v>2511</v>
-      </c>
-      <c r="T344" t="s">
-        <v>2512</v>
       </c>
       <c r="U344" t="s">
         <v>29</v>
@@ -26328,7 +26331,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26340,10 +26343,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -26351,7 +26354,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -26359,23 +26362,23 @@
         <v>1753</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -26383,10 +26386,10 @@
         <v>519</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2562</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -26397,7 +26400,7 @@
         <v>1889</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -26408,18 +26411,18 @@
         <v>1873</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1881</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -26427,10 +26430,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C10" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -26438,10 +26441,10 @@
         <v>398</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -26452,7 +26455,7 @@
         <v>440</v>
       </c>
       <c r="C12" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -26460,10 +26463,10 @@
         <v>248</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2539</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -26474,18 +26477,18 @@
         <v>1881</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1897</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -26501,7 +26504,7 @@
         <v>1861</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -26514,10 +26517,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C19" t="s">
         <v>2554</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2555</v>
       </c>
     </row>
   </sheetData>

--- a/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
+++ b/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\FDA_EUA tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFBABBA-1F4E-496C-B65E-4A020517C44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30F9A88-FDAE-40EA-9D68-773C69FA2306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CB072C4-4071-45ED-9E21-A7B6C58CD755}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5839" uniqueCount="2565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5891" uniqueCount="2568">
   <si>
     <t>Company/Organization</t>
   </si>
@@ -7769,12 +7769,6 @@
     <t>NP swab, ANs swab, MTNs swab, OP swab, NP wash, NP aspirate, Ns aspirate, BAL</t>
   </si>
   <si>
-    <t>N(N,N2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_3043740572</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OGG_1002697049</t>
   </si>
   <si>
@@ -7788,13 +7782,28 @@
   </si>
   <si>
     <t xml:space="preserve">http://purl.obolibrary.org/obo/OGG_3043740579 </t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OGG_30437405791</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OGG_3043740577</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OGG_3043740571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_30437405791</t>
+  </si>
+  <si>
+    <t>ORF8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7827,6 +7836,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7861,21 +7875,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2302C17A-8D3C-421D-8448-DA8779CBB4A8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8189,7 +8206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6338C626-B5C7-4274-B4C3-F95CCA523B46}">
   <dimension ref="A1:V346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O317" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O321" workbookViewId="0">
       <selection sqref="A1:V344"/>
     </sheetView>
   </sheetViews>
@@ -8245,19 +8262,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>2512</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>2513</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="6" t="s">
         <v>2514</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>2515</v>
       </c>
       <c r="Q1" t="s">
@@ -8310,15 +8327,17 @@
       <c r="K2" t="s">
         <v>1894</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>1895</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
       <c r="S2" t="s">
         <v>27</v>
       </c>
@@ -8366,12 +8385,15 @@
       <c r="K3" t="s">
         <v>2165</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="6" t="s">
         <v>1887</v>
       </c>
-      <c r="M3" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M3" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="S3" t="s">
         <v>38</v>
       </c>
@@ -8404,6 +8426,11 @@
       <c r="J4" t="s">
         <v>1881</v>
       </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
       <c r="S4" t="s">
         <v>46</v>
       </c>
@@ -8451,6 +8478,11 @@
       <c r="K5" t="s">
         <v>45</v>
       </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
       <c r="Q5" t="s">
         <v>1095</v>
       </c>
@@ -8501,6 +8533,11 @@
       <c r="K6" t="s">
         <v>93</v>
       </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
       <c r="Q6" t="s">
         <v>701</v>
       </c>
@@ -8551,12 +8588,15 @@
       <c r="K7" t="s">
         <v>2377</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
       <c r="S7" s="3" t="s">
         <v>78</v>
       </c>
@@ -8604,6 +8644,11 @@
       <c r="K8" t="s">
         <v>142</v>
       </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
       <c r="S8" t="s">
         <v>85</v>
       </c>
@@ -8651,18 +8696,19 @@
       <c r="K9" t="s">
         <v>1478</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="M9" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>2529</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P9" s="6"/>
       <c r="S9" t="s">
         <v>95</v>
       </c>
@@ -8710,12 +8756,15 @@
       <c r="K10" t="s">
         <v>212</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
       <c r="S10" t="s">
         <v>103</v>
       </c>
@@ -8757,6 +8806,11 @@
       <c r="K11" t="s">
         <v>45</v>
       </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
       <c r="S11" t="s">
         <v>111</v>
       </c>
@@ -8804,6 +8858,11 @@
       <c r="K12" t="s">
         <v>45</v>
       </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
       <c r="Q12" t="s">
         <v>1095</v>
       </c>
@@ -8854,6 +8913,11 @@
       <c r="K13" t="s">
         <v>1859</v>
       </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
       <c r="Q13" t="s">
         <v>474</v>
       </c>
@@ -8904,6 +8968,11 @@
       <c r="K14" t="s">
         <v>93</v>
       </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
       <c r="Q14" t="s">
         <v>94</v>
       </c>
@@ -8954,18 +9023,19 @@
       <c r="K15" t="s">
         <v>888</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="6" t="s">
         <v>2531</v>
       </c>
-      <c r="O15" t="s">
-        <v>2563</v>
-      </c>
+      <c r="O15" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="P15" s="6"/>
       <c r="S15" t="s">
         <v>143</v>
       </c>
@@ -9013,12 +9083,19 @@
       <c r="K16" t="s">
         <v>446</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="M16" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M16" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P16" s="6"/>
       <c r="S16" t="s">
         <v>154</v>
       </c>
@@ -9066,15 +9143,17 @@
       <c r="K17" t="s">
         <v>908</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="6" t="s">
         <v>909</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="6" t="s">
         <v>2525</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
       <c r="S17" t="s">
         <v>164</v>
       </c>
@@ -9122,15 +9201,17 @@
       <c r="K18" t="s">
         <v>308</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N18" t="s">
-        <v>2563</v>
-      </c>
+      <c r="N18" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="S18" t="s">
         <v>172</v>
       </c>
@@ -9178,15 +9259,17 @@
       <c r="K19" t="s">
         <v>562</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="M19" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="S19" t="s">
         <v>179</v>
       </c>
@@ -9234,12 +9317,17 @@
       <c r="K20" t="s">
         <v>1886</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="6" t="s">
         <v>1887</v>
       </c>
-      <c r="M20" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M20" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
       <c r="S20" t="s">
         <v>188</v>
       </c>
@@ -9287,12 +9375,19 @@
       <c r="K21" t="s">
         <v>2475</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="M21" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M21" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="P21" s="6"/>
       <c r="S21" t="s">
         <v>196</v>
       </c>
@@ -9340,12 +9435,19 @@
       <c r="K22" t="s">
         <v>1137</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="M22" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M22" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P22" s="6"/>
       <c r="S22" t="s">
         <v>203</v>
       </c>
@@ -9393,18 +9495,19 @@
       <c r="K23" t="s">
         <v>2079</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="6" t="s">
         <v>2080</v>
       </c>
-      <c r="M23" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M23" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="6" t="s">
         <v>2526</v>
       </c>
+      <c r="P23" s="6"/>
       <c r="S23" t="s">
         <v>213</v>
       </c>
@@ -9452,18 +9555,19 @@
       <c r="K24" t="s">
         <v>212</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="M24" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>2529</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P24" s="6"/>
       <c r="S24" t="s">
         <v>220</v>
       </c>
@@ -9511,12 +9615,15 @@
       <c r="K25" t="s">
         <v>1395</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
       <c r="S25" t="s">
         <v>227</v>
       </c>
@@ -9564,6 +9671,11 @@
       <c r="K26" t="s">
         <v>2034</v>
       </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
       <c r="Q26" t="s">
         <v>94</v>
       </c>
@@ -9614,6 +9726,11 @@
       <c r="K27" t="s">
         <v>2121</v>
       </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
       <c r="Q27" t="s">
         <v>474</v>
       </c>
@@ -9664,12 +9781,15 @@
       <c r="K28" t="s">
         <v>1936</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M28" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M28" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
       <c r="S28" t="s">
         <v>250</v>
       </c>
@@ -9717,12 +9837,15 @@
       <c r="K29" t="s">
         <v>132</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="M29" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M29" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="S29" t="s">
         <v>260</v>
       </c>
@@ -9770,12 +9893,15 @@
       <c r="K30" t="s">
         <v>1852</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M30" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M30" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="S30" t="s">
         <v>269</v>
       </c>
@@ -9823,15 +9949,17 @@
       <c r="K31" t="s">
         <v>258</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M31" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="M31" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
       <c r="S31" t="s">
         <v>276</v>
       </c>
@@ -9879,15 +10007,17 @@
       <c r="K32" t="s">
         <v>1598</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="M32" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="M32" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
       <c r="S32" t="s">
         <v>284</v>
       </c>
@@ -9935,12 +10065,15 @@
       <c r="K33" t="s">
         <v>1745</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
       <c r="S33" t="s">
         <v>294</v>
       </c>
@@ -9988,12 +10121,15 @@
       <c r="K34" t="s">
         <v>1921</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="6" t="s">
         <v>1753</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
       <c r="S34" t="s">
         <v>301</v>
       </c>
@@ -10041,12 +10177,15 @@
       <c r="K35" t="s">
         <v>527</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
       <c r="S35" t="s">
         <v>310</v>
       </c>
@@ -10094,6 +10233,11 @@
       <c r="K36" t="s">
         <v>1344</v>
       </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
       <c r="Q36" t="s">
         <v>1416</v>
       </c>
@@ -10144,6 +10288,11 @@
       <c r="K37" t="s">
         <v>45</v>
       </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
       <c r="Q37" t="s">
         <v>1095</v>
       </c>
@@ -10194,6 +10343,11 @@
       <c r="K38" t="s">
         <v>1859</v>
       </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
       <c r="Q38" t="s">
         <v>474</v>
       </c>
@@ -10244,12 +10398,15 @@
       <c r="K39" t="s">
         <v>501</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
       <c r="S39" t="s">
         <v>344</v>
       </c>
@@ -10297,12 +10454,15 @@
       <c r="K40" t="s">
         <v>1769</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
       <c r="S40" t="s">
         <v>352</v>
       </c>
@@ -10350,6 +10510,11 @@
       <c r="K41" t="s">
         <v>1386</v>
       </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
       <c r="Q41" t="s">
         <v>701</v>
       </c>
@@ -10400,15 +10565,17 @@
       <c r="K42" t="s">
         <v>988</v>
       </c>
-      <c r="L42" t="s">
+      <c r="L42" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="M42" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="M42" s="6" t="s">
+        <v>2563</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
       <c r="S42" t="s">
         <v>370</v>
       </c>
@@ -10456,12 +10623,15 @@
       <c r="K43" t="s">
         <v>37</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="M43" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M43" s="6" t="s">
+        <v>2563</v>
+      </c>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
       <c r="S43" t="s">
         <v>378</v>
       </c>
@@ -10509,12 +10679,15 @@
       <c r="K44" t="s">
         <v>562</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
       <c r="S44" t="s">
         <v>386</v>
       </c>
@@ -10562,12 +10735,15 @@
       <c r="K45" t="s">
         <v>2187</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
       <c r="T45" t="s">
         <v>393</v>
       </c>
@@ -10612,6 +10788,11 @@
       <c r="K46" t="s">
         <v>67</v>
       </c>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
       <c r="Q46" t="s">
         <v>26</v>
       </c>
@@ -10659,6 +10840,11 @@
       <c r="K47" t="s">
         <v>67</v>
       </c>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
       <c r="Q47" t="s">
         <v>26</v>
       </c>
@@ -10709,6 +10895,11 @@
       <c r="K48" t="s">
         <v>67</v>
       </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
       <c r="Q48" t="s">
         <v>26</v>
       </c>
@@ -10759,6 +10950,11 @@
       <c r="K49" t="s">
         <v>67</v>
       </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
       <c r="S49" t="s">
         <v>422</v>
       </c>
@@ -10806,6 +11002,11 @@
       <c r="K50" t="s">
         <v>392</v>
       </c>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
       <c r="S50" t="s">
         <v>430</v>
       </c>
@@ -10853,6 +11054,11 @@
       <c r="K51" t="s">
         <v>844</v>
       </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
       <c r="Q51" t="s">
         <v>94</v>
       </c>
@@ -10903,6 +11109,11 @@
       <c r="K52" t="s">
         <v>844</v>
       </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
       <c r="Q52" t="s">
         <v>94</v>
       </c>
@@ -10953,12 +11164,15 @@
       <c r="K53" t="s">
         <v>1692</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
       <c r="S53" t="s">
         <v>455</v>
       </c>
@@ -11006,12 +11220,15 @@
       <c r="K54" t="s">
         <v>1950</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
       <c r="S54" t="s">
         <v>461</v>
       </c>
@@ -11059,12 +11276,15 @@
       <c r="K55" t="s">
         <v>1777</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="6" t="s">
         <v>1778</v>
       </c>
-      <c r="M55" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M55" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
       <c r="S55" t="s">
         <v>468</v>
       </c>
@@ -11112,12 +11332,17 @@
       <c r="K56" t="s">
         <v>2209</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="6" t="s">
         <v>2210</v>
       </c>
-      <c r="M56" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M56" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>2564</v>
+      </c>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
       <c r="S56" s="3" t="s">
         <v>475</v>
       </c>
@@ -11165,9 +11390,17 @@
       <c r="K57" t="s">
         <v>1598</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="6" t="s">
         <v>2086</v>
       </c>
+      <c r="M57" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>2565</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
       <c r="S57" t="s">
         <v>482</v>
       </c>
@@ -11215,15 +11448,17 @@
       <c r="K58" t="s">
         <v>37</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="6" t="s">
         <v>2526</v>
       </c>
-      <c r="N58" t="s">
-        <v>2559</v>
-      </c>
+      <c r="N58" s="6" t="s">
+        <v>2565</v>
+      </c>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
       <c r="S58" t="s">
         <v>490</v>
       </c>
@@ -11271,12 +11506,15 @@
       <c r="K59" t="s">
         <v>2187</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
       <c r="S59" t="s">
         <v>495</v>
       </c>
@@ -11324,6 +11562,11 @@
       <c r="K60" t="s">
         <v>1575</v>
       </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
       <c r="Q60" t="s">
         <v>421</v>
       </c>
@@ -11374,15 +11617,17 @@
       <c r="K61" t="s">
         <v>1128</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="M61" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="M61" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N61" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
       <c r="S61" t="s">
         <v>509</v>
       </c>
@@ -11430,12 +11675,15 @@
       <c r="K62" t="s">
         <v>677</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L62" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
       <c r="T62" t="s">
         <v>440</v>
       </c>
@@ -11480,12 +11728,15 @@
       <c r="K63" t="s">
         <v>562</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L63" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
       <c r="T63" t="s">
         <v>512</v>
       </c>
@@ -11530,12 +11781,15 @@
       <c r="K64" t="s">
         <v>2093</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L64" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
       <c r="S64" t="s">
         <v>520</v>
       </c>
@@ -11583,12 +11837,15 @@
       <c r="K65" t="s">
         <v>369</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L65" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M65" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M65" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
       <c r="S65" t="s">
         <v>528</v>
       </c>
@@ -11636,6 +11893,11 @@
       <c r="K66" t="s">
         <v>142</v>
       </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
       <c r="Q66" t="s">
         <v>474</v>
       </c>
@@ -11686,12 +11948,15 @@
       <c r="K67" t="s">
         <v>308</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L67" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
       <c r="S67" t="s">
         <v>542</v>
       </c>
@@ -11739,18 +12004,19 @@
       <c r="K68" t="s">
         <v>1292</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="6" t="s">
         <v>2531</v>
       </c>
-      <c r="O68" t="s">
-        <v>2563</v>
-      </c>
+      <c r="O68" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="P68" s="6"/>
       <c r="S68" t="s">
         <v>549</v>
       </c>
@@ -11798,6 +12064,11 @@
       <c r="K69" t="s">
         <v>37</v>
       </c>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
       <c r="Q69" t="s">
         <v>26</v>
       </c>
@@ -11848,6 +12119,11 @@
       <c r="K70" t="s">
         <v>142</v>
       </c>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
       <c r="Q70" t="s">
         <v>1265</v>
       </c>
@@ -11898,15 +12174,17 @@
       <c r="K71" t="s">
         <v>1401</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="6" t="s">
         <v>1402</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N71" t="s">
-        <v>2562</v>
-      </c>
+      <c r="N71" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
       <c r="S71" t="s">
         <v>572</v>
       </c>
@@ -11954,12 +12232,15 @@
       <c r="K72" t="s">
         <v>2226</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L72" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
       <c r="S72" t="s">
         <v>580</v>
       </c>
@@ -12007,12 +12288,17 @@
       <c r="K73" t="s">
         <v>2302</v>
       </c>
-      <c r="L73" t="s">
+      <c r="L73" s="6" t="s">
         <v>2232</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="N73" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
       <c r="S73" t="s">
         <v>587</v>
       </c>
@@ -12060,15 +12346,17 @@
       <c r="K74" t="s">
         <v>1436</v>
       </c>
-      <c r="L74" t="s">
+      <c r="L74" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" s="6" t="s">
         <v>2525</v>
       </c>
-      <c r="N74" t="s">
-        <v>2562</v>
-      </c>
+      <c r="N74" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
       <c r="S74" t="s">
         <v>594</v>
       </c>
@@ -12116,12 +12404,15 @@
       <c r="K75" t="s">
         <v>275</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L75" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
       <c r="S75" t="s">
         <v>600</v>
       </c>
@@ -12169,15 +12460,17 @@
       <c r="K76" t="s">
         <v>2324</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L76" s="6" t="s">
         <v>2142</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" s="6" t="s">
         <v>2533</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N76" s="6" t="s">
         <v>2526</v>
       </c>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
       <c r="S76" t="s">
         <v>607</v>
       </c>
@@ -12225,12 +12518,19 @@
       <c r="K77" t="s">
         <v>2240</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L77" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="M77" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M77" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="P77" s="6"/>
       <c r="S77" t="s">
         <v>614</v>
       </c>
@@ -12278,12 +12578,15 @@
       <c r="K78" t="s">
         <v>212</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L78" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M78" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M78" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
       <c r="S78" t="s">
         <v>621</v>
       </c>
@@ -12331,12 +12634,15 @@
       <c r="K79" t="s">
         <v>308</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="M79" t="s">
-        <v>2560</v>
-      </c>
+      <c r="M79" s="6" t="s">
+        <v>2558</v>
+      </c>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
       <c r="S79" t="s">
         <v>628</v>
       </c>
@@ -12384,15 +12690,17 @@
       <c r="K80" t="s">
         <v>1183</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" s="6" t="s">
         <v>2525</v>
       </c>
-      <c r="N80" t="s">
-        <v>2562</v>
-      </c>
+      <c r="N80" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
       <c r="S80" t="s">
         <v>635</v>
       </c>
@@ -12440,18 +12748,19 @@
       <c r="K81" t="s">
         <v>359</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N81" s="6" t="s">
         <v>2532</v>
       </c>
-      <c r="O81" t="s">
-        <v>2562</v>
-      </c>
+      <c r="O81" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="P81" s="6"/>
       <c r="S81" t="s">
         <v>643</v>
       </c>
@@ -12496,6 +12805,11 @@
       <c r="K82" t="s">
         <v>527</v>
       </c>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
       <c r="Q82" t="s">
         <v>26</v>
       </c>
@@ -12546,12 +12860,17 @@
       <c r="K83" t="s">
         <v>2459</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="6" t="s">
         <v>2460</v>
       </c>
-      <c r="M83" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M83" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
       <c r="S83" t="s">
         <v>657</v>
       </c>
@@ -12599,15 +12918,17 @@
       <c r="K84" t="s">
         <v>76</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="M84" t="s">
-        <v>2563</v>
-      </c>
-      <c r="N84" t="s">
+      <c r="M84" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="N84" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
       <c r="S84" t="s">
         <v>664</v>
       </c>
@@ -12655,15 +12976,17 @@
       <c r="K85" t="s">
         <v>76</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="M85" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N85" t="s">
+      <c r="M85" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N85" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
       <c r="S85" t="s">
         <v>672</v>
       </c>
@@ -12702,6 +13025,11 @@
       <c r="K86" t="s">
         <v>527</v>
       </c>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
       <c r="S86" t="s">
         <v>678</v>
       </c>
@@ -12749,6 +13077,11 @@
       <c r="K87" t="s">
         <v>67</v>
       </c>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
       <c r="S87" t="s">
         <v>687</v>
       </c>
@@ -12796,12 +13129,19 @@
       <c r="K88" t="s">
         <v>1792</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L88" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="M88" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M88" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="P88" s="6"/>
       <c r="S88" t="s">
         <v>694</v>
       </c>
@@ -12849,20 +13189,20 @@
       <c r="K89" t="s">
         <v>533</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L89" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N89" t="s">
+      <c r="N89" s="6" t="s">
         <v>2532</v>
       </c>
-      <c r="O89" t="s">
+      <c r="O89" s="6" t="s">
         <v>2531</v>
       </c>
-      <c r="P89" t="s">
-        <v>2563</v>
+      <c r="P89" s="6" t="s">
+        <v>2561</v>
       </c>
       <c r="S89" t="s">
         <v>702</v>
@@ -12911,12 +13251,15 @@
       <c r="K90" t="s">
         <v>996</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L90" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M90" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M90" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
       <c r="S90" t="s">
         <v>709</v>
       </c>
@@ -12964,18 +13307,19 @@
       <c r="K91" t="s">
         <v>1598</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L91" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="M91" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N91" t="s">
+      <c r="M91" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N91" s="6" t="s">
         <v>2529</v>
       </c>
-      <c r="O91" t="s">
+      <c r="O91" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P91" s="6"/>
       <c r="S91" t="s">
         <v>716</v>
       </c>
@@ -13023,12 +13367,15 @@
       <c r="K92" t="s">
         <v>2330</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L92" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
       <c r="S92" t="s">
         <v>721</v>
       </c>
@@ -13076,15 +13423,17 @@
       <c r="K93" t="s">
         <v>1567</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="6" t="s">
         <v>1568</v>
       </c>
-      <c r="M93" t="s">
-        <v>2564</v>
-      </c>
-      <c r="N93" t="s">
+      <c r="M93" s="6" t="s">
+        <v>2562</v>
+      </c>
+      <c r="N93" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
       <c r="S93" t="s">
         <v>727</v>
       </c>
@@ -13132,6 +13481,11 @@
       <c r="K94" t="s">
         <v>2042</v>
       </c>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
       <c r="Q94" t="s">
         <v>2384</v>
       </c>
@@ -13182,6 +13536,11 @@
       <c r="K95" t="s">
         <v>844</v>
       </c>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
       <c r="Q95" t="s">
         <v>1015</v>
       </c>
@@ -13232,6 +13591,11 @@
       <c r="K96" t="s">
         <v>1878</v>
       </c>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
       <c r="Q96" t="s">
         <v>1879</v>
       </c>
@@ -13282,12 +13646,15 @@
       <c r="K97" t="s">
         <v>437</v>
       </c>
-      <c r="L97" t="s">
+      <c r="L97" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" s="6" t="s">
         <v>2530</v>
       </c>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
       <c r="S97" t="s">
         <v>756</v>
       </c>
@@ -13335,15 +13702,17 @@
       <c r="K98" t="s">
         <v>385</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L98" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M98" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N98" t="s">
+      <c r="M98" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N98" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
       <c r="S98" t="s">
         <v>764</v>
       </c>
@@ -13391,15 +13760,17 @@
       <c r="K99" t="s">
         <v>1450</v>
       </c>
-      <c r="L99" t="s">
+      <c r="L99" s="6" t="s">
         <v>1451</v>
       </c>
-      <c r="M99" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N99" t="s">
+      <c r="M99" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N99" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
       <c r="S99" t="s">
         <v>771</v>
       </c>
@@ -13447,12 +13818,15 @@
       <c r="K100" t="s">
         <v>494</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L100" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
       <c r="S100" t="s">
         <v>777</v>
       </c>
@@ -13500,12 +13874,15 @@
       <c r="K101" t="s">
         <v>2343</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L101" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
       <c r="S101" t="s">
         <v>784</v>
       </c>
@@ -13553,6 +13930,11 @@
       <c r="K102" t="s">
         <v>45</v>
       </c>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
       <c r="Q102" t="s">
         <v>763</v>
       </c>
@@ -13603,18 +13985,19 @@
       <c r="K103" t="s">
         <v>212</v>
       </c>
-      <c r="L103" t="s">
+      <c r="L103" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="M103" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="M103" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N103" s="6" t="s">
         <v>2529</v>
       </c>
-      <c r="O103" t="s">
+      <c r="O103" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P103" s="6"/>
       <c r="S103" t="s">
         <v>801</v>
       </c>
@@ -13662,6 +14045,11 @@
       <c r="K104" t="s">
         <v>45</v>
       </c>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
       <c r="Q104" t="s">
         <v>94</v>
       </c>
@@ -13712,12 +14100,15 @@
       <c r="K105" t="s">
         <v>212</v>
       </c>
-      <c r="L105" t="s">
+      <c r="L105" s="6" t="s">
         <v>1232</v>
       </c>
-      <c r="M105" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M105" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
       <c r="S105" t="s">
         <v>816</v>
       </c>
@@ -13765,12 +14156,15 @@
       <c r="K106" t="s">
         <v>1379</v>
       </c>
-      <c r="L106" t="s">
+      <c r="L106" s="6" t="s">
         <v>1380</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
       <c r="S106" t="s">
         <v>822</v>
       </c>
@@ -13818,12 +14212,15 @@
       <c r="K107" t="s">
         <v>527</v>
       </c>
-      <c r="L107" t="s">
+      <c r="L107" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
       <c r="S107" t="s">
         <v>831</v>
       </c>
@@ -13871,12 +14268,15 @@
       <c r="K108" t="s">
         <v>1738</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
       <c r="S108" t="s">
         <v>839</v>
       </c>
@@ -13924,12 +14324,15 @@
       <c r="K109" t="s">
         <v>1306</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
       <c r="S109" t="s">
         <v>845</v>
       </c>
@@ -13977,12 +14380,15 @@
       <c r="K110" t="s">
         <v>527</v>
       </c>
-      <c r="L110" t="s">
+      <c r="L110" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
       <c r="S110" t="s">
         <v>853</v>
       </c>
@@ -14030,12 +14436,15 @@
       <c r="K111" t="s">
         <v>2337</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L111" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
       <c r="S111" t="s">
         <v>861</v>
       </c>
@@ -14083,18 +14492,19 @@
       <c r="K112" t="s">
         <v>152</v>
       </c>
-      <c r="L112" t="s">
+      <c r="L112" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N112" t="s">
+      <c r="N112" s="6" t="s">
         <v>2531</v>
       </c>
-      <c r="O112" t="s">
-        <v>2563</v>
-      </c>
+      <c r="O112" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="P112" s="6"/>
       <c r="S112" t="s">
         <v>866</v>
       </c>
@@ -14142,15 +14552,17 @@
       <c r="K113" t="s">
         <v>1670</v>
       </c>
-      <c r="L113" t="s">
+      <c r="L113" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="M113" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N113" t="s">
+      <c r="M113" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N113" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
       <c r="S113" t="s">
         <v>874</v>
       </c>
@@ -14198,12 +14610,17 @@
       <c r="K114" t="s">
         <v>1870</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L114" s="6" t="s">
         <v>1871</v>
       </c>
-      <c r="M114" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M114" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
       <c r="S114" t="s">
         <v>882</v>
       </c>
@@ -14251,6 +14668,11 @@
       <c r="K115" t="s">
         <v>45</v>
       </c>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
       <c r="Q115" t="s">
         <v>94</v>
       </c>
@@ -14301,9 +14723,13 @@
       <c r="K116" t="s">
         <v>473</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
       <c r="S116" t="s">
         <v>897</v>
       </c>
@@ -14351,6 +14777,11 @@
       <c r="K117" t="s">
         <v>1386</v>
       </c>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
       <c r="Q117" t="s">
         <v>1387</v>
       </c>
@@ -14401,6 +14832,11 @@
       <c r="K118" t="s">
         <v>399</v>
       </c>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
       <c r="S118" t="s">
         <v>910</v>
       </c>
@@ -14448,6 +14884,11 @@
       <c r="K119" t="s">
         <v>45</v>
       </c>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
       <c r="Q119" t="s">
         <v>715</v>
       </c>
@@ -14498,6 +14939,11 @@
       <c r="K120" t="s">
         <v>1386</v>
       </c>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
       <c r="Q120" t="s">
         <v>715</v>
       </c>
@@ -14548,6 +14994,11 @@
       <c r="K121" t="s">
         <v>45</v>
       </c>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
       <c r="Q121" t="s">
         <v>715</v>
       </c>
@@ -14598,6 +15049,11 @@
       <c r="K122" t="s">
         <v>1386</v>
       </c>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
       <c r="Q122" t="s">
         <v>715</v>
       </c>
@@ -14648,15 +15104,17 @@
       <c r="K123" t="s">
         <v>1507</v>
       </c>
-      <c r="L123" t="s">
+      <c r="L123" s="6" t="s">
         <v>1508</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N123" t="s">
+      <c r="N123" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
       <c r="S123" t="s">
         <v>941</v>
       </c>
@@ -14704,12 +15162,15 @@
       <c r="K124" t="s">
         <v>1663</v>
       </c>
-      <c r="L124" t="s">
+      <c r="L124" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
       <c r="S124" t="s">
         <v>947</v>
       </c>
@@ -14757,18 +15218,19 @@
       <c r="K125" t="s">
         <v>212</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N125" t="s">
+      <c r="N125" s="6" t="s">
         <v>2532</v>
       </c>
-      <c r="O125" t="s">
-        <v>2563</v>
-      </c>
+      <c r="O125" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="P125" s="6"/>
       <c r="S125" t="s">
         <v>951</v>
       </c>
@@ -14816,18 +15278,19 @@
       <c r="K126" t="s">
         <v>212</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N126" t="s">
+      <c r="N126" s="6" t="s">
         <v>2531</v>
       </c>
-      <c r="O126" t="s">
-        <v>2563</v>
-      </c>
+      <c r="O126" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="P126" s="6"/>
       <c r="S126" t="s">
         <v>958</v>
       </c>
@@ -14875,6 +15338,11 @@
       <c r="K127" t="s">
         <v>2042</v>
       </c>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
       <c r="Q127" t="s">
         <v>474</v>
       </c>
@@ -14925,6 +15393,11 @@
       <c r="K128" t="s">
         <v>45</v>
       </c>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
       <c r="Q128" t="s">
         <v>94</v>
       </c>
@@ -14975,6 +15448,11 @@
       <c r="K129" t="s">
         <v>45</v>
       </c>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
       <c r="Q129" t="s">
         <v>701</v>
       </c>
@@ -15025,6 +15503,11 @@
       <c r="K130" t="s">
         <v>25</v>
       </c>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
       <c r="Q130" t="s">
         <v>26</v>
       </c>
@@ -15075,6 +15558,11 @@
       <c r="K131" t="s">
         <v>67</v>
       </c>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
       <c r="S131" t="s">
         <v>997</v>
       </c>
@@ -15122,9 +15610,13 @@
       <c r="K132" t="s">
         <v>37</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L132" s="6" t="s">
         <v>830</v>
       </c>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
       <c r="S132" t="s">
         <v>1003</v>
       </c>
@@ -15172,9 +15664,13 @@
       <c r="K133" t="s">
         <v>2209</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L133" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
       <c r="S133" t="s">
         <v>1009</v>
       </c>
@@ -15222,15 +15718,17 @@
       <c r="K134" t="s">
         <v>429</v>
       </c>
-      <c r="L134" t="s">
+      <c r="L134" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N134" t="s">
-        <v>2563</v>
-      </c>
+      <c r="N134" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
       <c r="S134" t="s">
         <v>1016</v>
       </c>
@@ -15278,15 +15776,17 @@
       <c r="K135" t="s">
         <v>1627</v>
       </c>
-      <c r="L135" t="s">
+      <c r="L135" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M135" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N135" t="s">
+      <c r="M135" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N135" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
       <c r="S135" t="s">
         <v>1022</v>
       </c>
@@ -15334,6 +15834,11 @@
       <c r="K136" t="s">
         <v>1306</v>
       </c>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
       <c r="S136" t="s">
         <v>1030</v>
       </c>
@@ -15378,6 +15883,11 @@
       <c r="K137" t="s">
         <v>527</v>
       </c>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
       <c r="S137" t="s">
         <v>1036</v>
       </c>
@@ -15425,12 +15935,19 @@
       <c r="K138" t="s">
         <v>466</v>
       </c>
-      <c r="L138" t="s">
+      <c r="L138" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="M138" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M138" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="P138" s="6"/>
       <c r="S138" t="s">
         <v>1041</v>
       </c>
@@ -15478,12 +15995,15 @@
       <c r="K139" t="s">
         <v>1814</v>
       </c>
-      <c r="L139" t="s">
+      <c r="L139" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
       <c r="S139" t="s">
         <v>1048</v>
       </c>
@@ -15531,12 +16051,19 @@
       <c r="K140" t="s">
         <v>1821</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L140" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="M140" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M140" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P140" s="6"/>
       <c r="S140" t="s">
         <v>1055</v>
       </c>
@@ -15584,18 +16111,19 @@
       <c r="K141" t="s">
         <v>1655</v>
       </c>
-      <c r="L141" t="s">
+      <c r="L141" s="6" t="s">
         <v>1656</v>
       </c>
-      <c r="M141" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N141" t="s">
+      <c r="M141" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N141" s="6" t="s">
         <v>2529</v>
       </c>
-      <c r="O141" t="s">
+      <c r="O141" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="P141" s="6"/>
       <c r="S141" t="s">
         <v>1062</v>
       </c>
@@ -15643,15 +16171,17 @@
       <c r="K142" t="s">
         <v>685</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L142" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="M142" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N142" t="s">
+      <c r="M142" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N142" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
       <c r="S142" t="s">
         <v>1068</v>
       </c>
@@ -15699,15 +16229,17 @@
       <c r="K143" t="s">
         <v>957</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L143" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="M143" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N143" t="s">
+      <c r="M143" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N143" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
       <c r="S143" t="s">
         <v>1077</v>
       </c>
@@ -15755,12 +16287,19 @@
       <c r="K144" t="s">
         <v>2275</v>
       </c>
-      <c r="L144" t="s">
+      <c r="L144" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="M144" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M144" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="P144" s="6"/>
       <c r="S144" t="s">
         <v>1081</v>
       </c>
@@ -15808,6 +16347,11 @@
       <c r="K145" t="s">
         <v>268</v>
       </c>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
       <c r="Q145" t="s">
         <v>26</v>
       </c>
@@ -15858,12 +16402,15 @@
       <c r="K146" t="s">
         <v>1532</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L146" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
       <c r="S146" t="s">
         <v>1096</v>
       </c>
@@ -15911,12 +16458,17 @@
       <c r="K147" t="s">
         <v>1967</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="6" t="s">
         <v>1871</v>
       </c>
-      <c r="M147" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M147" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
       <c r="S147" t="s">
         <v>1102</v>
       </c>
@@ -15964,12 +16516,15 @@
       <c r="K148" t="s">
         <v>1928</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L148" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
       <c r="S148" t="s">
         <v>1109</v>
       </c>
@@ -16017,12 +16572,15 @@
       <c r="K149" t="s">
         <v>1409</v>
       </c>
-      <c r="L149" t="s">
+      <c r="L149" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
       <c r="S149" t="s">
         <v>1117</v>
       </c>
@@ -16070,12 +16628,19 @@
       <c r="K150" t="s">
         <v>2413</v>
       </c>
-      <c r="L150" t="s">
+      <c r="L150" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="M150" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M150" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O150" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="P150" s="6"/>
       <c r="S150" t="s">
         <v>1122</v>
       </c>
@@ -16123,15 +16688,17 @@
       <c r="K151" t="s">
         <v>1524</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L151" s="6" t="s">
         <v>1525</v>
       </c>
-      <c r="M151" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N151" t="s">
+      <c r="M151" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N151" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
       <c r="S151" t="s">
         <v>1130</v>
       </c>
@@ -16179,9 +16746,13 @@
       <c r="K152" t="s">
         <v>2429</v>
       </c>
-      <c r="L152" t="s">
+      <c r="L152" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
       <c r="S152" t="s">
         <v>1138</v>
       </c>
@@ -16229,12 +16800,15 @@
       <c r="K153" t="s">
         <v>293</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L153" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
       <c r="S153" t="s">
         <v>1146</v>
       </c>
@@ -16282,15 +16856,17 @@
       <c r="K154" t="s">
         <v>1700</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L154" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M154" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N154" t="s">
+      <c r="M154" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N154" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
       <c r="S154" t="s">
         <v>1150</v>
       </c>
@@ -16338,12 +16914,15 @@
       <c r="K155" t="s">
         <v>67</v>
       </c>
-      <c r="L155" t="s">
+      <c r="L155" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M155" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M155" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
       <c r="S155" t="s">
         <v>1158</v>
       </c>
@@ -16391,12 +16970,15 @@
       <c r="K156" t="s">
         <v>980</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L156" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
       <c r="S156" t="s">
         <v>1162</v>
       </c>
@@ -16435,6 +17017,11 @@
       <c r="K157" t="s">
         <v>527</v>
       </c>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
       <c r="S157" t="s">
         <v>1171</v>
       </c>
@@ -16482,12 +17069,15 @@
       <c r="K158" t="s">
         <v>152</v>
       </c>
-      <c r="L158" t="s">
+      <c r="L158" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
       <c r="S158" t="s">
         <v>1177</v>
       </c>
@@ -16535,12 +17125,15 @@
       <c r="K159" t="s">
         <v>466</v>
       </c>
-      <c r="L159" t="s">
+      <c r="L159" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
       <c r="S159" t="s">
         <v>1185</v>
       </c>
@@ -16588,12 +17181,15 @@
       <c r="K160" t="s">
         <v>2020</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L160" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
       <c r="S160" t="s">
         <v>1193</v>
       </c>
@@ -16641,12 +17237,15 @@
       <c r="K161" t="s">
         <v>1707</v>
       </c>
-      <c r="L161" t="s">
+      <c r="L161" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
       <c r="S161" t="s">
         <v>1199</v>
       </c>
@@ -16694,18 +17293,19 @@
       <c r="K162" t="s">
         <v>770</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L162" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="M162" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N162" t="s">
+      <c r="M162" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N162" s="6" t="s">
         <v>2529</v>
       </c>
-      <c r="O162" t="s">
+      <c r="O162" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P162" s="6"/>
       <c r="S162" t="s">
         <v>1206</v>
       </c>
@@ -16753,12 +17353,19 @@
       <c r="K163" t="s">
         <v>2289</v>
       </c>
-      <c r="L163" t="s">
+      <c r="L163" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="M163" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M163" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O163" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="P163" s="6"/>
       <c r="S163" t="s">
         <v>1210</v>
       </c>
@@ -16806,12 +17413,15 @@
       <c r="K164" t="s">
         <v>1087</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L164" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
       <c r="S164" t="s">
         <v>1217</v>
       </c>
@@ -16859,12 +17469,15 @@
       <c r="K165" t="s">
         <v>1145</v>
       </c>
-      <c r="L165" t="s">
+      <c r="L165" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
       <c r="S165" t="s">
         <v>1225</v>
       </c>
@@ -16912,12 +17525,15 @@
       <c r="K166" t="s">
         <v>1612</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L166" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
       <c r="S166" t="s">
         <v>1233</v>
       </c>
@@ -16965,18 +17581,19 @@
       <c r="K167" t="s">
         <v>1524</v>
       </c>
-      <c r="L167" t="s">
+      <c r="L167" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="M167" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N167" t="s">
+      <c r="M167" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N167" s="6" t="s">
         <v>2529</v>
       </c>
-      <c r="O167" t="s">
+      <c r="O167" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P167" s="6"/>
       <c r="S167" t="s">
         <v>1241</v>
       </c>
@@ -17024,12 +17641,15 @@
       <c r="K168" t="s">
         <v>359</v>
       </c>
-      <c r="L168" t="s">
+      <c r="L168" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168" s="6" t="s">
         <v>2526</v>
       </c>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
       <c r="S168" t="s">
         <v>1247</v>
       </c>
@@ -17077,18 +17697,19 @@
       <c r="K169" t="s">
         <v>359</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L169" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N169" t="s">
-        <v>2563</v>
-      </c>
-      <c r="O169" t="s">
+      <c r="N169" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O169" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P169" s="6"/>
       <c r="S169" t="s">
         <v>1254</v>
       </c>
@@ -17136,12 +17757,17 @@
       <c r="K170" t="s">
         <v>1808</v>
       </c>
-      <c r="L170" t="s">
+      <c r="L170" s="6" t="s">
         <v>1809</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="N170" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
       <c r="S170" t="s">
         <v>1260</v>
       </c>
@@ -17189,15 +17815,17 @@
       <c r="K171" t="s">
         <v>2172</v>
       </c>
-      <c r="L171" t="s">
+      <c r="L171" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="M171" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N171" t="s">
+      <c r="M171" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N171" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
       <c r="S171" t="s">
         <v>1266</v>
       </c>
@@ -17245,18 +17873,19 @@
       <c r="K172" t="s">
         <v>872</v>
       </c>
-      <c r="L172" t="s">
+      <c r="L172" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="M172" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N172" t="s">
+      <c r="M172" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N172" s="6" t="s">
         <v>2529</v>
       </c>
-      <c r="O172" t="s">
+      <c r="O172" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P172" s="6"/>
       <c r="S172" t="s">
         <v>1271</v>
       </c>
@@ -17304,12 +17933,15 @@
       <c r="K173" t="s">
         <v>2156</v>
       </c>
-      <c r="L173" t="s">
+      <c r="L173" s="6" t="s">
         <v>2157</v>
       </c>
-      <c r="M173" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M173" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
       <c r="S173" t="s">
         <v>1279</v>
       </c>
@@ -17357,12 +17989,15 @@
       <c r="K174" t="s">
         <v>1634</v>
       </c>
-      <c r="L174" t="s">
+      <c r="L174" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="M174" s="3" t="s">
-        <v>2560</v>
-      </c>
+      <c r="M174" s="6" t="s">
+        <v>2558</v>
+      </c>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
       <c r="S174" t="s">
         <v>1285</v>
       </c>
@@ -17410,12 +18045,15 @@
       <c r="K175" t="s">
         <v>1424</v>
       </c>
-      <c r="L175" t="s">
+      <c r="L175" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
       <c r="S175" t="s">
         <v>1293</v>
       </c>
@@ -17463,12 +18101,15 @@
       <c r="K176" t="s">
         <v>308</v>
       </c>
-      <c r="L176" t="s">
+      <c r="L176" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
       <c r="S176" t="s">
         <v>1300</v>
       </c>
@@ -17516,6 +18157,11 @@
       <c r="K177" t="s">
         <v>142</v>
       </c>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
       <c r="Q177" t="s">
         <v>187</v>
       </c>
@@ -17566,12 +18212,15 @@
       <c r="K178" t="s">
         <v>460</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L178" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
       <c r="S178" t="s">
         <v>1311</v>
       </c>
@@ -17619,18 +18268,19 @@
       <c r="K179" t="s">
         <v>308</v>
       </c>
-      <c r="L179" t="s">
+      <c r="L179" s="6" t="s">
         <v>1493</v>
       </c>
-      <c r="M179" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N179" t="s">
+      <c r="M179" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N179" s="6" t="s">
         <v>2532</v>
       </c>
-      <c r="O179" t="s">
+      <c r="O179" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="P179" s="6"/>
       <c r="S179" t="s">
         <v>1315</v>
       </c>
@@ -17678,15 +18328,17 @@
       <c r="K180" t="s">
         <v>1028</v>
       </c>
-      <c r="L180" t="s">
+      <c r="L180" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="M180" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N180" t="s">
+      <c r="M180" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N180" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
       <c r="S180" t="s">
         <v>1322</v>
       </c>
@@ -17734,12 +18386,15 @@
       <c r="K181" t="s">
         <v>308</v>
       </c>
-      <c r="L181" t="s">
+      <c r="L181" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M181" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M181" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
       <c r="S181" t="s">
         <v>1329</v>
       </c>
@@ -17787,6 +18442,11 @@
       <c r="K182" t="s">
         <v>1306</v>
       </c>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
       <c r="S182" t="s">
         <v>1337</v>
       </c>
@@ -17834,6 +18494,11 @@
       <c r="K183" t="s">
         <v>1306</v>
       </c>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
       <c r="S183" t="s">
         <v>1346</v>
       </c>
@@ -17881,15 +18546,17 @@
       <c r="K184" t="s">
         <v>2050</v>
       </c>
-      <c r="L184" t="s">
+      <c r="L184" s="6" t="s">
         <v>1895</v>
       </c>
-      <c r="M184" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N184" t="s">
+      <c r="M184" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N184" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
       <c r="S184" t="s">
         <v>1352</v>
       </c>
@@ -17937,15 +18604,17 @@
       <c r="K185" t="s">
         <v>429</v>
       </c>
-      <c r="L185" t="s">
+      <c r="L185" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N185" t="s">
+      <c r="N185" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
       <c r="S185" t="s">
         <v>1358</v>
       </c>
@@ -17993,9 +18662,13 @@
       <c r="K186" t="s">
         <v>1845</v>
       </c>
-      <c r="L186" t="s">
+      <c r="L186" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
       <c r="S186" t="s">
         <v>1366</v>
       </c>
@@ -18043,6 +18716,11 @@
       <c r="K187" t="s">
         <v>2034</v>
       </c>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
       <c r="Q187" t="s">
         <v>2134</v>
       </c>
@@ -18093,12 +18771,15 @@
       <c r="K188" t="s">
         <v>429</v>
       </c>
-      <c r="L188" t="s">
+      <c r="L188" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
       <c r="S188" t="s">
         <v>1381</v>
       </c>
@@ -18146,12 +18827,15 @@
       <c r="K189" t="s">
         <v>1075</v>
       </c>
-      <c r="L189" t="s">
+      <c r="L189" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
       <c r="S189" t="s">
         <v>1388</v>
       </c>
@@ -18199,12 +18883,15 @@
       <c r="K190" t="s">
         <v>1761</v>
       </c>
-      <c r="L190" t="s">
+      <c r="L190" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190" s="6" t="s">
         <v>2526</v>
       </c>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
       <c r="S190" t="s">
         <v>1396</v>
       </c>
@@ -18252,9 +18939,13 @@
       <c r="K191" t="s">
         <v>2247</v>
       </c>
-      <c r="L191" t="s">
+      <c r="L191" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
       <c r="S191" t="s">
         <v>1403</v>
       </c>
@@ -18302,12 +18993,15 @@
       <c r="K192" t="s">
         <v>67</v>
       </c>
-      <c r="L192" t="s">
+      <c r="L192" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
       <c r="S192" t="s">
         <v>1410</v>
       </c>
@@ -18355,6 +19049,11 @@
       <c r="K193" t="s">
         <v>67</v>
       </c>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
       <c r="Q193" t="s">
         <v>26</v>
       </c>
@@ -18405,12 +19104,15 @@
       <c r="K194" t="s">
         <v>429</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L194" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="M194" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M194" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
       <c r="S194" t="s">
         <v>1426</v>
       </c>
@@ -18458,12 +19160,15 @@
       <c r="K195" t="s">
         <v>815</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L195" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M195" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M195" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
       <c r="S195" t="s">
         <v>1431</v>
       </c>
@@ -18511,6 +19216,11 @@
       <c r="K196" t="s">
         <v>1386</v>
       </c>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
       <c r="Q196" t="s">
         <v>701</v>
       </c>
@@ -18561,12 +19271,15 @@
       <c r="K197" t="s">
         <v>1901</v>
       </c>
-      <c r="L197" t="s">
+      <c r="L197" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M197" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M197" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
       <c r="S197" t="s">
         <v>1444</v>
       </c>
@@ -18614,12 +19327,15 @@
       <c r="K198" t="s">
         <v>1901</v>
       </c>
-      <c r="L198" t="s">
+      <c r="L198" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M198" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M198" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
       <c r="S198" t="s">
         <v>1452</v>
       </c>
@@ -18667,6 +19383,11 @@
       <c r="K199" t="s">
         <v>844</v>
       </c>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
       <c r="Q199" t="s">
         <v>56</v>
       </c>
@@ -18717,15 +19438,17 @@
       <c r="K200" t="s">
         <v>791</v>
       </c>
-      <c r="L200" t="s">
+      <c r="L200" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N200" t="s">
-        <v>2563</v>
-      </c>
+      <c r="N200" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
       <c r="S200" t="s">
         <v>1465</v>
       </c>
@@ -18773,12 +19496,15 @@
       <c r="K201" t="s">
         <v>124</v>
       </c>
-      <c r="L201" t="s">
+      <c r="L201" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="M201" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M201" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
       <c r="S201" t="s">
         <v>1472</v>
       </c>
@@ -18826,6 +19552,11 @@
       <c r="K202" t="s">
         <v>234</v>
       </c>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
       <c r="Q202" t="s">
         <v>235</v>
       </c>
@@ -18876,12 +19607,15 @@
       <c r="K203" t="s">
         <v>1516</v>
       </c>
-      <c r="L203" t="s">
+      <c r="L203" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
       <c r="S203" t="s">
         <v>1486</v>
       </c>
@@ -18929,12 +19663,15 @@
       <c r="K204" t="s">
         <v>2369</v>
       </c>
-      <c r="L204" t="s">
+      <c r="L204" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
       <c r="S204" t="s">
         <v>1494</v>
       </c>
@@ -18982,12 +19719,15 @@
       <c r="K205" t="s">
         <v>2369</v>
       </c>
-      <c r="L205" t="s">
+      <c r="L205" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
       <c r="S205" t="s">
         <v>1501</v>
       </c>
@@ -19035,6 +19775,11 @@
       <c r="K206" t="s">
         <v>734</v>
       </c>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
       <c r="Q206" t="s">
         <v>474</v>
       </c>
@@ -19085,12 +19830,15 @@
       <c r="K207" t="s">
         <v>385</v>
       </c>
-      <c r="L207" t="s">
+      <c r="L207" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
       <c r="S207" t="s">
         <v>1517</v>
       </c>
@@ -19138,15 +19886,17 @@
       <c r="K208" t="s">
         <v>359</v>
       </c>
-      <c r="L208" t="s">
+      <c r="L208" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N208" t="s">
+      <c r="N208" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
       <c r="S208" t="s">
         <v>1526</v>
       </c>
@@ -19194,6 +19944,11 @@
       <c r="K209" t="s">
         <v>45</v>
       </c>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
       <c r="Q209" t="s">
         <v>94</v>
       </c>
@@ -19244,12 +19999,15 @@
       <c r="K210" t="s">
         <v>453</v>
       </c>
-      <c r="L210" t="s">
+      <c r="L210" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
       <c r="S210" t="s">
         <v>1539</v>
       </c>
@@ -19297,12 +20055,15 @@
       <c r="K211" t="s">
         <v>1752</v>
       </c>
-      <c r="L211" t="s">
+      <c r="L211" s="6" t="s">
         <v>1753</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
       <c r="S211" t="s">
         <v>1545</v>
       </c>
@@ -19350,12 +20111,17 @@
       <c r="K212" t="s">
         <v>1914</v>
       </c>
-      <c r="L212" t="s">
+      <c r="L212" s="6" t="s">
         <v>1887</v>
       </c>
-      <c r="M212" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M212" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N212" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
       <c r="S212" t="s">
         <v>1552</v>
       </c>
@@ -19403,12 +20169,17 @@
       <c r="K213" t="s">
         <v>2392</v>
       </c>
-      <c r="L213" t="s">
+      <c r="L213" s="6" t="s">
         <v>2393</v>
       </c>
-      <c r="M213" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M213" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N213" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
       <c r="S213" t="s">
         <v>1561</v>
       </c>
@@ -19456,6 +20227,11 @@
       <c r="K214" t="s">
         <v>1464</v>
       </c>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
       <c r="Q214" t="s">
         <v>2043</v>
       </c>
@@ -19506,12 +20282,15 @@
       <c r="K215" t="s">
         <v>2509</v>
       </c>
-      <c r="L215" t="s">
+      <c r="L215" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
       <c r="S215" t="s">
         <v>1576</v>
       </c>
@@ -19559,6 +20338,11 @@
       <c r="K216" t="s">
         <v>45</v>
       </c>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
       <c r="Q216" t="s">
         <v>94</v>
       </c>
@@ -19609,15 +20393,17 @@
       <c r="K217" t="s">
         <v>1982</v>
       </c>
-      <c r="L217" t="s">
+      <c r="L217" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="M217" s="3" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N217" t="s">
+      <c r="M217" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N217" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
       <c r="S217" t="s">
         <v>1591</v>
       </c>
@@ -19665,15 +20451,17 @@
       <c r="K218" t="s">
         <v>957</v>
       </c>
-      <c r="L218" t="s">
+      <c r="L218" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N218" t="s">
-        <v>2563</v>
-      </c>
+      <c r="N218" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
       <c r="S218" t="s">
         <v>1599</v>
       </c>
@@ -19721,15 +20509,17 @@
       <c r="K219" t="s">
         <v>37</v>
       </c>
-      <c r="L219" t="s">
+      <c r="L219" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="M219" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N219" t="s">
-        <v>2559</v>
-      </c>
+      <c r="M219" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N219" s="6" t="s">
+        <v>2565</v>
+      </c>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
       <c r="S219" t="s">
         <v>1606</v>
       </c>
@@ -19777,12 +20567,19 @@
       <c r="K220" t="s">
         <v>1598</v>
       </c>
-      <c r="L220" t="s">
+      <c r="L220" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="M220" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M220" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N220" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O220" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="P220" s="6"/>
       <c r="S220" t="s">
         <v>1613</v>
       </c>
@@ -19830,12 +20627,15 @@
       <c r="K221" t="s">
         <v>1583</v>
       </c>
-      <c r="L221" t="s">
+      <c r="L221" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
       <c r="S221" t="s">
         <v>1620</v>
       </c>
@@ -19883,6 +20683,11 @@
       <c r="K222" t="s">
         <v>212</v>
       </c>
+      <c r="L222" s="6"/>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
       <c r="S222" t="s">
         <v>1628</v>
       </c>
@@ -19930,6 +20735,11 @@
       <c r="K223" t="s">
         <v>844</v>
       </c>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
       <c r="Q223" t="s">
         <v>94</v>
       </c>
@@ -19980,12 +20790,15 @@
       <c r="K224" t="s">
         <v>1974</v>
       </c>
-      <c r="L224" t="s">
+      <c r="L224" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
       <c r="S224" t="s">
         <v>1640</v>
       </c>
@@ -20033,6 +20846,11 @@
       <c r="K225" t="s">
         <v>212</v>
       </c>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
       <c r="S225" t="s">
         <v>1646</v>
       </c>
@@ -20080,12 +20898,15 @@
       <c r="K226" t="s">
         <v>76</v>
       </c>
-      <c r="L226" t="s">
+      <c r="L226" s="6" t="s">
         <v>1232</v>
       </c>
-      <c r="M226" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M226" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
       <c r="S226" t="s">
         <v>1650</v>
       </c>
@@ -20133,6 +20954,11 @@
       <c r="K227" t="s">
         <v>45</v>
       </c>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
       <c r="Q227" t="s">
         <v>94</v>
       </c>
@@ -20183,12 +21009,15 @@
       <c r="K228" t="s">
         <v>2400</v>
       </c>
-      <c r="L228" t="s">
+      <c r="L228" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
       <c r="S228" t="s">
         <v>1664</v>
       </c>
@@ -20236,12 +21065,15 @@
       <c r="K229" t="s">
         <v>1590</v>
       </c>
-      <c r="L229" t="s">
+      <c r="L229" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
       <c r="S229" t="s">
         <v>1671</v>
       </c>
@@ -20289,12 +21121,19 @@
       <c r="K230" t="s">
         <v>1836</v>
       </c>
-      <c r="L230" t="s">
+      <c r="L230" s="6" t="s">
         <v>1837</v>
       </c>
-      <c r="M230" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M230" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N230" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O230" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P230" s="6"/>
       <c r="S230" t="s">
         <v>1678</v>
       </c>
@@ -20342,12 +21181,15 @@
       <c r="K231" t="s">
         <v>152</v>
       </c>
-      <c r="L231" t="s">
+      <c r="L231" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
       <c r="S231" t="s">
         <v>1686</v>
       </c>
@@ -20395,12 +21237,15 @@
       <c r="K232" t="s">
         <v>2187</v>
       </c>
-      <c r="L232" t="s">
+      <c r="L232" s="6" t="s">
         <v>2308</v>
       </c>
-      <c r="M232" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M232" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
       <c r="S232" t="s">
         <v>1693</v>
       </c>
@@ -20448,18 +21293,19 @@
       <c r="K233" t="s">
         <v>980</v>
       </c>
-      <c r="L233" t="s">
+      <c r="L233" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N233" t="s">
-        <v>2563</v>
-      </c>
-      <c r="O233" t="s">
+      <c r="N233" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O233" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="P233" s="6"/>
       <c r="Q233" t="s">
         <v>474</v>
       </c>
@@ -20510,15 +21356,17 @@
       <c r="K234" t="s">
         <v>2421</v>
       </c>
-      <c r="L234" t="s">
+      <c r="L234" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="M234" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N234" t="s">
+      <c r="M234" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N234" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
       <c r="S234" t="s">
         <v>1708</v>
       </c>
@@ -20566,15 +21414,17 @@
       <c r="K235" t="s">
         <v>2459</v>
       </c>
-      <c r="L235" t="s">
+      <c r="L235" s="6" t="s">
         <v>1895</v>
       </c>
-      <c r="M235" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N235" t="s">
+      <c r="M235" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N235" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
       <c r="S235" t="s">
         <v>1716</v>
       </c>
@@ -20622,15 +21472,17 @@
       <c r="K236" t="s">
         <v>429</v>
       </c>
-      <c r="L236" t="s">
+      <c r="L236" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="M236" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N236" t="s">
+      <c r="M236" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N236" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
       <c r="S236" t="s">
         <v>1723</v>
       </c>
@@ -20678,12 +21530,15 @@
       <c r="K237" t="s">
         <v>1722</v>
       </c>
-      <c r="L237" t="s">
+      <c r="L237" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
       <c r="S237" t="s">
         <v>1731</v>
       </c>
@@ -20731,6 +21586,11 @@
       <c r="K238" t="s">
         <v>67</v>
       </c>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
       <c r="S238" t="s">
         <v>1739</v>
       </c>
@@ -20778,6 +21638,11 @@
       <c r="K239" t="s">
         <v>2042</v>
       </c>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
       <c r="Q239" t="s">
         <v>2043</v>
       </c>
@@ -20828,12 +21693,15 @@
       <c r="K240" t="s">
         <v>37</v>
       </c>
-      <c r="L240" t="s">
+      <c r="L240" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M240" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
       <c r="S240" t="s">
         <v>1754</v>
       </c>
@@ -20881,12 +21749,15 @@
       <c r="K241" t="s">
         <v>1192</v>
       </c>
-      <c r="L241" t="s">
+      <c r="L241" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M241" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M241" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
       <c r="S241" t="s">
         <v>1762</v>
       </c>
@@ -20934,15 +21805,17 @@
       <c r="K242" t="s">
         <v>1336</v>
       </c>
-      <c r="L242" t="s">
+      <c r="L242" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="M242" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N242" t="s">
+      <c r="M242" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N242" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
       <c r="S242" t="s">
         <v>1770</v>
       </c>
@@ -20990,12 +21863,15 @@
       <c r="K243" t="s">
         <v>1116</v>
       </c>
-      <c r="L243" t="s">
+      <c r="L243" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M243" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M243" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
       <c r="S243" t="s">
         <v>1779</v>
       </c>
@@ -21043,9 +21919,13 @@
       <c r="K244" t="s">
         <v>620</v>
       </c>
-      <c r="L244" t="s">
+      <c r="L244" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
       <c r="S244" t="s">
         <v>1786</v>
       </c>
@@ -21093,12 +21973,15 @@
       <c r="K245" t="s">
         <v>429</v>
       </c>
-      <c r="L245" t="s">
+      <c r="L245" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
       <c r="S245" t="s">
         <v>1794</v>
       </c>
@@ -21146,6 +22029,11 @@
       <c r="K246" t="s">
         <v>67</v>
       </c>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
       <c r="S246" t="s">
         <v>1802</v>
       </c>
@@ -21193,12 +22081,15 @@
       <c r="K247" t="s">
         <v>2209</v>
       </c>
-      <c r="L247" t="s">
+      <c r="L247" s="6" t="s">
         <v>2437</v>
       </c>
-      <c r="M247" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M247" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
       <c r="S247" t="s">
         <v>1810</v>
       </c>
@@ -21246,6 +22137,11 @@
       <c r="K248" t="s">
         <v>45</v>
       </c>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
       <c r="Q248" t="s">
         <v>783</v>
       </c>
@@ -21296,9 +22192,13 @@
       <c r="K249" t="s">
         <v>965</v>
       </c>
-      <c r="L249" t="s">
+      <c r="L249" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
       <c r="S249" t="s">
         <v>1822</v>
       </c>
@@ -21346,6 +22246,11 @@
       <c r="K250" t="s">
         <v>2218</v>
       </c>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
       <c r="Q250" t="s">
         <v>474</v>
       </c>
@@ -21396,12 +22301,15 @@
       <c r="K251" t="s">
         <v>1278</v>
       </c>
-      <c r="L251" t="s">
+      <c r="L251" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M251" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M251" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
       <c r="S251" t="s">
         <v>1838</v>
       </c>
@@ -21449,12 +22357,19 @@
       <c r="K252" t="s">
         <v>2254</v>
       </c>
-      <c r="L252" t="s">
+      <c r="L252" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="M252" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M252" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N252" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O252" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="P252" s="6"/>
       <c r="S252" t="s">
         <v>1846</v>
       </c>
@@ -21502,6 +22417,11 @@
       <c r="K253" t="s">
         <v>1306</v>
       </c>
+      <c r="L253" s="6"/>
+      <c r="M253" s="6"/>
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
       <c r="S253" t="s">
         <v>1853</v>
       </c>
@@ -21549,6 +22469,11 @@
       <c r="K254" t="s">
         <v>1306</v>
       </c>
+      <c r="L254" s="6"/>
+      <c r="M254" s="6"/>
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
       <c r="S254" t="s">
         <v>1860</v>
       </c>
@@ -21596,6 +22521,11 @@
       <c r="K255" t="s">
         <v>67</v>
       </c>
+      <c r="L255" s="6"/>
+      <c r="M255" s="6"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
       <c r="S255" t="s">
         <v>1864</v>
       </c>
@@ -21643,6 +22573,11 @@
       <c r="K256" t="s">
         <v>1306</v>
       </c>
+      <c r="L256" s="6"/>
+      <c r="M256" s="6"/>
+      <c r="N256" s="6"/>
+      <c r="O256" s="6"/>
+      <c r="P256" s="6"/>
       <c r="S256" t="s">
         <v>1872</v>
       </c>
@@ -21690,12 +22625,15 @@
       <c r="K257" t="s">
         <v>2444</v>
       </c>
-      <c r="L257" t="s">
+      <c r="L257" s="6" t="s">
         <v>2445</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+      <c r="P257" s="6"/>
       <c r="S257" t="s">
         <v>1880</v>
       </c>
@@ -21743,12 +22681,15 @@
       <c r="K258" t="s">
         <v>2005</v>
       </c>
-      <c r="L258" t="s">
+      <c r="L258" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
       <c r="S258" t="s">
         <v>1888</v>
       </c>
@@ -21796,6 +22737,11 @@
       <c r="K259" t="s">
         <v>84</v>
       </c>
+      <c r="L259" s="6"/>
+      <c r="M259" s="6"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
       <c r="Q259" t="s">
         <v>26</v>
       </c>
@@ -21846,6 +22792,11 @@
       <c r="K260" t="s">
         <v>708</v>
       </c>
+      <c r="L260" s="6"/>
+      <c r="M260" s="6"/>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
       <c r="Q260" t="s">
         <v>26</v>
       </c>
@@ -21896,6 +22847,11 @@
       <c r="K261" t="s">
         <v>45</v>
       </c>
+      <c r="L261" s="6"/>
+      <c r="M261" s="6"/>
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+      <c r="P261" s="6"/>
       <c r="Q261" t="s">
         <v>421</v>
       </c>
@@ -21946,6 +22902,11 @@
       <c r="K262" t="s">
         <v>67</v>
       </c>
+      <c r="L262" s="6"/>
+      <c r="M262" s="6"/>
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
       <c r="S262" t="s">
         <v>1915</v>
       </c>
@@ -21993,15 +22954,17 @@
       <c r="K263" t="s">
         <v>1372</v>
       </c>
-      <c r="L263" t="s">
+      <c r="L263" s="6" t="s">
         <v>1029</v>
       </c>
-      <c r="M263" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N263" t="s">
+      <c r="M263" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N263" s="6" t="s">
         <v>2532</v>
       </c>
+      <c r="O263" s="6"/>
+      <c r="P263" s="6"/>
       <c r="S263" t="s">
         <v>1922</v>
       </c>
@@ -22049,15 +23012,17 @@
       <c r="K264" t="s">
         <v>2141</v>
       </c>
-      <c r="L264" t="s">
+      <c r="L264" s="6" t="s">
         <v>2142</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264" s="6" t="s">
         <v>2533</v>
       </c>
-      <c r="N264" s="3" t="s">
+      <c r="N264" s="6" t="s">
         <v>2526</v>
       </c>
+      <c r="O264" s="6"/>
+      <c r="P264" s="6"/>
       <c r="S264" t="s">
         <v>1929</v>
       </c>
@@ -22105,12 +23070,15 @@
       <c r="K265" t="s">
         <v>2201</v>
       </c>
-      <c r="L265" t="s">
+      <c r="L265" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M265" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M265" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
       <c r="S265" t="s">
         <v>1937</v>
       </c>
@@ -22158,12 +23126,15 @@
       <c r="K266" t="s">
         <v>2057</v>
       </c>
-      <c r="L266" t="s">
+      <c r="L266" s="6" t="s">
         <v>2058</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
       <c r="S266" t="s">
         <v>1943</v>
       </c>
@@ -22211,6 +23182,11 @@
       <c r="K267" t="s">
         <v>1715</v>
       </c>
+      <c r="L267" s="6"/>
+      <c r="M267" s="6"/>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
       <c r="Q267" t="s">
         <v>1345</v>
       </c>
@@ -22261,12 +23237,19 @@
       <c r="K268" t="s">
         <v>2012</v>
       </c>
-      <c r="L268" t="s">
+      <c r="L268" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="M268" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M268" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N268" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O268" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="P268" s="6"/>
       <c r="S268" t="s">
         <v>1951</v>
       </c>
@@ -22314,12 +23297,15 @@
       <c r="K269" t="s">
         <v>212</v>
       </c>
-      <c r="L269" t="s">
+      <c r="L269" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
       <c r="S269" t="s">
         <v>1959</v>
       </c>
@@ -22367,6 +23353,11 @@
       <c r="K270" t="s">
         <v>37</v>
       </c>
+      <c r="L270" s="6"/>
+      <c r="M270" s="6"/>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
       <c r="Q270" t="s">
         <v>94</v>
       </c>
@@ -22417,12 +23408,15 @@
       <c r="K271" t="s">
         <v>2261</v>
       </c>
-      <c r="L271" t="s">
+      <c r="L271" s="6" t="s">
         <v>2058</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
       <c r="S271" t="s">
         <v>1975</v>
       </c>
@@ -22470,12 +23464,15 @@
       <c r="K272" t="s">
         <v>996</v>
       </c>
-      <c r="L272" t="s">
+      <c r="L272" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
       <c r="S272" t="s">
         <v>1983</v>
       </c>
@@ -22523,12 +23520,19 @@
       <c r="K273" t="s">
         <v>2362</v>
       </c>
-      <c r="L273" t="s">
+      <c r="L273" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="M273" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M273" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N273" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O273" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="P273" s="6"/>
       <c r="S273" t="s">
         <v>1990</v>
       </c>
@@ -22576,6 +23580,11 @@
       <c r="K274" t="s">
         <v>2106</v>
       </c>
+      <c r="L274" s="6"/>
+      <c r="M274" s="6"/>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
       <c r="Q274" t="s">
         <v>474</v>
       </c>
@@ -22626,15 +23635,17 @@
       <c r="K275" t="s">
         <v>282</v>
       </c>
-      <c r="L275" t="s">
+      <c r="L275" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="M275" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N275" t="s">
+      <c r="M275" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N275" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
       <c r="S275" t="s">
         <v>2006</v>
       </c>
@@ -22682,15 +23693,17 @@
       <c r="K276" t="s">
         <v>488</v>
       </c>
-      <c r="L276" t="s">
+      <c r="L276" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="M276" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N276" t="s">
+      <c r="M276" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N276" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
       <c r="S276" t="s">
         <v>2013</v>
       </c>
@@ -22738,12 +23751,15 @@
       <c r="K277" t="s">
         <v>518</v>
       </c>
-      <c r="L277" t="s">
+      <c r="L277" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="M277" s="3" t="s">
-        <v>2560</v>
-      </c>
+      <c r="M277" s="6" t="s">
+        <v>2558</v>
+      </c>
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
       <c r="S277" t="s">
         <v>2021</v>
       </c>
@@ -22791,12 +23807,15 @@
       <c r="K278" t="s">
         <v>508</v>
       </c>
-      <c r="L278" t="s">
+      <c r="L278" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
       <c r="S278" t="s">
         <v>2027</v>
       </c>
@@ -22844,6 +23863,11 @@
       <c r="K279" t="s">
         <v>1464</v>
       </c>
+      <c r="L279" s="6"/>
+      <c r="M279" s="6"/>
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
       <c r="Q279" t="s">
         <v>1685</v>
       </c>
@@ -22894,12 +23918,15 @@
       <c r="K280" t="s">
         <v>1828</v>
       </c>
-      <c r="L280" t="s">
+      <c r="L280" s="6" t="s">
         <v>1829</v>
       </c>
-      <c r="M280" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M280" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
       <c r="S280" t="s">
         <v>2044</v>
       </c>
@@ -22947,12 +23974,15 @@
       <c r="K281" t="s">
         <v>1958</v>
       </c>
-      <c r="L281" t="s">
+      <c r="L281" s="6" t="s">
         <v>1887</v>
       </c>
-      <c r="M281" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M281" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
       <c r="S281" t="s">
         <v>2051</v>
       </c>
@@ -23000,12 +24030,15 @@
       <c r="K282" t="s">
         <v>1365</v>
       </c>
-      <c r="L282" t="s">
+      <c r="L282" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M282" t="s">
+      <c r="M282" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
       <c r="S282" t="s">
         <v>2059</v>
       </c>
@@ -23053,12 +24086,15 @@
       <c r="K283" t="s">
         <v>480</v>
       </c>
-      <c r="L283" t="s">
+      <c r="L283" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
       <c r="S283" t="s">
         <v>2066</v>
       </c>
@@ -23106,15 +24142,17 @@
       <c r="K284" t="s">
         <v>1216</v>
       </c>
-      <c r="L284" t="s">
+      <c r="L284" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N284" t="s">
-        <v>2563</v>
-      </c>
+      <c r="N284" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
       <c r="S284" t="s">
         <v>2073</v>
       </c>
@@ -23162,12 +24200,15 @@
       <c r="K285" t="s">
         <v>1598</v>
       </c>
-      <c r="L285" t="s">
+      <c r="L285" s="6" t="s">
         <v>1785</v>
       </c>
-      <c r="M285" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M285" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
       <c r="S285" t="s">
         <v>2081</v>
       </c>
@@ -23215,12 +24256,15 @@
       <c r="K286" t="s">
         <v>2467</v>
       </c>
-      <c r="L286" t="s">
+      <c r="L286" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N286" s="6"/>
+      <c r="O286" s="6"/>
+      <c r="P286" s="6"/>
       <c r="S286" t="s">
         <v>2087</v>
       </c>
@@ -23268,6 +24312,11 @@
       <c r="K287" t="s">
         <v>1464</v>
       </c>
+      <c r="L287" s="6"/>
+      <c r="M287" s="6"/>
+      <c r="N287" s="6"/>
+      <c r="O287" s="6"/>
+      <c r="P287" s="6"/>
       <c r="Q287" t="s">
         <v>474</v>
       </c>
@@ -23318,6 +24367,11 @@
       <c r="K288" t="s">
         <v>1464</v>
       </c>
+      <c r="L288" s="6"/>
+      <c r="M288" s="6"/>
+      <c r="N288" s="6"/>
+      <c r="O288" s="6"/>
+      <c r="P288" s="6"/>
       <c r="Q288" t="s">
         <v>474</v>
       </c>
@@ -23368,12 +24422,15 @@
       <c r="K289" t="s">
         <v>501</v>
       </c>
-      <c r="L289" t="s">
+      <c r="L289" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M289" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M289" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N289" s="6"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="6"/>
       <c r="S289" t="s">
         <v>2107</v>
       </c>
@@ -23421,6 +24478,11 @@
       <c r="K290" t="s">
         <v>212</v>
       </c>
+      <c r="L290" s="6"/>
+      <c r="M290" s="6"/>
+      <c r="N290" s="6"/>
+      <c r="O290" s="6"/>
+      <c r="P290" s="6"/>
       <c r="S290" t="s">
         <v>2115</v>
       </c>
@@ -23468,6 +24530,11 @@
       <c r="K291" t="s">
         <v>142</v>
       </c>
+      <c r="L291" s="6"/>
+      <c r="M291" s="6"/>
+      <c r="N291" s="6"/>
+      <c r="O291" s="6"/>
+      <c r="P291" s="6"/>
       <c r="Q291" t="s">
         <v>377</v>
       </c>
@@ -23518,12 +24585,17 @@
       <c r="K292" t="s">
         <v>1989</v>
       </c>
-      <c r="L292" t="s">
+      <c r="L292" s="6" t="s">
         <v>1871</v>
       </c>
-      <c r="M292" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M292" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N292" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O292" s="6"/>
+      <c r="P292" s="6"/>
       <c r="S292" t="s">
         <v>2128</v>
       </c>
@@ -23571,6 +24643,11 @@
       <c r="K293" t="s">
         <v>1344</v>
       </c>
+      <c r="L293" s="6"/>
+      <c r="M293" s="6"/>
+      <c r="N293" s="6"/>
+      <c r="O293" s="6"/>
+      <c r="P293" s="6"/>
       <c r="Q293" t="s">
         <v>1345</v>
       </c>
@@ -23621,6 +24698,11 @@
       <c r="K294" t="s">
         <v>37</v>
       </c>
+      <c r="L294" s="6"/>
+      <c r="M294" s="6"/>
+      <c r="N294" s="6"/>
+      <c r="O294" s="6"/>
+      <c r="P294" s="6"/>
       <c r="Q294" t="s">
         <v>26</v>
       </c>
@@ -23671,6 +24753,11 @@
       <c r="K295" t="s">
         <v>45</v>
       </c>
+      <c r="L295" s="6"/>
+      <c r="M295" s="6"/>
+      <c r="N295" s="6"/>
+      <c r="O295" s="6"/>
+      <c r="P295" s="6"/>
       <c r="Q295" t="s">
         <v>94</v>
       </c>
@@ -23721,12 +24808,17 @@
       <c r="K296" t="s">
         <v>2267</v>
       </c>
-      <c r="L296" t="s">
+      <c r="L296" s="6" t="s">
         <v>1829</v>
       </c>
-      <c r="M296" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M296" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N296" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O296" s="6"/>
+      <c r="P296" s="6"/>
       <c r="S296" t="s">
         <v>2158</v>
       </c>
@@ -23774,12 +24866,19 @@
       <c r="K297" t="s">
         <v>2316</v>
       </c>
-      <c r="L297" t="s">
+      <c r="L297" s="6" t="s">
         <v>2317</v>
       </c>
-      <c r="M297" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M297" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N297" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="O297" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="P297" s="6"/>
       <c r="S297" t="s">
         <v>2166</v>
       </c>
@@ -23827,12 +24926,15 @@
       <c r="K298" t="s">
         <v>1240</v>
       </c>
-      <c r="L298" t="s">
+      <c r="L298" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N298" s="6"/>
+      <c r="O298" s="6"/>
+      <c r="P298" s="6"/>
       <c r="S298" t="s">
         <v>2173</v>
       </c>
@@ -23880,6 +24982,11 @@
       <c r="K299" t="s">
         <v>837</v>
       </c>
+      <c r="L299" s="6"/>
+      <c r="M299" s="6"/>
+      <c r="N299" s="6"/>
+      <c r="O299" s="6"/>
+      <c r="P299" s="6"/>
       <c r="Q299" t="s">
         <v>838</v>
       </c>
@@ -23930,6 +25037,11 @@
       <c r="K300" t="s">
         <v>2020</v>
       </c>
+      <c r="L300" s="6"/>
+      <c r="M300" s="6"/>
+      <c r="N300" s="6"/>
+      <c r="O300" s="6"/>
+      <c r="P300" s="6"/>
       <c r="Q300" t="s">
         <v>2026</v>
       </c>
@@ -23980,9 +25092,13 @@
       <c r="K301" t="s">
         <v>76</v>
       </c>
-      <c r="L301" t="s">
+      <c r="L301" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="M301" s="6"/>
+      <c r="N301" s="6"/>
+      <c r="O301" s="6"/>
+      <c r="P301" s="6"/>
       <c r="S301" t="s">
         <v>2194</v>
       </c>
@@ -24030,15 +25146,17 @@
       <c r="K302" t="s">
         <v>2149</v>
       </c>
-      <c r="L302" t="s">
+      <c r="L302" s="6" t="s">
         <v>1895</v>
       </c>
-      <c r="M302" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N302" t="s">
+      <c r="M302" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N302" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="O302" s="6"/>
+      <c r="P302" s="6"/>
       <c r="S302" t="s">
         <v>2202</v>
       </c>
@@ -24086,12 +25204,15 @@
       <c r="K303" t="s">
         <v>2482</v>
       </c>
-      <c r="L303" t="s">
+      <c r="L303" s="6" t="s">
         <v>1753</v>
       </c>
-      <c r="M303" t="s">
+      <c r="M303" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="N303" s="6"/>
+      <c r="O303" s="6"/>
+      <c r="P303" s="6"/>
       <c r="S303" t="s">
         <v>2211</v>
       </c>
@@ -24139,9 +25260,13 @@
       <c r="K304" t="s">
         <v>429</v>
       </c>
-      <c r="L304" t="s">
+      <c r="L304" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="M304" s="6"/>
+      <c r="N304" s="6"/>
+      <c r="O304" s="6"/>
+      <c r="P304" s="6"/>
       <c r="S304" t="s">
         <v>2219</v>
       </c>
@@ -24189,18 +25314,19 @@
       <c r="K305" t="s">
         <v>2489</v>
       </c>
-      <c r="L305" t="s">
+      <c r="L305" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="M305" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N305" s="3" t="s">
+      <c r="M305" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N305" s="6" t="s">
         <v>2526</v>
       </c>
-      <c r="O305" s="3" t="s">
+      <c r="O305" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="P305" s="6"/>
       <c r="S305" s="3" t="s">
         <v>2490</v>
       </c>
@@ -24248,15 +25374,17 @@
       <c r="K306" t="s">
         <v>562</v>
       </c>
-      <c r="L306" t="s">
+      <c r="L306" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="M306" t="s">
+      <c r="M306" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N306" t="s">
+      <c r="N306" s="6" t="s">
         <v>2531</v>
       </c>
+      <c r="O306" s="6"/>
+      <c r="P306" s="6"/>
       <c r="S306" t="s">
         <v>2233</v>
       </c>
@@ -24304,6 +25432,11 @@
       <c r="K307" t="s">
         <v>45</v>
       </c>
+      <c r="L307" s="6"/>
+      <c r="M307" s="6"/>
+      <c r="N307" s="6"/>
+      <c r="O307" s="6"/>
+      <c r="P307" s="6"/>
       <c r="Q307" t="s">
         <v>56</v>
       </c>
@@ -24354,6 +25487,11 @@
       <c r="K308" t="s">
         <v>142</v>
       </c>
+      <c r="L308" s="6"/>
+      <c r="M308" s="6"/>
+      <c r="N308" s="6"/>
+      <c r="O308" s="6"/>
+      <c r="P308" s="6"/>
       <c r="Q308" t="s">
         <v>474</v>
       </c>
@@ -24404,15 +25542,17 @@
       <c r="K309" t="s">
         <v>1075</v>
       </c>
-      <c r="L309" t="s">
+      <c r="L309" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="M309" t="s">
+      <c r="M309" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N309" t="s">
-        <v>2563</v>
-      </c>
+      <c r="N309" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="O309" s="6"/>
+      <c r="P309" s="6"/>
       <c r="S309" t="s">
         <v>2255</v>
       </c>
@@ -24460,12 +25600,19 @@
       <c r="K310" t="s">
         <v>1942</v>
       </c>
-      <c r="L310" t="s">
+      <c r="L310" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="M310" t="s">
-        <v>2562</v>
-      </c>
+      <c r="M310" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N310" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O310" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="P310" s="6"/>
       <c r="S310" t="s">
         <v>2268</v>
       </c>
@@ -24513,12 +25660,19 @@
       <c r="K311" t="s">
         <v>1801</v>
       </c>
-      <c r="L311" t="s">
-        <v>454</v>
-      </c>
-      <c r="M311" t="s">
+      <c r="L311" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="M311" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N311" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="O311" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="P311" s="6"/>
       <c r="S311" t="s">
         <v>2276</v>
       </c>
@@ -24566,15 +25720,15 @@
       <c r="K312" t="s">
         <v>1560</v>
       </c>
-      <c r="L312" t="s">
-        <v>1451</v>
-      </c>
-      <c r="M312" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N312" t="s">
-        <v>2529</v>
-      </c>
+      <c r="L312" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="M312" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="N312" s="6"/>
+      <c r="O312" s="6"/>
+      <c r="P312" s="6"/>
       <c r="S312" t="s">
         <v>2282</v>
       </c>
@@ -24622,6 +25776,17 @@
       <c r="K313" t="s">
         <v>45</v>
       </c>
+      <c r="L313" s="6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="M313" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N313" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="O313" s="6"/>
+      <c r="P313" s="6"/>
       <c r="Q313" t="s">
         <v>671</v>
       </c>
@@ -24672,12 +25837,11 @@
       <c r="K314" t="s">
         <v>249</v>
       </c>
-      <c r="L314" t="s">
-        <v>94</v>
-      </c>
-      <c r="M314" t="s">
-        <v>2526</v>
-      </c>
+      <c r="L314" s="6"/>
+      <c r="M314" s="6"/>
+      <c r="N314" s="6"/>
+      <c r="O314" s="6"/>
+      <c r="P314" s="6"/>
       <c r="S314" t="s">
         <v>2296</v>
       </c>
@@ -24725,15 +25889,15 @@
       <c r="K315" t="s">
         <v>1223</v>
       </c>
-      <c r="L315" t="s">
-        <v>1224</v>
-      </c>
-      <c r="M315" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N315" t="s">
-        <v>2532</v>
-      </c>
+      <c r="L315" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M315" s="6" t="s">
+        <v>2526</v>
+      </c>
+      <c r="N315" s="6"/>
+      <c r="O315" s="6"/>
+      <c r="P315" s="6"/>
       <c r="S315" t="s">
         <v>2303</v>
       </c>
@@ -24781,12 +25945,17 @@
       <c r="K316" t="s">
         <v>2114</v>
       </c>
-      <c r="L316" t="s">
-        <v>163</v>
-      </c>
-      <c r="M316" t="s">
-        <v>2562</v>
-      </c>
+      <c r="L316" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="M316" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N316" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O316" s="6"/>
+      <c r="P316" s="6"/>
       <c r="S316" t="s">
         <v>2309</v>
       </c>
@@ -24834,12 +26003,15 @@
       <c r="K317" t="s">
         <v>860</v>
       </c>
-      <c r="L317" t="s">
-        <v>153</v>
-      </c>
-      <c r="M317" t="s">
-        <v>2523</v>
-      </c>
+      <c r="L317" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M317" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N317" s="6"/>
+      <c r="O317" s="6"/>
+      <c r="P317" s="6"/>
       <c r="S317" t="s">
         <v>2318</v>
       </c>
@@ -24887,12 +26059,15 @@
       <c r="K318" t="s">
         <v>2503</v>
       </c>
-      <c r="L318" t="s">
-        <v>1753</v>
-      </c>
-      <c r="M318" t="s">
-        <v>2525</v>
-      </c>
+      <c r="L318" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M318" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="N318" s="6"/>
+      <c r="O318" s="6"/>
+      <c r="P318" s="6"/>
       <c r="S318" t="s">
         <v>2325</v>
       </c>
@@ -24940,12 +26115,15 @@
       <c r="K319" t="s">
         <v>1997</v>
       </c>
-      <c r="L319" t="s">
-        <v>454</v>
-      </c>
-      <c r="M319" t="s">
-        <v>2523</v>
-      </c>
+      <c r="L319" s="6" t="s">
+        <v>1753</v>
+      </c>
+      <c r="M319" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="N319" s="6"/>
+      <c r="O319" s="6"/>
+      <c r="P319" s="6"/>
       <c r="S319" t="s">
         <v>2331</v>
       </c>
@@ -24993,15 +26171,15 @@
       <c r="K320" t="s">
         <v>2065</v>
       </c>
-      <c r="L320" t="s">
-        <v>489</v>
-      </c>
-      <c r="M320" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N320" t="s">
+      <c r="L320" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="M320" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N320" s="6"/>
+      <c r="O320" s="6"/>
+      <c r="P320" s="6"/>
       <c r="S320" t="s">
         <v>2338</v>
       </c>
@@ -25049,18 +26227,17 @@
       <c r="K321" t="s">
         <v>965</v>
       </c>
-      <c r="L321" t="s">
-        <v>586</v>
-      </c>
-      <c r="M321" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N321" t="s">
-        <v>2529</v>
-      </c>
-      <c r="O321" t="s">
-        <v>2531</v>
-      </c>
+      <c r="L321" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="M321" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N321" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="O321" s="6"/>
+      <c r="P321" s="6"/>
       <c r="S321" t="s">
         <v>2344</v>
       </c>
@@ -25108,6 +26285,19 @@
       <c r="K322" t="s">
         <v>1729</v>
       </c>
+      <c r="L322" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="M322" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N322" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="O322" s="6" t="s">
+        <v>2531</v>
+      </c>
+      <c r="P322" s="6"/>
       <c r="Q322" t="s">
         <v>1730</v>
       </c>
@@ -25158,6 +26348,11 @@
       <c r="K323" t="s">
         <v>45</v>
       </c>
+      <c r="L323" s="6"/>
+      <c r="M323" s="6"/>
+      <c r="N323" s="6"/>
+      <c r="O323" s="6"/>
+      <c r="P323" s="6"/>
       <c r="Q323" t="s">
         <v>413</v>
       </c>
@@ -25208,6 +26403,11 @@
       <c r="K324" t="s">
         <v>45</v>
       </c>
+      <c r="L324" s="6"/>
+      <c r="M324" s="6"/>
+      <c r="N324" s="6"/>
+      <c r="O324" s="6"/>
+      <c r="P324" s="6"/>
       <c r="Q324" t="s">
         <v>413</v>
       </c>
@@ -25258,12 +26458,11 @@
       <c r="K325" t="s">
         <v>579</v>
       </c>
-      <c r="L325" t="s">
-        <v>153</v>
-      </c>
-      <c r="M325" t="s">
-        <v>2523</v>
-      </c>
+      <c r="L325" s="6"/>
+      <c r="M325" s="6"/>
+      <c r="N325" s="6"/>
+      <c r="O325" s="6"/>
+      <c r="P325" s="6"/>
       <c r="S325" t="s">
         <v>2370</v>
       </c>
@@ -25311,12 +26510,15 @@
       <c r="K326" t="s">
         <v>385</v>
       </c>
-      <c r="L326" t="s">
-        <v>1157</v>
-      </c>
-      <c r="M326" t="s">
-        <v>2562</v>
-      </c>
+      <c r="L326" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M326" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="N326" s="6"/>
+      <c r="O326" s="6"/>
+      <c r="P326" s="6"/>
       <c r="S326" t="s">
         <v>2370</v>
       </c>
@@ -25364,15 +26566,15 @@
       <c r="K327" t="s">
         <v>318</v>
       </c>
-      <c r="L327" t="s">
-        <v>319</v>
-      </c>
-      <c r="M327" t="s">
-        <v>2523</v>
-      </c>
-      <c r="N327" t="s">
-        <v>2563</v>
-      </c>
+      <c r="L327" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M327" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N327" s="6"/>
+      <c r="O327" s="6"/>
+      <c r="P327" s="6"/>
       <c r="S327" t="s">
         <v>2378</v>
       </c>
@@ -25420,12 +26622,17 @@
       <c r="K328" t="s">
         <v>335</v>
       </c>
-      <c r="L328" t="s">
-        <v>26</v>
-      </c>
-      <c r="M328" t="s">
+      <c r="L328" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M328" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N328" s="6" t="s">
+        <v>2566</v>
+      </c>
+      <c r="O328" s="6"/>
+      <c r="P328" s="6"/>
       <c r="S328" t="s">
         <v>2385</v>
       </c>
@@ -25473,12 +26680,15 @@
       <c r="K329" t="s">
         <v>124</v>
       </c>
-      <c r="L329" t="s">
-        <v>634</v>
-      </c>
-      <c r="M329" t="s">
+      <c r="L329" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M329" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N329" s="6"/>
+      <c r="O329" s="6"/>
+      <c r="P329" s="6"/>
       <c r="S329" t="s">
         <v>2394</v>
       </c>
@@ -25526,6 +26736,15 @@
       <c r="K330" t="s">
         <v>1464</v>
       </c>
+      <c r="L330" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="M330" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="N330" s="6"/>
+      <c r="O330" s="6"/>
+      <c r="P330" s="6"/>
       <c r="Q330" t="s">
         <v>54</v>
       </c>
@@ -25576,6 +26795,11 @@
       <c r="K331" t="s">
         <v>2042</v>
       </c>
+      <c r="L331" s="6"/>
+      <c r="M331" s="6"/>
+      <c r="N331" s="6"/>
+      <c r="O331" s="6"/>
+      <c r="P331" s="6"/>
       <c r="Q331" t="s">
         <v>474</v>
       </c>
@@ -25626,6 +26850,11 @@
       <c r="K332" t="s">
         <v>37</v>
       </c>
+      <c r="L332" s="6"/>
+      <c r="M332" s="6"/>
+      <c r="N332" s="6"/>
+      <c r="O332" s="6"/>
+      <c r="P332" s="6"/>
       <c r="Q332" t="s">
         <v>26</v>
       </c>
@@ -25676,6 +26905,11 @@
       <c r="K333" t="s">
         <v>45</v>
       </c>
+      <c r="L333" s="6"/>
+      <c r="M333" s="6"/>
+      <c r="N333" s="6"/>
+      <c r="O333" s="6"/>
+      <c r="P333" s="6"/>
       <c r="Q333" t="s">
         <v>413</v>
       </c>
@@ -25726,6 +26960,11 @@
       <c r="K334" t="s">
         <v>1351</v>
       </c>
+      <c r="L334" s="6"/>
+      <c r="M334" s="6"/>
+      <c r="N334" s="6"/>
+      <c r="O334" s="6"/>
+      <c r="P334" s="6"/>
       <c r="Q334" t="s">
         <v>1345</v>
       </c>
@@ -25776,15 +27015,11 @@
       <c r="K335" t="s">
         <v>957</v>
       </c>
-      <c r="L335" t="s">
-        <v>259</v>
-      </c>
-      <c r="M335" t="s">
-        <v>2562</v>
-      </c>
-      <c r="N335" t="s">
-        <v>2529</v>
-      </c>
+      <c r="L335" s="6"/>
+      <c r="M335" s="6"/>
+      <c r="N335" s="6"/>
+      <c r="O335" s="6"/>
+      <c r="P335" s="6"/>
       <c r="S335" t="s">
         <v>2438</v>
       </c>
@@ -25832,12 +27067,17 @@
       <c r="K336" t="s">
         <v>1598</v>
       </c>
-      <c r="L336" t="s">
-        <v>454</v>
-      </c>
-      <c r="M336" t="s">
-        <v>2523</v>
-      </c>
+      <c r="L336" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M336" s="6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N336" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="O336" s="6"/>
+      <c r="P336" s="6"/>
       <c r="S336" t="s">
         <v>2446</v>
       </c>
@@ -25885,12 +27125,15 @@
       <c r="K337" t="s">
         <v>1169</v>
       </c>
-      <c r="L337" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M337" t="s">
+      <c r="L337" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="M337" s="6" t="s">
         <v>2523</v>
       </c>
+      <c r="N337" s="6"/>
+      <c r="O337" s="6"/>
+      <c r="P337" s="6"/>
       <c r="S337" t="s">
         <v>2452</v>
       </c>
@@ -25938,6 +27181,15 @@
       <c r="K338" t="s">
         <v>45</v>
       </c>
+      <c r="L338" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M338" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="N338" s="6"/>
+      <c r="O338" s="6"/>
+      <c r="P338" s="6"/>
       <c r="Q338" t="s">
         <v>1299</v>
       </c>
@@ -25988,15 +27240,11 @@
       <c r="K339" t="s">
         <v>101</v>
       </c>
-      <c r="L339" t="s">
-        <v>110</v>
-      </c>
-      <c r="M339" t="s">
-        <v>2525</v>
-      </c>
-      <c r="N339" t="s">
-        <v>2529</v>
-      </c>
+      <c r="L339" s="6"/>
+      <c r="M339" s="6"/>
+      <c r="N339" s="6"/>
+      <c r="O339" s="6"/>
+      <c r="P339" s="6"/>
       <c r="S339" t="s">
         <v>2468</v>
       </c>
@@ -26044,15 +27292,17 @@
       <c r="K340" t="s">
         <v>101</v>
       </c>
-      <c r="L340" t="s">
-        <v>102</v>
-      </c>
-      <c r="M340" t="s">
+      <c r="L340" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M340" s="6" t="s">
         <v>2525</v>
       </c>
-      <c r="N340" t="s">
+      <c r="N340" s="6" t="s">
         <v>2529</v>
       </c>
+      <c r="O340" s="6"/>
+      <c r="P340" s="6"/>
       <c r="S340" t="s">
         <v>2476</v>
       </c>
@@ -26100,12 +27350,17 @@
       <c r="K341" t="s">
         <v>2231</v>
       </c>
-      <c r="L341" t="s">
-        <v>2232</v>
-      </c>
-      <c r="M341" t="s">
+      <c r="L341" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M341" s="6" t="s">
         <v>2525</v>
       </c>
+      <c r="N341" s="6" t="s">
+        <v>2529</v>
+      </c>
+      <c r="O341" s="6"/>
+      <c r="P341" s="6"/>
       <c r="S341" t="s">
         <v>2483</v>
       </c>
@@ -26153,15 +27408,17 @@
       <c r="K342" t="s">
         <v>915</v>
       </c>
-      <c r="L342" t="s">
-        <v>916</v>
-      </c>
-      <c r="M342" t="s">
+      <c r="L342" s="6" t="s">
+        <v>2232</v>
+      </c>
+      <c r="M342" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="N342" s="6" t="s">
         <v>2523</v>
       </c>
-      <c r="N342" t="s">
-        <v>2532</v>
-      </c>
+      <c r="O342" s="6"/>
+      <c r="P342" s="6"/>
       <c r="S342" t="s">
         <v>2490</v>
       </c>
@@ -26209,6 +27466,17 @@
       <c r="K343" t="s">
         <v>45</v>
       </c>
+      <c r="L343" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="M343" s="6" t="s">
+        <v>2523</v>
+      </c>
+      <c r="N343" s="6" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O343" s="6"/>
+      <c r="P343" s="6"/>
       <c r="Q343" t="s">
         <v>56</v>
       </c>
@@ -26259,15 +27527,11 @@
       <c r="K344" s="3" t="s">
         <v>2557</v>
       </c>
-      <c r="L344" s="3" t="s">
-        <v>2558</v>
-      </c>
-      <c r="M344" s="3" t="s">
-        <v>2523</v>
-      </c>
-      <c r="N344" s="3"/>
-      <c r="O344" s="3"/>
-      <c r="P344" s="3"/>
+      <c r="L344" s="6"/>
+      <c r="M344" s="6"/>
+      <c r="N344" s="6"/>
+      <c r="O344" s="6"/>
+      <c r="P344" s="6"/>
       <c r="Q344" s="3"/>
       <c r="S344" t="s">
         <v>2510</v>
@@ -26328,10 +27592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF92F70E-F821-4BF3-BEDE-0403EAB13050}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26346,80 +27610,77 @@
         <v>2534</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>2567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2526</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1753</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2519</v>
+        <v>1753</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2535</v>
+        <v>2519</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>2535</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2560</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2561</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>519</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1889</v>
+        <v>2558</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2520</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1873</v>
+        <v>1889</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2522</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2521</v>
@@ -26427,123 +27688,135 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>2522</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2528</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2516</v>
+        <v>1881</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2521</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2527</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2517</v>
+        <v>2528</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2516</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>398</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2518</v>
+        <v>2527</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2517</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2537</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2538</v>
+        <v>440</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2518</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1205</v>
+        <v>248</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1881</v>
+        <v>2537</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2541</v>
+        <v>1205</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1897</v>
+        <v>1881</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>800</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2543</v>
-      </c>
-    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1619</v>
-      </c>
       <c r="B18" s="2" t="s">
         <v>1861</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>2543</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1619</v>
+      </c>
       <c r="B19" s="2" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
         <v>2553</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>2554</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{734494D1-BF74-4982-9BA6-9A4F527C7F50}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{6F488F43-E6A1-4537-AAE6-024FC1F19F4A}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{C75CC0E2-F644-4698-8F76-2033A951377B}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{21B6DA7B-382D-4C14-A953-2BD005B1F021}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{734494D1-BF74-4982-9BA6-9A4F527C7F50}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{6F488F43-E6A1-4537-AAE6-024FC1F19F4A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C75CC0E2-F644-4698-8F76-2033A951377B}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{21B6DA7B-382D-4C14-A953-2BD005B1F021}"/>
     <hyperlink ref="B1" r:id="rId5" xr:uid="{23B1C939-D2E7-4DB5-90D0-024BC1CA3888}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{59D04606-9BB8-4F29-8EE2-C0E441C33730}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{495F7B29-40F3-4BF5-840D-6A508DAEAAC5}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{E0BDFB02-BE74-41EA-84E7-195290E9DD52}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{77411C2E-D86B-4F0B-AAA5-DB4D73BE3A8D}"/>
-    <hyperlink ref="B8" r:id="rId10" xr:uid="{EFFC0D8A-8A53-4BE8-863F-02AC0C52A0EA}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{15F8ADBD-37F8-4761-957C-13AAE8432DA3}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{DB5018DE-4CE9-492C-9764-7CBFFBB7B8B6}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{023672C6-812E-466E-B17E-D668B2DC533A}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{9336E4C0-CA01-4858-B135-2E17092214E4}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{D88A09B1-569A-4F3F-9455-B2F37EDA1E65}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{ECF46755-47D5-46C4-A9BB-093FA764DBE5}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{7878D6E1-0B24-48E9-818F-B97C25152B71}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{55BBF5DD-9DC9-44B5-99DA-5CA7E243179B}"/>
-    <hyperlink ref="B6" r:id="rId19" xr:uid="{E5261A9B-B858-4940-8F24-05AA6163BFB3}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{59D04606-9BB8-4F29-8EE2-C0E441C33730}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{495F7B29-40F3-4BF5-840D-6A508DAEAAC5}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{E0BDFB02-BE74-41EA-84E7-195290E9DD52}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{77411C2E-D86B-4F0B-AAA5-DB4D73BE3A8D}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{EFFC0D8A-8A53-4BE8-863F-02AC0C52A0EA}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{15F8ADBD-37F8-4761-957C-13AAE8432DA3}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{DB5018DE-4CE9-492C-9764-7CBFFBB7B8B6}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{023672C6-812E-466E-B17E-D668B2DC533A}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{9336E4C0-CA01-4858-B135-2E17092214E4}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{D88A09B1-569A-4F3F-9455-B2F37EDA1E65}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{ECF46755-47D5-46C4-A9BB-093FA764DBE5}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{7878D6E1-0B24-48E9-818F-B97C25152B71}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{55BBF5DD-9DC9-44B5-99DA-5CA7E243179B}"/>
+    <hyperlink ref="B7" r:id="rId19" xr:uid="{E5261A9B-B858-4940-8F24-05AA6163BFB3}"/>
+    <hyperlink ref="B2" r:id="rId20" xr:uid="{6081074F-3CA7-4CDD-92C7-6A4A736ED9D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
+++ b/docs/FDA_EUA tests/FDAEUA_v3_Ontorat_q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linay\ontologies\GitHub\cido\docs\FDA_EUA tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30F9A88-FDAE-40EA-9D68-773C69FA2306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA114DB7-8518-4D77-8FE7-C284325BF241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CB072C4-4071-45ED-9E21-A7B6C58CD755}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5891" uniqueCount="2568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5891" uniqueCount="2566">
   <si>
     <t>Company/Organization</t>
   </si>
@@ -7784,16 +7784,10 @@
     <t xml:space="preserve">http://purl.obolibrary.org/obo/OGG_3043740579 </t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OGG_30437405791</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OGG_3043740577</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OGG_3043740571</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://purl.obolibrary.org/obo/OGG_30437405791</t>
   </si>
   <si>
     <t>ORF8</t>
@@ -7880,7 +7874,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -7888,6 +7882,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10568,8 +10563,8 @@
       <c r="L42" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="M42" s="6" t="s">
-        <v>2563</v>
+      <c r="M42" s="7" t="s">
+        <v>2560</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>2532</v>
@@ -10627,7 +10622,7 @@
         <v>649</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
@@ -11339,7 +11334,7 @@
         <v>2560</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
@@ -11397,7 +11392,7 @@
         <v>2526</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
@@ -11455,7 +11450,7 @@
         <v>2526</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
@@ -20516,7 +20511,7 @@
         <v>2560</v>
       </c>
       <c r="N219" s="6" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="O219" s="6"/>
       <c r="P219" s="6"/>
@@ -26629,7 +26624,7 @@
         <v>2523</v>
       </c>
       <c r="N328" s="6" t="s">
-        <v>2566</v>
+        <v>2561</v>
       </c>
       <c r="O328" s="6"/>
       <c r="P328" s="6"/>
@@ -27585,8 +27580,11 @@
     <sortCondition ref="B43:B344"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M42" r:id="rId1" display="http://purl.obolibrary.org/obo/OGG_30437405791" xr:uid="{91928038-6FAA-40D8-98FE-EB27C0AD1681}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27595,7 +27593,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27615,10 +27613,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
